--- a/03.指标管理/大宗/指标定义表V2.1.3.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="624"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="624" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="3049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="3048">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17275,10 +17275,6 @@
   </si>
   <si>
     <t>线下价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shen'q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -19666,14 +19662,14 @@
     <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19684,23 +19680,14 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19711,6 +19698,30 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -19719,6 +19730,12 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19735,47 +19752,26 @@
     <xf numFmtId="0" fontId="45" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -20928,10 +20924,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J293" sqref="J293"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -20989,13 +20985,13 @@
       <c r="A2" s="176">
         <v>1</v>
       </c>
-      <c r="B2" s="315" t="s">
+      <c r="B2" s="306" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="300" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="319" t="s">
+      <c r="D2" s="303" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="177" t="s">
@@ -21015,10 +21011,10 @@
         <v>2229</v>
       </c>
       <c r="K2" s="181" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="L2" s="177" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="M2" s="182" t="s">
         <v>1339</v>
@@ -21028,9 +21024,9 @@
       <c r="A3" s="176">
         <v>2</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="320"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="309"/>
       <c r="E3" s="177" t="s">
         <v>1340</v>
       </c>
@@ -21046,7 +21042,7 @@
         <v>2230</v>
       </c>
       <c r="K3" s="177" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="L3" s="177" t="s">
         <v>1342</v>
@@ -21055,9 +21051,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="176"/>
-      <c r="B4" s="316"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="320"/>
+      <c r="B4" s="307"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="309"/>
       <c r="E4" s="177" t="s">
         <v>1343</v>
       </c>
@@ -21070,19 +21066,19 @@
       </c>
       <c r="I4" s="181"/>
       <c r="J4" s="181" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="K4" s="181" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="L4" s="177"/>
       <c r="M4" s="183"/>
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="184"/>
-      <c r="B5" s="316"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="320"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="309"/>
       <c r="E5" s="185"/>
       <c r="F5" s="186"/>
       <c r="G5" s="179" t="s">
@@ -21098,7 +21094,7 @@
         <v>2232</v>
       </c>
       <c r="K5" s="269" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="L5" s="185" t="s">
         <v>1344</v>
@@ -21107,9 +21103,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="176"/>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="320"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="309"/>
       <c r="E6" s="177"/>
       <c r="F6" s="178"/>
       <c r="G6" s="179" t="s">
@@ -21128,9 +21124,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="176"/>
-      <c r="B7" s="316"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="320"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="309"/>
       <c r="E7" s="177"/>
       <c r="F7" s="178"/>
       <c r="G7" s="179" t="s">
@@ -21149,8 +21145,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="176"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="304"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="301"/>
       <c r="D8" s="190"/>
       <c r="E8" s="177"/>
       <c r="F8" s="178"/>
@@ -21168,8 +21164,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="176"/>
-      <c r="B9" s="316"/>
-      <c r="C9" s="304"/>
+      <c r="B9" s="307"/>
+      <c r="C9" s="301"/>
       <c r="D9" s="190"/>
       <c r="E9" s="177"/>
       <c r="F9" s="178"/>
@@ -21177,11 +21173,11 @@
         <v>1347</v>
       </c>
       <c r="H9" s="187" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="I9" s="181"/>
       <c r="J9" s="191" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="K9" s="192"/>
       <c r="L9" s="183"/>
@@ -21189,8 +21185,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="176"/>
-      <c r="B10" s="316"/>
-      <c r="C10" s="304"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="301"/>
       <c r="D10" s="190"/>
       <c r="E10" s="177"/>
       <c r="F10" s="178"/>
@@ -21210,8 +21206,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="184"/>
-      <c r="B11" s="316"/>
-      <c r="C11" s="304"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="301"/>
       <c r="D11" s="193" t="s">
         <v>0</v>
       </c>
@@ -21233,8 +21229,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="176"/>
-      <c r="B12" s="316"/>
-      <c r="C12" s="304"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="301"/>
       <c r="D12" s="194" t="s">
         <v>0</v>
       </c>
@@ -21256,8 +21252,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="176"/>
-      <c r="B13" s="316"/>
-      <c r="C13" s="304"/>
+      <c r="B13" s="307"/>
+      <c r="C13" s="301"/>
       <c r="D13" s="194" t="s">
         <v>0</v>
       </c>
@@ -21279,8 +21275,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="176"/>
-      <c r="B14" s="316"/>
-      <c r="C14" s="304"/>
+      <c r="B14" s="307"/>
+      <c r="C14" s="301"/>
       <c r="D14" s="195" t="s">
         <v>2237</v>
       </c>
@@ -21293,10 +21289,10 @@
         <v>2239</v>
       </c>
       <c r="I14" s="181" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="J14" s="181" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="K14" s="181"/>
       <c r="L14" s="177"/>
@@ -21304,8 +21300,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="176"/>
-      <c r="B15" s="316"/>
-      <c r="C15" s="304"/>
+      <c r="B15" s="307"/>
+      <c r="C15" s="301"/>
       <c r="D15" s="195"/>
       <c r="E15" s="177"/>
       <c r="F15" s="178"/>
@@ -21325,8 +21321,8 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="176"/>
-      <c r="B16" s="316"/>
-      <c r="C16" s="304"/>
+      <c r="B16" s="307"/>
+      <c r="C16" s="301"/>
       <c r="D16" s="294" t="s">
         <v>1353</v>
       </c>
@@ -21348,8 +21344,8 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="176"/>
-      <c r="B17" s="316"/>
-      <c r="C17" s="304"/>
+      <c r="B17" s="307"/>
+      <c r="C17" s="301"/>
       <c r="D17" s="295"/>
       <c r="E17" s="177"/>
       <c r="F17" s="178"/>
@@ -21369,8 +21365,8 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="176"/>
-      <c r="B18" s="316"/>
-      <c r="C18" s="304"/>
+      <c r="B18" s="307"/>
+      <c r="C18" s="301"/>
       <c r="D18" s="296"/>
       <c r="E18" s="177"/>
       <c r="F18" s="178"/>
@@ -21388,8 +21384,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="184"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="304"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="301"/>
       <c r="D19" s="193" t="s">
         <v>1358</v>
       </c>
@@ -21413,8 +21409,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="176"/>
-      <c r="B20" s="316"/>
-      <c r="C20" s="304"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="301"/>
       <c r="D20" s="194" t="s">
         <v>1360</v>
       </c>
@@ -21438,9 +21434,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
-      <c r="B21" s="316"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="315" t="s">
+      <c r="B21" s="307"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="306" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="177"/>
@@ -21461,16 +21457,16 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="176"/>
-      <c r="B22" s="316"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="316"/>
+      <c r="B22" s="307"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="307"/>
       <c r="E22" s="177"/>
       <c r="F22" s="178"/>
       <c r="G22" s="179" t="s">
         <v>1364</v>
       </c>
       <c r="H22" s="180" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="I22" s="181"/>
       <c r="J22" s="181" t="s">
@@ -21482,9 +21478,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="176"/>
-      <c r="B23" s="316"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="316"/>
+      <c r="B23" s="307"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="307"/>
       <c r="E23" s="177"/>
       <c r="F23" s="178"/>
       <c r="G23" s="179" t="s">
@@ -21505,9 +21501,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="176"/>
-      <c r="B24" s="316"/>
-      <c r="C24" s="304"/>
-      <c r="D24" s="316"/>
+      <c r="B24" s="307"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="307"/>
       <c r="E24" s="177"/>
       <c r="F24" s="178"/>
       <c r="G24" s="179" t="s">
@@ -21528,9 +21524,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="176"/>
-      <c r="B25" s="316"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="316"/>
+      <c r="B25" s="307"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="307"/>
       <c r="E25" s="177"/>
       <c r="F25" s="178"/>
       <c r="G25" s="179" t="s">
@@ -21549,9 +21545,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="176"/>
-      <c r="B26" s="316"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="316"/>
+      <c r="B26" s="307"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="177"/>
       <c r="F26" s="178"/>
       <c r="G26" s="179" t="s">
@@ -21572,9 +21568,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="176"/>
-      <c r="B27" s="316"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="316"/>
+      <c r="B27" s="307"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="177"/>
       <c r="F27" s="178"/>
       <c r="G27" s="199" t="s">
@@ -21595,9 +21591,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="176"/>
-      <c r="B28" s="316"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="316"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="307"/>
       <c r="E28" s="177"/>
       <c r="F28" s="178"/>
       <c r="G28" s="197" t="s">
@@ -21618,9 +21614,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="201"/>
-      <c r="B29" s="316"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="316"/>
+      <c r="B29" s="307"/>
+      <c r="C29" s="301"/>
+      <c r="D29" s="307"/>
       <c r="E29" s="177"/>
       <c r="F29" s="178"/>
       <c r="G29" s="202" t="s">
@@ -21630,10 +21626,10 @@
         <v>77</v>
       </c>
       <c r="I29" s="203" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="J29" s="204" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="K29" s="204"/>
       <c r="L29" s="177"/>
@@ -21641,9 +21637,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="176"/>
-      <c r="B30" s="316"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="316"/>
+      <c r="B30" s="307"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="307"/>
       <c r="E30" s="177"/>
       <c r="F30" s="178"/>
       <c r="G30" s="197" t="s">
@@ -21664,9 +21660,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="176"/>
-      <c r="B31" s="316"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="316"/>
+      <c r="B31" s="307"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="307"/>
       <c r="E31" s="177"/>
       <c r="F31" s="178"/>
       <c r="G31" s="197" t="s">
@@ -21676,10 +21672,10 @@
         <v>1498</v>
       </c>
       <c r="I31" s="203" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J31" s="203" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="K31" s="203"/>
       <c r="L31" s="177" t="s">
@@ -21689,9 +21685,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="176"/>
-      <c r="B32" s="316"/>
-      <c r="C32" s="304"/>
-      <c r="D32" s="316"/>
+      <c r="B32" s="307"/>
+      <c r="C32" s="301"/>
+      <c r="D32" s="307"/>
       <c r="E32" s="177"/>
       <c r="F32" s="178"/>
       <c r="G32" s="197" t="s">
@@ -21701,10 +21697,10 @@
         <v>2859</v>
       </c>
       <c r="I32" s="208" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="J32" s="203" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="K32" s="203"/>
       <c r="L32" s="177"/>
@@ -21712,19 +21708,19 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="176"/>
-      <c r="B33" s="316"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="316"/>
+      <c r="B33" s="307"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="307"/>
       <c r="E33" s="177"/>
       <c r="F33" s="178"/>
       <c r="G33" s="197" t="s">
         <v>201</v>
       </c>
       <c r="H33" s="209" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="I33" s="208" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="J33" s="203" t="s">
         <v>2907</v>
@@ -21735,9 +21731,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="176"/>
-      <c r="B34" s="316"/>
-      <c r="C34" s="304"/>
-      <c r="D34" s="316"/>
+      <c r="B34" s="307"/>
+      <c r="C34" s="301"/>
+      <c r="D34" s="307"/>
       <c r="E34" s="177"/>
       <c r="F34" s="178"/>
       <c r="G34" s="197" t="s">
@@ -21747,7 +21743,7 @@
         <v>1528</v>
       </c>
       <c r="I34" s="208" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="J34" s="203" t="s">
         <v>2907</v>
@@ -21758,9 +21754,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="176"/>
-      <c r="B35" s="316"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="316"/>
+      <c r="B35" s="307"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="307"/>
       <c r="E35" s="177"/>
       <c r="F35" s="178"/>
       <c r="G35" s="210" t="s">
@@ -21781,9 +21777,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="176"/>
-      <c r="B36" s="316"/>
-      <c r="C36" s="304"/>
-      <c r="D36" s="316"/>
+      <c r="B36" s="307"/>
+      <c r="C36" s="301"/>
+      <c r="D36" s="307"/>
       <c r="E36" s="177"/>
       <c r="F36" s="178"/>
       <c r="G36" s="212" t="s">
@@ -21796,7 +21792,7 @@
         <v>2909</v>
       </c>
       <c r="J36" s="203" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="K36" s="203"/>
       <c r="L36" s="177"/>
@@ -21804,9 +21800,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="176"/>
-      <c r="B37" s="316"/>
-      <c r="C37" s="304"/>
-      <c r="D37" s="316"/>
+      <c r="B37" s="307"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="307"/>
       <c r="E37" s="177"/>
       <c r="F37" s="178"/>
       <c r="G37" s="197" t="s">
@@ -21819,7 +21815,7 @@
         <v>2910</v>
       </c>
       <c r="J37" s="203" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K37" s="203"/>
       <c r="L37" s="177"/>
@@ -21827,9 +21823,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="176"/>
-      <c r="B38" s="316"/>
-      <c r="C38" s="304"/>
-      <c r="D38" s="316"/>
+      <c r="B38" s="307"/>
+      <c r="C38" s="301"/>
+      <c r="D38" s="307"/>
       <c r="E38" s="177"/>
       <c r="F38" s="178"/>
       <c r="G38" s="197" t="s">
@@ -21850,9 +21846,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="176"/>
-      <c r="B39" s="316"/>
-      <c r="C39" s="304"/>
-      <c r="D39" s="316"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="307"/>
       <c r="E39" s="177"/>
       <c r="F39" s="178"/>
       <c r="G39" s="197" t="s">
@@ -21873,9 +21869,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="176"/>
-      <c r="B40" s="316"/>
-      <c r="C40" s="304"/>
-      <c r="D40" s="316"/>
+      <c r="B40" s="307"/>
+      <c r="C40" s="301"/>
+      <c r="D40" s="307"/>
       <c r="E40" s="177"/>
       <c r="F40" s="178"/>
       <c r="G40" s="202" t="s">
@@ -21885,10 +21881,10 @@
         <v>225</v>
       </c>
       <c r="I40" s="203" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="J40" s="203" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="K40" s="203"/>
       <c r="L40" s="177"/>
@@ -21896,9 +21892,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="176"/>
-      <c r="B41" s="316"/>
-      <c r="C41" s="304"/>
-      <c r="D41" s="316"/>
+      <c r="B41" s="307"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="307"/>
       <c r="E41" s="177"/>
       <c r="F41" s="178"/>
       <c r="G41" s="215" t="s">
@@ -21919,9 +21915,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="176"/>
-      <c r="B42" s="316"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="316"/>
+      <c r="B42" s="307"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="307"/>
       <c r="E42" s="177"/>
       <c r="F42" s="178"/>
       <c r="G42" s="212" t="s">
@@ -21931,7 +21927,7 @@
         <v>1538</v>
       </c>
       <c r="I42" s="208" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="J42" s="203" t="s">
         <v>2908</v>
@@ -21942,9 +21938,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="176"/>
-      <c r="B43" s="316"/>
-      <c r="C43" s="304"/>
-      <c r="D43" s="316"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="301"/>
+      <c r="D43" s="307"/>
       <c r="E43" s="177"/>
       <c r="F43" s="178"/>
       <c r="G43" s="197" t="s">
@@ -21954,7 +21950,7 @@
         <v>1501</v>
       </c>
       <c r="I43" s="208" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="J43" s="203" t="s">
         <v>2908</v>
@@ -21965,9 +21961,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="176"/>
-      <c r="B44" s="316"/>
-      <c r="C44" s="304"/>
-      <c r="D44" s="316"/>
+      <c r="B44" s="307"/>
+      <c r="C44" s="301"/>
+      <c r="D44" s="307"/>
       <c r="E44" s="177"/>
       <c r="F44" s="178"/>
       <c r="G44" s="197" t="s">
@@ -21977,7 +21973,7 @@
         <v>1490</v>
       </c>
       <c r="I44" s="208" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="J44" s="203" t="s">
         <v>2908</v>
@@ -21988,9 +21984,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="176"/>
-      <c r="B45" s="316"/>
-      <c r="C45" s="304"/>
-      <c r="D45" s="316"/>
+      <c r="B45" s="307"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="307"/>
       <c r="E45" s="177"/>
       <c r="F45" s="178"/>
       <c r="G45" s="197" t="s">
@@ -22011,9 +22007,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="176"/>
-      <c r="B46" s="316"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="316"/>
+      <c r="B46" s="307"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="307"/>
       <c r="E46" s="177"/>
       <c r="F46" s="178"/>
       <c r="G46" s="197" t="s">
@@ -22036,9 +22032,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="176"/>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="316"/>
+      <c r="B47" s="307"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="307"/>
       <c r="E47" s="177"/>
       <c r="F47" s="178"/>
       <c r="G47" s="219" t="s">
@@ -22059,9 +22055,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="176"/>
-      <c r="B48" s="316"/>
-      <c r="C48" s="304"/>
-      <c r="D48" s="316"/>
+      <c r="B48" s="307"/>
+      <c r="C48" s="301"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="177"/>
       <c r="F48" s="178"/>
       <c r="G48" s="219" t="s">
@@ -22078,9 +22074,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="176"/>
-      <c r="B49" s="316"/>
-      <c r="C49" s="304"/>
-      <c r="D49" s="316"/>
+      <c r="B49" s="307"/>
+      <c r="C49" s="301"/>
+      <c r="D49" s="307"/>
       <c r="E49" s="177"/>
       <c r="F49" s="178"/>
       <c r="G49" s="210" t="s">
@@ -22090,7 +22086,7 @@
         <v>1507</v>
       </c>
       <c r="I49" s="211" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="J49" s="220" t="s">
         <v>2832</v>
@@ -22101,9 +22097,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="176"/>
-      <c r="B50" s="316"/>
-      <c r="C50" s="304"/>
-      <c r="D50" s="316"/>
+      <c r="B50" s="307"/>
+      <c r="C50" s="301"/>
+      <c r="D50" s="307"/>
       <c r="E50" s="177"/>
       <c r="F50" s="178"/>
       <c r="G50" s="212" t="s">
@@ -22113,7 +22109,7 @@
         <v>1492</v>
       </c>
       <c r="I50" s="221" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="J50" s="222" t="s">
         <v>2833</v>
@@ -22124,9 +22120,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="176"/>
-      <c r="B51" s="316"/>
-      <c r="C51" s="304"/>
-      <c r="D51" s="316"/>
+      <c r="B51" s="307"/>
+      <c r="C51" s="301"/>
+      <c r="D51" s="307"/>
       <c r="E51" s="177"/>
       <c r="F51" s="178"/>
       <c r="G51" s="197" t="s">
@@ -22147,9 +22143,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="176"/>
-      <c r="B52" s="316"/>
-      <c r="C52" s="304"/>
-      <c r="D52" s="316"/>
+      <c r="B52" s="307"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="307"/>
       <c r="E52" s="177"/>
       <c r="F52" s="178"/>
       <c r="G52" s="197" t="s">
@@ -22170,9 +22166,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="176"/>
-      <c r="B53" s="316"/>
-      <c r="C53" s="304"/>
-      <c r="D53" s="316"/>
+      <c r="B53" s="307"/>
+      <c r="C53" s="301"/>
+      <c r="D53" s="307"/>
       <c r="E53" s="177"/>
       <c r="F53" s="178"/>
       <c r="G53" s="197" t="s">
@@ -22193,9 +22189,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="176"/>
-      <c r="B54" s="316"/>
-      <c r="C54" s="304"/>
-      <c r="D54" s="316"/>
+      <c r="B54" s="307"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="307"/>
       <c r="E54" s="177"/>
       <c r="F54" s="178"/>
       <c r="G54" s="197" t="s">
@@ -22211,14 +22207,14 @@
         <v>2843</v>
       </c>
       <c r="K54" s="224"/>
-      <c r="L54" s="309"/>
+      <c r="L54" s="316"/>
       <c r="M54" s="183"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="176"/>
-      <c r="B55" s="316"/>
-      <c r="C55" s="304"/>
-      <c r="D55" s="316"/>
+      <c r="B55" s="307"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="307"/>
       <c r="E55" s="177"/>
       <c r="F55" s="178"/>
       <c r="G55" s="219" t="s">
@@ -22230,14 +22226,14 @@
       <c r="I55" s="203"/>
       <c r="J55" s="225"/>
       <c r="K55" s="225"/>
-      <c r="L55" s="310"/>
+      <c r="L55" s="317"/>
       <c r="M55" s="183"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="176"/>
-      <c r="B56" s="316"/>
-      <c r="C56" s="304"/>
-      <c r="D56" s="316"/>
+      <c r="B56" s="307"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="307"/>
       <c r="E56" s="177"/>
       <c r="F56" s="178"/>
       <c r="G56" s="197" t="s">
@@ -22250,7 +22246,7 @@
         <v>1529</v>
       </c>
       <c r="J56" s="226" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="K56" s="226"/>
       <c r="L56" s="177" t="s">
@@ -22260,9 +22256,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="176"/>
-      <c r="B57" s="316"/>
-      <c r="C57" s="304"/>
-      <c r="D57" s="316"/>
+      <c r="B57" s="307"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="307"/>
       <c r="E57" s="177"/>
       <c r="F57" s="178"/>
       <c r="G57" s="219" t="s">
@@ -22281,9 +22277,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="176"/>
-      <c r="B58" s="316"/>
-      <c r="C58" s="304"/>
-      <c r="D58" s="316"/>
+      <c r="B58" s="307"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="307"/>
       <c r="E58" s="177"/>
       <c r="F58" s="178"/>
       <c r="G58" s="197" t="s">
@@ -22304,9 +22300,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="176"/>
-      <c r="B59" s="316"/>
-      <c r="C59" s="304"/>
-      <c r="D59" s="316"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="177"/>
       <c r="F59" s="178"/>
       <c r="G59" s="197" t="s">
@@ -22327,9 +22323,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="176"/>
-      <c r="B60" s="316"/>
-      <c r="C60" s="304"/>
-      <c r="D60" s="316"/>
+      <c r="B60" s="307"/>
+      <c r="C60" s="301"/>
+      <c r="D60" s="307"/>
       <c r="E60" s="177"/>
       <c r="F60" s="178"/>
       <c r="G60" s="215" t="s">
@@ -22348,9 +22344,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="176"/>
-      <c r="B61" s="316"/>
-      <c r="C61" s="304"/>
-      <c r="D61" s="316"/>
+      <c r="B61" s="307"/>
+      <c r="C61" s="301"/>
+      <c r="D61" s="307"/>
       <c r="E61" s="177"/>
       <c r="F61" s="178"/>
       <c r="G61" s="212" t="s">
@@ -22371,9 +22367,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="176"/>
-      <c r="B62" s="316"/>
-      <c r="C62" s="304"/>
-      <c r="D62" s="316"/>
+      <c r="B62" s="307"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="307"/>
       <c r="E62" s="177"/>
       <c r="F62" s="178"/>
       <c r="G62" s="197" t="s">
@@ -22392,9 +22388,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="176"/>
-      <c r="B63" s="316"/>
-      <c r="C63" s="304"/>
-      <c r="D63" s="316"/>
+      <c r="B63" s="307"/>
+      <c r="C63" s="301"/>
+      <c r="D63" s="307"/>
       <c r="E63" s="177"/>
       <c r="F63" s="178"/>
       <c r="G63" s="197" t="s">
@@ -22413,9 +22409,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="176"/>
-      <c r="B64" s="316"/>
-      <c r="C64" s="304"/>
-      <c r="D64" s="316"/>
+      <c r="B64" s="307"/>
+      <c r="C64" s="301"/>
+      <c r="D64" s="307"/>
       <c r="E64" s="177"/>
       <c r="F64" s="178"/>
       <c r="G64" s="210" t="s">
@@ -22434,9 +22430,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="176"/>
-      <c r="B65" s="316"/>
-      <c r="C65" s="304"/>
-      <c r="D65" s="316"/>
+      <c r="B65" s="307"/>
+      <c r="C65" s="301"/>
+      <c r="D65" s="307"/>
       <c r="E65" s="177"/>
       <c r="F65" s="178"/>
       <c r="G65" s="212" t="s">
@@ -22455,9 +22451,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="176"/>
-      <c r="B66" s="317"/>
-      <c r="C66" s="305"/>
-      <c r="D66" s="317"/>
+      <c r="B66" s="308"/>
+      <c r="C66" s="302"/>
+      <c r="D66" s="308"/>
       <c r="E66" s="177"/>
       <c r="F66" s="178"/>
       <c r="G66" s="230" t="s">
@@ -22468,7 +22464,7 @@
       </c>
       <c r="I66" s="232"/>
       <c r="J66" s="225" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="K66" s="225"/>
       <c r="L66" s="177"/>
@@ -22476,10 +22472,10 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="176"/>
-      <c r="B67" s="315" t="s">
+      <c r="B67" s="306" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="303" t="s">
+      <c r="C67" s="300" t="s">
         <v>1373</v>
       </c>
       <c r="D67" s="294" t="s">
@@ -22505,8 +22501,8 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="176"/>
-      <c r="B68" s="316"/>
-      <c r="C68" s="304"/>
+      <c r="B68" s="307"/>
+      <c r="C68" s="301"/>
       <c r="D68" s="295"/>
       <c r="E68" s="177"/>
       <c r="F68" s="178"/>
@@ -22526,8 +22522,8 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="176"/>
-      <c r="B69" s="316"/>
-      <c r="C69" s="304"/>
+      <c r="B69" s="307"/>
+      <c r="C69" s="301"/>
       <c r="D69" s="296"/>
       <c r="E69" s="177"/>
       <c r="F69" s="178"/>
@@ -22551,8 +22547,8 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="176"/>
-      <c r="B70" s="316"/>
-      <c r="C70" s="303" t="s">
+      <c r="B70" s="307"/>
+      <c r="C70" s="300" t="s">
         <v>1376</v>
       </c>
       <c r="D70" s="294" t="s">
@@ -22578,8 +22574,8 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="176"/>
-      <c r="B71" s="316"/>
-      <c r="C71" s="304"/>
+      <c r="B71" s="307"/>
+      <c r="C71" s="301"/>
       <c r="D71" s="295"/>
       <c r="E71" s="177"/>
       <c r="F71" s="178"/>
@@ -22601,8 +22597,8 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="176"/>
-      <c r="B72" s="316"/>
-      <c r="C72" s="304"/>
+      <c r="B72" s="307"/>
+      <c r="C72" s="301"/>
       <c r="D72" s="295"/>
       <c r="E72" s="177"/>
       <c r="F72" s="178"/>
@@ -22624,8 +22620,8 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="176"/>
-      <c r="B73" s="316"/>
-      <c r="C73" s="304"/>
+      <c r="B73" s="307"/>
+      <c r="C73" s="301"/>
       <c r="D73" s="296"/>
       <c r="E73" s="177"/>
       <c r="F73" s="178"/>
@@ -22647,8 +22643,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="176"/>
-      <c r="B74" s="316"/>
-      <c r="C74" s="304"/>
+      <c r="B74" s="307"/>
+      <c r="C74" s="301"/>
       <c r="D74" s="233" t="s">
         <v>5</v>
       </c>
@@ -22675,7 +22671,7 @@
       <c r="B75" s="294" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="303" t="s">
+      <c r="C75" s="300" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="194" t="s">
@@ -22700,7 +22696,7 @@
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="234"/>
       <c r="B76" s="295"/>
-      <c r="C76" s="304"/>
+      <c r="C76" s="301"/>
       <c r="D76" s="195" t="s">
         <v>1577</v>
       </c>
@@ -22710,7 +22706,7 @@
         <v>1578</v>
       </c>
       <c r="H76" s="180" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="I76" s="181"/>
       <c r="J76" s="181" t="s">
@@ -22723,7 +22719,7 @@
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="234"/>
       <c r="B77" s="295"/>
-      <c r="C77" s="304"/>
+      <c r="C77" s="301"/>
       <c r="D77" s="195" t="s">
         <v>1579</v>
       </c>
@@ -22748,7 +22744,7 @@
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="234"/>
       <c r="B78" s="295"/>
-      <c r="C78" s="304"/>
+      <c r="C78" s="301"/>
       <c r="D78" s="294" t="s">
         <v>1590</v>
       </c>
@@ -22760,7 +22756,7 @@
       <c r="H78" s="180"/>
       <c r="I78" s="181"/>
       <c r="J78" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K78" s="181"/>
       <c r="L78" s="177"/>
@@ -22769,7 +22765,7 @@
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="234"/>
       <c r="B79" s="295"/>
-      <c r="C79" s="304"/>
+      <c r="C79" s="301"/>
       <c r="D79" s="295"/>
       <c r="E79" s="177"/>
       <c r="F79" s="178"/>
@@ -22780,7 +22776,7 @@
         <v>1594</v>
       </c>
       <c r="I79" s="203" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="J79" s="203" t="s">
         <v>2908</v>
@@ -22794,7 +22790,7 @@
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="234"/>
       <c r="B80" s="295"/>
-      <c r="C80" s="304"/>
+      <c r="C80" s="301"/>
       <c r="D80" s="296"/>
       <c r="E80" s="177"/>
       <c r="F80" s="178"/>
@@ -22805,7 +22801,7 @@
         <v>1595</v>
       </c>
       <c r="I80" s="203" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="J80" s="203" t="s">
         <v>2908</v>
@@ -22817,7 +22813,7 @@
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="234"/>
       <c r="B81" s="295"/>
-      <c r="C81" s="304"/>
+      <c r="C81" s="301"/>
       <c r="D81" s="294" t="s">
         <v>1387</v>
       </c>
@@ -22844,7 +22840,7 @@
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="234"/>
       <c r="B82" s="295"/>
-      <c r="C82" s="304"/>
+      <c r="C82" s="301"/>
       <c r="D82" s="295"/>
       <c r="E82" s="177"/>
       <c r="F82" s="178"/>
@@ -22867,7 +22863,7 @@
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="234"/>
       <c r="B83" s="295"/>
-      <c r="C83" s="304"/>
+      <c r="C83" s="301"/>
       <c r="D83" s="295"/>
       <c r="E83" s="177"/>
       <c r="F83" s="178"/>
@@ -22890,7 +22886,7 @@
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="234"/>
       <c r="B84" s="295"/>
-      <c r="C84" s="304"/>
+      <c r="C84" s="301"/>
       <c r="D84" s="295"/>
       <c r="E84" s="177"/>
       <c r="F84" s="178"/>
@@ -22913,7 +22909,7 @@
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="234"/>
       <c r="B85" s="295"/>
-      <c r="C85" s="304"/>
+      <c r="C85" s="301"/>
       <c r="D85" s="296"/>
       <c r="E85" s="177"/>
       <c r="F85" s="178"/>
@@ -22936,7 +22932,7 @@
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="234"/>
       <c r="B86" s="295"/>
-      <c r="C86" s="304"/>
+      <c r="C86" s="301"/>
       <c r="D86" s="294" t="s">
         <v>1394</v>
       </c>
@@ -22963,7 +22959,7 @@
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="234"/>
       <c r="B87" s="295"/>
-      <c r="C87" s="304"/>
+      <c r="C87" s="301"/>
       <c r="D87" s="296"/>
       <c r="E87" s="177"/>
       <c r="F87" s="178"/>
@@ -22986,7 +22982,7 @@
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="234"/>
       <c r="B88" s="295"/>
-      <c r="C88" s="304"/>
+      <c r="C88" s="301"/>
       <c r="D88" s="194" t="s">
         <v>1</v>
       </c>
@@ -23013,7 +23009,7 @@
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="234"/>
       <c r="B89" s="295"/>
-      <c r="C89" s="304"/>
+      <c r="C89" s="301"/>
       <c r="D89" s="294" t="s">
         <v>1398</v>
       </c>
@@ -23029,7 +23025,7 @@
         <v>2851</v>
       </c>
       <c r="J89" s="191" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="K89" s="191"/>
       <c r="L89" s="214"/>
@@ -23038,7 +23034,7 @@
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="234"/>
       <c r="B90" s="295"/>
-      <c r="C90" s="304"/>
+      <c r="C90" s="301"/>
       <c r="D90" s="295"/>
       <c r="E90" s="177"/>
       <c r="F90" s="178"/>
@@ -23046,10 +23042,10 @@
         <v>1400</v>
       </c>
       <c r="H90" s="180" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="I90" s="180" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="J90" s="188" t="s">
         <v>2852</v>
@@ -23061,7 +23057,7 @@
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="234"/>
       <c r="B91" s="295"/>
-      <c r="C91" s="304"/>
+      <c r="C91" s="301"/>
       <c r="D91" s="295"/>
       <c r="E91" s="177"/>
       <c r="F91" s="178"/>
@@ -23069,10 +23065,10 @@
         <v>1401</v>
       </c>
       <c r="H91" s="180" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="I91" s="180" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="J91" s="188" t="s">
         <v>2853</v>
@@ -23084,7 +23080,7 @@
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="234"/>
       <c r="B92" s="295"/>
-      <c r="C92" s="304"/>
+      <c r="C92" s="301"/>
       <c r="D92" s="295"/>
       <c r="E92" s="177"/>
       <c r="F92" s="178"/>
@@ -23092,10 +23088,10 @@
         <v>1402</v>
       </c>
       <c r="H92" s="180" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="I92" s="180" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="J92" s="188" t="s">
         <v>2854</v>
@@ -23107,7 +23103,7 @@
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="234"/>
       <c r="B93" s="295"/>
-      <c r="C93" s="304"/>
+      <c r="C93" s="301"/>
       <c r="D93" s="296"/>
       <c r="E93" s="177"/>
       <c r="F93" s="178"/>
@@ -23115,10 +23111,10 @@
         <v>1403</v>
       </c>
       <c r="H93" s="187" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="I93" s="187" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="J93" s="188" t="s">
         <v>2855</v>
@@ -23130,7 +23126,7 @@
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="234"/>
       <c r="B94" s="295"/>
-      <c r="C94" s="304"/>
+      <c r="C94" s="301"/>
       <c r="D94" s="294" t="s">
         <v>2</v>
       </c>
@@ -23143,10 +23139,10 @@
         <v>1586</v>
       </c>
       <c r="I94" s="181" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="J94" s="181" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="K94" s="181"/>
       <c r="L94" s="214"/>
@@ -23155,7 +23151,7 @@
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="234"/>
       <c r="B95" s="295"/>
-      <c r="C95" s="304"/>
+      <c r="C95" s="301"/>
       <c r="D95" s="295"/>
       <c r="E95" s="177"/>
       <c r="F95" s="178"/>
@@ -23166,7 +23162,7 @@
         <v>1588</v>
       </c>
       <c r="I95" s="240" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="J95" s="203" t="s">
         <v>2908</v>
@@ -23180,7 +23176,7 @@
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="234"/>
       <c r="B96" s="295"/>
-      <c r="C96" s="304"/>
+      <c r="C96" s="301"/>
       <c r="D96" s="296"/>
       <c r="E96" s="177"/>
       <c r="F96" s="178"/>
@@ -23201,7 +23197,7 @@
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="234"/>
       <c r="B97" s="295"/>
-      <c r="C97" s="304"/>
+      <c r="C97" s="301"/>
       <c r="D97" s="294" t="s">
         <v>1406</v>
       </c>
@@ -23211,10 +23207,10 @@
         <v>1407</v>
       </c>
       <c r="H97" s="180" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="I97" s="241" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="J97" s="203" t="s">
         <v>2908</v>
@@ -23226,7 +23222,7 @@
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="234"/>
       <c r="B98" s="295"/>
-      <c r="C98" s="304"/>
+      <c r="C98" s="301"/>
       <c r="D98" s="296"/>
       <c r="E98" s="177"/>
       <c r="F98" s="178"/>
@@ -23238,7 +23234,7 @@
         <v>1599</v>
       </c>
       <c r="J98" s="181" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="K98" s="181"/>
       <c r="L98" s="177"/>
@@ -23247,8 +23243,8 @@
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="274"/>
       <c r="B99" s="295"/>
-      <c r="C99" s="304"/>
-      <c r="D99" s="314" t="s">
+      <c r="C99" s="301"/>
+      <c r="D99" s="291" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="185"/>
@@ -23270,8 +23266,8 @@
     <row r="100" spans="1:13" s="280" customFormat="1" ht="33">
       <c r="A100" s="275"/>
       <c r="B100" s="295"/>
-      <c r="C100" s="305"/>
-      <c r="D100" s="314"/>
+      <c r="C100" s="302"/>
+      <c r="D100" s="291"/>
       <c r="E100" s="272"/>
       <c r="F100" s="276"/>
       <c r="G100" s="197" t="s">
@@ -23295,7 +23291,7 @@
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="234"/>
       <c r="B101" s="295"/>
-      <c r="C101" s="303" t="s">
+      <c r="C101" s="300" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="295" t="s">
@@ -23311,7 +23307,7 @@
       </c>
       <c r="I101" s="181"/>
       <c r="J101" s="177" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="K101" s="177"/>
       <c r="L101" s="177"/>
@@ -23320,7 +23316,7 @@
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="234"/>
       <c r="B102" s="295"/>
-      <c r="C102" s="304"/>
+      <c r="C102" s="301"/>
       <c r="D102" s="296"/>
       <c r="E102" s="177"/>
       <c r="F102" s="178"/>
@@ -23341,7 +23337,7 @@
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="234"/>
       <c r="B103" s="295"/>
-      <c r="C103" s="304"/>
+      <c r="C103" s="301"/>
       <c r="D103" s="194" t="s">
         <v>1412</v>
       </c>
@@ -23364,7 +23360,7 @@
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="234"/>
       <c r="B104" s="295"/>
-      <c r="C104" s="304"/>
+      <c r="C104" s="301"/>
       <c r="D104" s="294" t="s">
         <v>1600</v>
       </c>
@@ -23377,7 +23373,7 @@
         <v>1603</v>
       </c>
       <c r="I104" s="181" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="J104" s="181" t="s">
         <v>2864</v>
@@ -23391,7 +23387,7 @@
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="234"/>
       <c r="B105" s="295"/>
-      <c r="C105" s="304"/>
+      <c r="C105" s="301"/>
       <c r="D105" s="295"/>
       <c r="E105" s="177"/>
       <c r="F105" s="178"/>
@@ -23412,7 +23408,7 @@
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="234"/>
       <c r="B106" s="295"/>
-      <c r="C106" s="304"/>
+      <c r="C106" s="301"/>
       <c r="D106" s="295"/>
       <c r="E106" s="177"/>
       <c r="F106" s="178"/>
@@ -23433,7 +23429,7 @@
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="234"/>
       <c r="B107" s="295"/>
-      <c r="C107" s="304"/>
+      <c r="C107" s="301"/>
       <c r="D107" s="296"/>
       <c r="E107" s="177"/>
       <c r="F107" s="178"/>
@@ -23454,7 +23450,7 @@
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="234"/>
       <c r="B108" s="295"/>
-      <c r="C108" s="304"/>
+      <c r="C108" s="301"/>
       <c r="D108" s="194" t="s">
         <v>1385</v>
       </c>
@@ -23477,7 +23473,7 @@
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="234"/>
       <c r="B109" s="295"/>
-      <c r="C109" s="304"/>
+      <c r="C109" s="301"/>
       <c r="D109" s="294" t="s">
         <v>1413</v>
       </c>
@@ -23502,7 +23498,7 @@
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="234"/>
       <c r="B110" s="295"/>
-      <c r="C110" s="304"/>
+      <c r="C110" s="301"/>
       <c r="D110" s="296"/>
       <c r="E110" s="177"/>
       <c r="F110" s="178"/>
@@ -23525,8 +23521,8 @@
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="234"/>
       <c r="B111" s="295"/>
-      <c r="C111" s="304"/>
-      <c r="D111" s="311" t="s">
+      <c r="C111" s="301"/>
+      <c r="D111" s="318" t="s">
         <v>1418</v>
       </c>
       <c r="E111" s="177"/>
@@ -23539,7 +23535,7 @@
       </c>
       <c r="I111" s="181"/>
       <c r="J111" s="181" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="K111" s="181"/>
       <c r="L111" s="177"/>
@@ -23548,8 +23544,8 @@
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="234"/>
       <c r="B112" s="295"/>
-      <c r="C112" s="304"/>
-      <c r="D112" s="312"/>
+      <c r="C112" s="301"/>
+      <c r="D112" s="319"/>
       <c r="E112" s="177"/>
       <c r="F112" s="178"/>
       <c r="G112" s="179" t="s">
@@ -23569,8 +23565,8 @@
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="234"/>
       <c r="B113" s="295"/>
-      <c r="C113" s="304"/>
-      <c r="D113" s="313"/>
+      <c r="C113" s="301"/>
+      <c r="D113" s="320"/>
       <c r="E113" s="177"/>
       <c r="F113" s="178"/>
       <c r="G113" s="179" t="s">
@@ -23590,7 +23586,7 @@
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="234"/>
       <c r="B114" s="295"/>
-      <c r="C114" s="304"/>
+      <c r="C114" s="301"/>
       <c r="D114" s="194" t="s">
         <v>9</v>
       </c>
@@ -23613,7 +23609,7 @@
     <row r="115" spans="1:13" ht="33">
       <c r="A115" s="234"/>
       <c r="B115" s="295"/>
-      <c r="C115" s="304"/>
+      <c r="C115" s="301"/>
       <c r="D115" s="294" t="s">
         <v>1421</v>
       </c>
@@ -23638,7 +23634,7 @@
     <row r="116" spans="1:13" ht="14.25" customHeight="1">
       <c r="A116" s="234"/>
       <c r="B116" s="295"/>
-      <c r="C116" s="304"/>
+      <c r="C116" s="301"/>
       <c r="D116" s="295"/>
       <c r="E116" s="177"/>
       <c r="F116" s="178"/>
@@ -23659,7 +23655,7 @@
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="234"/>
       <c r="B117" s="295"/>
-      <c r="C117" s="305"/>
+      <c r="C117" s="302"/>
       <c r="D117" s="296"/>
       <c r="E117" s="177"/>
       <c r="F117" s="178"/>
@@ -23682,7 +23678,7 @@
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="234"/>
       <c r="B118" s="295"/>
-      <c r="C118" s="303" t="s">
+      <c r="C118" s="300" t="s">
         <v>1427</v>
       </c>
       <c r="D118" s="294" t="s">
@@ -23707,7 +23703,7 @@
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="234"/>
       <c r="B119" s="295"/>
-      <c r="C119" s="304"/>
+      <c r="C119" s="301"/>
       <c r="D119" s="296"/>
       <c r="E119" s="177"/>
       <c r="F119" s="178"/>
@@ -23730,7 +23726,7 @@
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="183"/>
       <c r="B120" s="295"/>
-      <c r="C120" s="304"/>
+      <c r="C120" s="301"/>
       <c r="D120" s="194" t="s">
         <v>1431</v>
       </c>
@@ -23755,7 +23751,7 @@
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="183"/>
       <c r="B121" s="295"/>
-      <c r="C121" s="304"/>
+      <c r="C121" s="301"/>
       <c r="D121" s="194" t="s">
         <v>1434</v>
       </c>
@@ -23778,7 +23774,7 @@
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="183"/>
       <c r="B122" s="295"/>
-      <c r="C122" s="304"/>
+      <c r="C122" s="301"/>
       <c r="D122" s="244" t="s">
         <v>1436</v>
       </c>
@@ -23803,7 +23799,7 @@
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="183"/>
       <c r="B123" s="295"/>
-      <c r="C123" s="304"/>
+      <c r="C123" s="301"/>
       <c r="D123" s="294" t="s">
         <v>171</v>
       </c>
@@ -23826,7 +23822,7 @@
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="183"/>
       <c r="B124" s="295"/>
-      <c r="C124" s="304"/>
+      <c r="C124" s="301"/>
       <c r="D124" s="295"/>
       <c r="E124" s="177"/>
       <c r="F124" s="178"/>
@@ -23849,7 +23845,7 @@
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="183"/>
       <c r="B125" s="295"/>
-      <c r="C125" s="304"/>
+      <c r="C125" s="301"/>
       <c r="D125" s="295"/>
       <c r="E125" s="177"/>
       <c r="F125" s="178"/>
@@ -23870,7 +23866,7 @@
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="183"/>
       <c r="B126" s="295"/>
-      <c r="C126" s="304"/>
+      <c r="C126" s="301"/>
       <c r="D126" s="296"/>
       <c r="E126" s="177"/>
       <c r="F126" s="178"/>
@@ -23893,8 +23889,8 @@
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="183"/>
       <c r="B127" s="295"/>
-      <c r="C127" s="304"/>
-      <c r="D127" s="319" t="s">
+      <c r="C127" s="301"/>
+      <c r="D127" s="303" t="s">
         <v>1438</v>
       </c>
       <c r="E127" s="177"/>
@@ -23903,7 +23899,7 @@
         <v>1439</v>
       </c>
       <c r="H127" s="245" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="I127" s="245"/>
       <c r="J127" s="243" t="s">
@@ -23916,15 +23912,15 @@
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="183"/>
       <c r="B128" s="295"/>
-      <c r="C128" s="304"/>
-      <c r="D128" s="322"/>
+      <c r="C128" s="301"/>
+      <c r="D128" s="304"/>
       <c r="E128" s="177"/>
       <c r="F128" s="178"/>
       <c r="G128" s="179" t="s">
         <v>1440</v>
       </c>
       <c r="H128" s="180" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="I128" s="243" t="s">
         <v>2144</v>
@@ -23941,7 +23937,7 @@
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="183"/>
       <c r="B129" s="295"/>
-      <c r="C129" s="304"/>
+      <c r="C129" s="301"/>
       <c r="D129" s="294" t="s">
         <v>1441</v>
       </c>
@@ -23951,7 +23947,7 @@
         <v>173</v>
       </c>
       <c r="H129" s="180" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="I129" s="243"/>
       <c r="J129" s="243" t="s">
@@ -23964,7 +23960,7 @@
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="183"/>
       <c r="B130" s="295"/>
-      <c r="C130" s="304"/>
+      <c r="C130" s="301"/>
       <c r="D130" s="295"/>
       <c r="E130" s="177"/>
       <c r="F130" s="178"/>
@@ -23985,7 +23981,7 @@
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="183"/>
       <c r="B131" s="295"/>
-      <c r="C131" s="304"/>
+      <c r="C131" s="301"/>
       <c r="D131" s="296"/>
       <c r="E131" s="177"/>
       <c r="F131" s="178"/>
@@ -24004,8 +24000,8 @@
     <row r="132" spans="1:13" ht="51.75" customHeight="1">
       <c r="A132" s="183"/>
       <c r="B132" s="295"/>
-      <c r="C132" s="304"/>
-      <c r="D132" s="321" t="s">
+      <c r="C132" s="301"/>
+      <c r="D132" s="310" t="s">
         <v>166</v>
       </c>
       <c r="E132" s="177"/>
@@ -24025,8 +24021,8 @@
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
       <c r="A133" s="183"/>
       <c r="B133" s="295"/>
-      <c r="C133" s="304"/>
-      <c r="D133" s="321"/>
+      <c r="C133" s="301"/>
+      <c r="D133" s="310"/>
       <c r="E133" s="177"/>
       <c r="F133" s="178"/>
       <c r="G133" s="179" t="s">
@@ -24035,7 +24031,7 @@
       <c r="H133" s="180"/>
       <c r="I133" s="181"/>
       <c r="J133" s="181" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="K133" s="181"/>
       <c r="L133" s="177"/>
@@ -24044,7 +24040,7 @@
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="183"/>
       <c r="B134" s="295"/>
-      <c r="C134" s="304"/>
+      <c r="C134" s="301"/>
       <c r="D134" s="193" t="s">
         <v>170</v>
       </c>
@@ -24058,7 +24054,7 @@
       </c>
       <c r="I134" s="181"/>
       <c r="J134" s="181" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="K134" s="181"/>
       <c r="L134" s="177"/>
@@ -24067,7 +24063,7 @@
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="183"/>
       <c r="B135" s="295"/>
-      <c r="C135" s="304"/>
+      <c r="C135" s="301"/>
       <c r="D135" s="294" t="s">
         <v>13</v>
       </c>
@@ -24090,7 +24086,7 @@
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="183"/>
       <c r="B136" s="295"/>
-      <c r="C136" s="304"/>
+      <c r="C136" s="301"/>
       <c r="D136" s="295"/>
       <c r="E136" s="177"/>
       <c r="F136" s="178"/>
@@ -24111,7 +24107,7 @@
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="183"/>
       <c r="B137" s="295"/>
-      <c r="C137" s="304"/>
+      <c r="C137" s="301"/>
       <c r="D137" s="295"/>
       <c r="E137" s="177"/>
       <c r="F137" s="178"/>
@@ -24132,7 +24128,7 @@
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="183"/>
       <c r="B138" s="295"/>
-      <c r="C138" s="304"/>
+      <c r="C138" s="301"/>
       <c r="D138" s="295"/>
       <c r="E138" s="177"/>
       <c r="F138" s="178"/>
@@ -24153,7 +24149,7 @@
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="183"/>
       <c r="B139" s="295"/>
-      <c r="C139" s="304"/>
+      <c r="C139" s="301"/>
       <c r="D139" s="295"/>
       <c r="E139" s="177"/>
       <c r="F139" s="178"/>
@@ -24174,7 +24170,7 @@
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="183"/>
       <c r="B140" s="295"/>
-      <c r="C140" s="304"/>
+      <c r="C140" s="301"/>
       <c r="D140" s="295"/>
       <c r="E140" s="177"/>
       <c r="F140" s="178"/>
@@ -24195,7 +24191,7 @@
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="183"/>
       <c r="B141" s="295"/>
-      <c r="C141" s="304"/>
+      <c r="C141" s="301"/>
       <c r="D141" s="295"/>
       <c r="E141" s="177"/>
       <c r="F141" s="178"/>
@@ -24216,7 +24212,7 @@
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="183"/>
       <c r="B142" s="295"/>
-      <c r="C142" s="305"/>
+      <c r="C142" s="302"/>
       <c r="D142" s="296"/>
       <c r="E142" s="177"/>
       <c r="F142" s="178"/>
@@ -24237,7 +24233,7 @@
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="183"/>
       <c r="B143" s="295"/>
-      <c r="C143" s="303" t="s">
+      <c r="C143" s="300" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="294" t="s">
@@ -24253,7 +24249,7 @@
       </c>
       <c r="I143" s="181"/>
       <c r="J143" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K143" s="181"/>
       <c r="L143" s="177"/>
@@ -24262,7 +24258,7 @@
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="183"/>
       <c r="B144" s="295"/>
-      <c r="C144" s="304"/>
+      <c r="C144" s="301"/>
       <c r="D144" s="295"/>
       <c r="E144" s="177"/>
       <c r="F144" s="178"/>
@@ -24274,7 +24270,7 @@
       </c>
       <c r="I144" s="181"/>
       <c r="J144" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K144" s="181"/>
       <c r="L144" s="177"/>
@@ -24283,7 +24279,7 @@
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="183"/>
       <c r="B145" s="295"/>
-      <c r="C145" s="304"/>
+      <c r="C145" s="301"/>
       <c r="D145" s="296"/>
       <c r="E145" s="177"/>
       <c r="F145" s="178"/>
@@ -24295,7 +24291,7 @@
       </c>
       <c r="I145" s="181"/>
       <c r="J145" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K145" s="181"/>
       <c r="L145" s="177"/>
@@ -24304,7 +24300,7 @@
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="183"/>
       <c r="B146" s="295"/>
-      <c r="C146" s="304"/>
+      <c r="C146" s="301"/>
       <c r="D146" s="294" t="s">
         <v>21</v>
       </c>
@@ -24318,7 +24314,7 @@
       </c>
       <c r="I146" s="181"/>
       <c r="J146" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K146" s="181"/>
       <c r="L146" s="177"/>
@@ -24327,7 +24323,7 @@
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="183"/>
       <c r="B147" s="295"/>
-      <c r="C147" s="304"/>
+      <c r="C147" s="301"/>
       <c r="D147" s="296"/>
       <c r="E147" s="177"/>
       <c r="F147" s="178"/>
@@ -24339,7 +24335,7 @@
       </c>
       <c r="I147" s="181"/>
       <c r="J147" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K147" s="181"/>
       <c r="L147" s="214"/>
@@ -24348,7 +24344,7 @@
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="183"/>
       <c r="B148" s="295"/>
-      <c r="C148" s="305"/>
+      <c r="C148" s="302"/>
       <c r="D148" s="194" t="s">
         <v>27</v>
       </c>
@@ -24362,7 +24358,7 @@
       </c>
       <c r="I148" s="181"/>
       <c r="J148" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K148" s="181"/>
       <c r="L148" s="177"/>
@@ -24371,7 +24367,7 @@
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="183"/>
       <c r="B149" s="295"/>
-      <c r="C149" s="303" t="s">
+      <c r="C149" s="300" t="s">
         <v>29</v>
       </c>
       <c r="D149" s="294" t="s">
@@ -24387,7 +24383,7 @@
       </c>
       <c r="I149" s="181"/>
       <c r="J149" s="222" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K149" s="187"/>
       <c r="L149" s="177"/>
@@ -24396,7 +24392,7 @@
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="183"/>
       <c r="B150" s="295"/>
-      <c r="C150" s="304"/>
+      <c r="C150" s="301"/>
       <c r="D150" s="295"/>
       <c r="E150" s="177"/>
       <c r="F150" s="178"/>
@@ -24408,7 +24404,7 @@
       </c>
       <c r="I150" s="181"/>
       <c r="J150" s="181" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="K150" s="181"/>
       <c r="L150" s="177"/>
@@ -24417,7 +24413,7 @@
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="183"/>
       <c r="B151" s="295"/>
-      <c r="C151" s="304"/>
+      <c r="C151" s="301"/>
       <c r="D151" s="295"/>
       <c r="E151" s="177"/>
       <c r="F151" s="178"/>
@@ -24429,7 +24425,7 @@
       </c>
       <c r="I151" s="181"/>
       <c r="J151" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K151" s="181"/>
       <c r="L151" s="177"/>
@@ -24438,7 +24434,7 @@
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="183"/>
       <c r="B152" s="295"/>
-      <c r="C152" s="304"/>
+      <c r="C152" s="301"/>
       <c r="D152" s="296"/>
       <c r="E152" s="177"/>
       <c r="F152" s="178"/>
@@ -24448,7 +24444,7 @@
       <c r="H152" s="180"/>
       <c r="I152" s="181"/>
       <c r="J152" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K152" s="181"/>
       <c r="L152" s="177"/>
@@ -24457,8 +24453,8 @@
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="183"/>
       <c r="B153" s="295"/>
-      <c r="C153" s="304"/>
-      <c r="D153" s="319" t="s">
+      <c r="C153" s="301"/>
+      <c r="D153" s="303" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="246"/>
@@ -24482,8 +24478,8 @@
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="183"/>
       <c r="B154" s="295"/>
-      <c r="C154" s="304"/>
-      <c r="D154" s="322"/>
+      <c r="C154" s="301"/>
+      <c r="D154" s="304"/>
       <c r="E154" s="246"/>
       <c r="F154" s="247"/>
       <c r="G154" s="179" t="s">
@@ -24503,7 +24499,7 @@
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="183"/>
       <c r="B155" s="295"/>
-      <c r="C155" s="304"/>
+      <c r="C155" s="301"/>
       <c r="D155" s="194" t="s">
         <v>38</v>
       </c>
@@ -24526,7 +24522,7 @@
     <row r="156" spans="1:13" ht="33">
       <c r="A156" s="183"/>
       <c r="B156" s="295"/>
-      <c r="C156" s="304"/>
+      <c r="C156" s="301"/>
       <c r="D156" s="194" t="s">
         <v>40</v>
       </c>
@@ -24549,7 +24545,7 @@
     <row r="157" spans="1:13" ht="14.25" customHeight="1">
       <c r="A157" s="183"/>
       <c r="B157" s="295"/>
-      <c r="C157" s="304"/>
+      <c r="C157" s="301"/>
       <c r="D157" s="294" t="s">
         <v>42</v>
       </c>
@@ -24563,7 +24559,7 @@
       </c>
       <c r="I157" s="181"/>
       <c r="J157" s="181" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="K157" s="181"/>
       <c r="L157" s="248" t="s">
@@ -24574,7 +24570,7 @@
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="183"/>
       <c r="B158" s="295"/>
-      <c r="C158" s="304"/>
+      <c r="C158" s="301"/>
       <c r="D158" s="295"/>
       <c r="E158" s="177"/>
       <c r="F158" s="178"/>
@@ -24586,7 +24582,7 @@
       </c>
       <c r="I158" s="181"/>
       <c r="J158" s="237" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="K158" s="237"/>
       <c r="L158" s="177"/>
@@ -24595,7 +24591,7 @@
     <row r="159" spans="1:13" ht="33">
       <c r="A159" s="183"/>
       <c r="B159" s="295"/>
-      <c r="C159" s="304"/>
+      <c r="C159" s="301"/>
       <c r="D159" s="295"/>
       <c r="E159" s="177"/>
       <c r="F159" s="178"/>
@@ -24603,7 +24599,7 @@
         <v>45</v>
       </c>
       <c r="H159" s="180" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="I159" s="181"/>
       <c r="J159" s="222" t="s">
@@ -24616,7 +24612,7 @@
     <row r="160" spans="1:13" ht="14.25" customHeight="1">
       <c r="A160" s="183"/>
       <c r="B160" s="295"/>
-      <c r="C160" s="304"/>
+      <c r="C160" s="301"/>
       <c r="D160" s="295"/>
       <c r="E160" s="177"/>
       <c r="F160" s="178"/>
@@ -24637,7 +24633,7 @@
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="183"/>
       <c r="B161" s="295"/>
-      <c r="C161" s="304"/>
+      <c r="C161" s="301"/>
       <c r="D161" s="295"/>
       <c r="E161" s="177"/>
       <c r="F161" s="178"/>
@@ -24649,7 +24645,7 @@
       </c>
       <c r="I161" s="181"/>
       <c r="J161" s="237" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="K161" s="237"/>
       <c r="L161" s="177"/>
@@ -24658,7 +24654,7 @@
     <row r="162" spans="1:13" ht="46.5" customHeight="1">
       <c r="A162" s="183"/>
       <c r="B162" s="295"/>
-      <c r="C162" s="304"/>
+      <c r="C162" s="301"/>
       <c r="D162" s="295"/>
       <c r="E162" s="177"/>
       <c r="F162" s="178"/>
@@ -24679,7 +24675,7 @@
     <row r="163" spans="1:13" ht="26.25" customHeight="1">
       <c r="A163" s="183"/>
       <c r="B163" s="295"/>
-      <c r="C163" s="304"/>
+      <c r="C163" s="301"/>
       <c r="D163" s="295"/>
       <c r="E163" s="177"/>
       <c r="F163" s="178"/>
@@ -24687,11 +24683,11 @@
         <v>49</v>
       </c>
       <c r="H163" s="187" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="I163" s="181"/>
       <c r="J163" s="204" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="K163" s="204"/>
       <c r="L163" s="177"/>
@@ -24700,7 +24696,7 @@
     <row r="164" spans="1:13" ht="14.25" customHeight="1">
       <c r="A164" s="183"/>
       <c r="B164" s="295"/>
-      <c r="C164" s="304"/>
+      <c r="C164" s="301"/>
       <c r="D164" s="295"/>
       <c r="E164" s="177"/>
       <c r="F164" s="178"/>
@@ -24712,7 +24708,7 @@
       </c>
       <c r="I164" s="181"/>
       <c r="J164" s="250" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="K164" s="226"/>
       <c r="L164" s="177"/>
@@ -24721,7 +24717,7 @@
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="183"/>
       <c r="B165" s="295"/>
-      <c r="C165" s="304"/>
+      <c r="C165" s="301"/>
       <c r="D165" s="295"/>
       <c r="E165" s="177"/>
       <c r="F165" s="178"/>
@@ -24733,7 +24729,7 @@
       </c>
       <c r="I165" s="181"/>
       <c r="J165" s="237" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="K165" s="237"/>
       <c r="L165" s="177"/>
@@ -24742,7 +24738,7 @@
     <row r="166" spans="1:13" ht="33">
       <c r="A166" s="183"/>
       <c r="B166" s="295"/>
-      <c r="C166" s="305"/>
+      <c r="C166" s="302"/>
       <c r="D166" s="296"/>
       <c r="E166" s="177"/>
       <c r="F166" s="178"/>
@@ -24754,7 +24750,7 @@
       </c>
       <c r="I166" s="251"/>
       <c r="J166" s="181" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="K166" s="181"/>
       <c r="L166" s="252"/>
@@ -24763,7 +24759,7 @@
     <row r="167" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A167" s="183"/>
       <c r="B167" s="295"/>
-      <c r="C167" s="303" t="s">
+      <c r="C167" s="300" t="s">
         <v>53</v>
       </c>
       <c r="D167" s="294" t="s">
@@ -24784,7 +24780,7 @@
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="183"/>
       <c r="B168" s="295"/>
-      <c r="C168" s="304"/>
+      <c r="C168" s="301"/>
       <c r="D168" s="295"/>
       <c r="E168" s="177"/>
       <c r="F168" s="178"/>
@@ -24801,7 +24797,7 @@
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="183"/>
       <c r="B169" s="295"/>
-      <c r="C169" s="304"/>
+      <c r="C169" s="301"/>
       <c r="D169" s="295"/>
       <c r="E169" s="177"/>
       <c r="F169" s="178"/>
@@ -24818,7 +24814,7 @@
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="183"/>
       <c r="B170" s="295"/>
-      <c r="C170" s="304"/>
+      <c r="C170" s="301"/>
       <c r="D170" s="295"/>
       <c r="E170" s="177"/>
       <c r="F170" s="178"/>
@@ -24835,7 +24831,7 @@
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="183"/>
       <c r="B171" s="295"/>
-      <c r="C171" s="304"/>
+      <c r="C171" s="301"/>
       <c r="D171" s="295"/>
       <c r="E171" s="177"/>
       <c r="F171" s="178"/>
@@ -24852,7 +24848,7 @@
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="183"/>
       <c r="B172" s="295"/>
-      <c r="C172" s="304"/>
+      <c r="C172" s="301"/>
       <c r="D172" s="295"/>
       <c r="E172" s="177"/>
       <c r="F172" s="178"/>
@@ -24869,7 +24865,7 @@
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="183"/>
       <c r="B173" s="295"/>
-      <c r="C173" s="304"/>
+      <c r="C173" s="301"/>
       <c r="D173" s="295"/>
       <c r="E173" s="177"/>
       <c r="F173" s="178"/>
@@ -24886,7 +24882,7 @@
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="183"/>
       <c r="B174" s="295"/>
-      <c r="C174" s="304"/>
+      <c r="C174" s="301"/>
       <c r="D174" s="295"/>
       <c r="E174" s="177"/>
       <c r="F174" s="178"/>
@@ -24903,7 +24899,7 @@
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="183"/>
       <c r="B175" s="295"/>
-      <c r="C175" s="304"/>
+      <c r="C175" s="301"/>
       <c r="D175" s="296"/>
       <c r="E175" s="177"/>
       <c r="F175" s="178"/>
@@ -24920,7 +24916,7 @@
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="183"/>
       <c r="B176" s="295"/>
-      <c r="C176" s="304"/>
+      <c r="C176" s="301"/>
       <c r="D176" s="294" t="s">
         <v>108</v>
       </c>
@@ -24939,7 +24935,7 @@
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="183"/>
       <c r="B177" s="295"/>
-      <c r="C177" s="304"/>
+      <c r="C177" s="301"/>
       <c r="D177" s="295"/>
       <c r="E177" s="177"/>
       <c r="F177" s="178"/>
@@ -24956,7 +24952,7 @@
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="183"/>
       <c r="B178" s="295"/>
-      <c r="C178" s="304"/>
+      <c r="C178" s="301"/>
       <c r="D178" s="295"/>
       <c r="E178" s="177"/>
       <c r="F178" s="178"/>
@@ -24973,7 +24969,7 @@
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="183"/>
       <c r="B179" s="295"/>
-      <c r="C179" s="304"/>
+      <c r="C179" s="301"/>
       <c r="D179" s="295"/>
       <c r="E179" s="177"/>
       <c r="F179" s="178"/>
@@ -24990,7 +24986,7 @@
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="183"/>
       <c r="B180" s="295"/>
-      <c r="C180" s="304"/>
+      <c r="C180" s="301"/>
       <c r="D180" s="295"/>
       <c r="E180" s="177"/>
       <c r="F180" s="178"/>
@@ -25007,7 +25003,7 @@
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="183"/>
       <c r="B181" s="295"/>
-      <c r="C181" s="304"/>
+      <c r="C181" s="301"/>
       <c r="D181" s="295"/>
       <c r="E181" s="177"/>
       <c r="F181" s="178"/>
@@ -25024,7 +25020,7 @@
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="183"/>
       <c r="B182" s="295"/>
-      <c r="C182" s="304"/>
+      <c r="C182" s="301"/>
       <c r="D182" s="295"/>
       <c r="E182" s="177"/>
       <c r="F182" s="178"/>
@@ -25041,7 +25037,7 @@
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="183"/>
       <c r="B183" s="295"/>
-      <c r="C183" s="305"/>
+      <c r="C183" s="302"/>
       <c r="D183" s="296"/>
       <c r="E183" s="177"/>
       <c r="F183" s="178"/>
@@ -25058,7 +25054,7 @@
     <row r="184" spans="1:13" ht="14.25" customHeight="1">
       <c r="A184" s="183"/>
       <c r="B184" s="295"/>
-      <c r="C184" s="306" t="s">
+      <c r="C184" s="311" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="194"/>
@@ -25070,7 +25066,7 @@
       <c r="H184" s="180"/>
       <c r="I184" s="181"/>
       <c r="J184" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K184" s="181"/>
       <c r="L184" s="177"/>
@@ -25079,7 +25075,7 @@
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="183"/>
       <c r="B185" s="295"/>
-      <c r="C185" s="307"/>
+      <c r="C185" s="312"/>
       <c r="D185" s="199" t="s">
         <v>156</v>
       </c>
@@ -25091,7 +25087,7 @@
       <c r="H185" s="180"/>
       <c r="I185" s="181"/>
       <c r="J185" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K185" s="181"/>
       <c r="L185" s="177"/>
@@ -25100,7 +25096,7 @@
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="183"/>
       <c r="B186" s="295"/>
-      <c r="C186" s="307"/>
+      <c r="C186" s="312"/>
       <c r="D186" s="254"/>
       <c r="E186" s="238"/>
       <c r="F186" s="253"/>
@@ -25110,7 +25106,7 @@
       <c r="H186" s="180"/>
       <c r="I186" s="181"/>
       <c r="J186" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K186" s="181"/>
       <c r="L186" s="177"/>
@@ -25119,7 +25115,7 @@
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="183"/>
       <c r="B187" s="295"/>
-      <c r="C187" s="307"/>
+      <c r="C187" s="312"/>
       <c r="D187" s="195" t="s">
         <v>158</v>
       </c>
@@ -25129,7 +25125,7 @@
       <c r="H187" s="180"/>
       <c r="I187" s="181"/>
       <c r="J187" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K187" s="181"/>
       <c r="L187" s="177"/>
@@ -25138,7 +25134,7 @@
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="183"/>
       <c r="B188" s="295"/>
-      <c r="C188" s="307"/>
+      <c r="C188" s="312"/>
       <c r="D188" s="195" t="s">
         <v>159</v>
       </c>
@@ -25148,7 +25144,7 @@
       <c r="H188" s="180"/>
       <c r="I188" s="181"/>
       <c r="J188" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K188" s="181"/>
       <c r="L188" s="177"/>
@@ -25157,7 +25153,7 @@
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="183"/>
       <c r="B189" s="295"/>
-      <c r="C189" s="307"/>
+      <c r="C189" s="312"/>
       <c r="D189" s="195" t="s">
         <v>160</v>
       </c>
@@ -25167,7 +25163,7 @@
       <c r="H189" s="180"/>
       <c r="I189" s="181"/>
       <c r="J189" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K189" s="181"/>
       <c r="L189" s="177"/>
@@ -25176,7 +25172,7 @@
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="183"/>
       <c r="B190" s="295"/>
-      <c r="C190" s="307"/>
+      <c r="C190" s="312"/>
       <c r="D190" s="195" t="s">
         <v>161</v>
       </c>
@@ -25186,7 +25182,7 @@
       <c r="H190" s="180"/>
       <c r="I190" s="181"/>
       <c r="J190" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K190" s="181"/>
       <c r="L190" s="177"/>
@@ -25195,7 +25191,7 @@
     <row r="191" spans="1:13" ht="37.5" customHeight="1">
       <c r="A191" s="183"/>
       <c r="B191" s="295"/>
-      <c r="C191" s="307"/>
+      <c r="C191" s="312"/>
       <c r="D191" s="256" t="s">
         <v>195</v>
       </c>
@@ -25205,7 +25201,7 @@
       <c r="H191" s="180"/>
       <c r="I191" s="181"/>
       <c r="J191" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K191" s="181"/>
       <c r="L191" s="177"/>
@@ -25214,7 +25210,7 @@
     <row r="192" spans="1:13" ht="14.25" customHeight="1">
       <c r="A192" s="183"/>
       <c r="B192" s="295"/>
-      <c r="C192" s="307"/>
+      <c r="C192" s="312"/>
       <c r="D192" s="195" t="s">
         <v>162</v>
       </c>
@@ -25224,7 +25220,7 @@
       <c r="H192" s="180"/>
       <c r="I192" s="181"/>
       <c r="J192" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K192" s="181"/>
       <c r="L192" s="177"/>
@@ -25233,7 +25229,7 @@
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="183"/>
       <c r="B193" s="296"/>
-      <c r="C193" s="308"/>
+      <c r="C193" s="313"/>
       <c r="D193" s="195" t="s">
         <v>163</v>
       </c>
@@ -25243,7 +25239,7 @@
       <c r="H193" s="180"/>
       <c r="I193" s="181"/>
       <c r="J193" s="181" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K193" s="181"/>
       <c r="L193" s="177"/>
@@ -25254,7 +25250,7 @@
       <c r="B194" s="294" t="s">
         <v>128</v>
       </c>
-      <c r="C194" s="303" t="s">
+      <c r="C194" s="300" t="s">
         <v>57</v>
       </c>
       <c r="D194" s="294" t="s">
@@ -25279,7 +25275,7 @@
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="183"/>
       <c r="B195" s="295"/>
-      <c r="C195" s="304"/>
+      <c r="C195" s="301"/>
       <c r="D195" s="296"/>
       <c r="E195" s="177"/>
       <c r="F195" s="178"/>
@@ -25300,7 +25296,7 @@
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="183"/>
       <c r="B196" s="295"/>
-      <c r="C196" s="304"/>
+      <c r="C196" s="301"/>
       <c r="D196" s="257" t="s">
         <v>2884</v>
       </c>
@@ -25312,7 +25308,7 @@
       <c r="H196" s="180"/>
       <c r="I196" s="181"/>
       <c r="J196" s="180" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="K196" s="180"/>
       <c r="L196" s="177"/>
@@ -25321,7 +25317,7 @@
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="183"/>
       <c r="B197" s="295"/>
-      <c r="C197" s="304"/>
+      <c r="C197" s="301"/>
       <c r="D197" s="294" t="s">
         <v>61</v>
       </c>
@@ -25333,7 +25329,7 @@
       <c r="H197" s="180"/>
       <c r="I197" s="181"/>
       <c r="J197" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K197" s="181"/>
       <c r="L197" s="177"/>
@@ -25342,7 +25338,7 @@
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="183"/>
       <c r="B198" s="295"/>
-      <c r="C198" s="304"/>
+      <c r="C198" s="301"/>
       <c r="D198" s="295"/>
       <c r="E198" s="177"/>
       <c r="F198" s="178"/>
@@ -25363,7 +25359,7 @@
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="183"/>
       <c r="B199" s="295"/>
-      <c r="C199" s="304"/>
+      <c r="C199" s="301"/>
       <c r="D199" s="296"/>
       <c r="E199" s="177"/>
       <c r="F199" s="178"/>
@@ -25373,7 +25369,7 @@
       <c r="H199" s="180"/>
       <c r="I199" s="181"/>
       <c r="J199" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K199" s="181"/>
       <c r="L199" s="177"/>
@@ -25382,7 +25378,7 @@
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="183"/>
       <c r="B200" s="295"/>
-      <c r="C200" s="304"/>
+      <c r="C200" s="301"/>
       <c r="D200" s="294" t="s">
         <v>65</v>
       </c>
@@ -25396,7 +25392,7 @@
       </c>
       <c r="I200" s="181"/>
       <c r="J200" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K200" s="181"/>
       <c r="L200" s="177"/>
@@ -25405,7 +25401,7 @@
     <row r="201" spans="1:13" ht="33">
       <c r="A201" s="183"/>
       <c r="B201" s="295"/>
-      <c r="C201" s="304"/>
+      <c r="C201" s="301"/>
       <c r="D201" s="296"/>
       <c r="E201" s="177"/>
       <c r="F201" s="178"/>
@@ -25424,7 +25420,7 @@
     <row r="202" spans="1:13" ht="14.25" customHeight="1">
       <c r="A202" s="183"/>
       <c r="B202" s="295"/>
-      <c r="C202" s="304"/>
+      <c r="C202" s="301"/>
       <c r="D202" s="294" t="s">
         <v>68</v>
       </c>
@@ -25436,7 +25432,7 @@
       <c r="H202" s="180"/>
       <c r="I202" s="181"/>
       <c r="J202" s="181" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K202" s="181"/>
       <c r="L202" s="177"/>
@@ -25445,7 +25441,7 @@
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="183"/>
       <c r="B203" s="295"/>
-      <c r="C203" s="304"/>
+      <c r="C203" s="301"/>
       <c r="D203" s="296"/>
       <c r="E203" s="177"/>
       <c r="F203" s="178"/>
@@ -25457,7 +25453,7 @@
         <v>178</v>
       </c>
       <c r="J203" s="243" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="K203" s="243"/>
       <c r="L203" s="177"/>
@@ -25466,7 +25462,7 @@
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="183"/>
       <c r="B204" s="295"/>
-      <c r="C204" s="304"/>
+      <c r="C204" s="301"/>
       <c r="D204" s="294" t="s">
         <v>70</v>
       </c>
@@ -25487,7 +25483,7 @@
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="183"/>
       <c r="B205" s="295"/>
-      <c r="C205" s="304"/>
+      <c r="C205" s="301"/>
       <c r="D205" s="295"/>
       <c r="E205" s="177"/>
       <c r="F205" s="178"/>
@@ -25508,7 +25504,7 @@
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="183"/>
       <c r="B206" s="295"/>
-      <c r="C206" s="304"/>
+      <c r="C206" s="301"/>
       <c r="D206" s="295"/>
       <c r="E206" s="177"/>
       <c r="F206" s="178"/>
@@ -25527,7 +25523,7 @@
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="183"/>
       <c r="B207" s="295"/>
-      <c r="C207" s="304"/>
+      <c r="C207" s="301"/>
       <c r="D207" s="295"/>
       <c r="E207" s="177"/>
       <c r="F207" s="178"/>
@@ -25546,7 +25542,7 @@
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="183"/>
       <c r="B208" s="295"/>
-      <c r="C208" s="304"/>
+      <c r="C208" s="301"/>
       <c r="D208" s="295"/>
       <c r="E208" s="177"/>
       <c r="F208" s="178"/>
@@ -25565,7 +25561,7 @@
     <row r="209" spans="1:13" ht="30" customHeight="1">
       <c r="A209" s="183"/>
       <c r="B209" s="295"/>
-      <c r="C209" s="305"/>
+      <c r="C209" s="302"/>
       <c r="D209" s="296"/>
       <c r="E209" s="177"/>
       <c r="F209" s="178"/>
@@ -25586,7 +25582,7 @@
     <row r="210" spans="1:13" ht="14.25" customHeight="1">
       <c r="A210" s="183"/>
       <c r="B210" s="295"/>
-      <c r="C210" s="303" t="s">
+      <c r="C210" s="300" t="s">
         <v>112</v>
       </c>
       <c r="D210" s="294" t="s">
@@ -25609,7 +25605,7 @@
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="183"/>
       <c r="B211" s="295"/>
-      <c r="C211" s="304"/>
+      <c r="C211" s="301"/>
       <c r="D211" s="295"/>
       <c r="E211" s="177"/>
       <c r="F211" s="178"/>
@@ -25628,7 +25624,7 @@
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="183"/>
       <c r="B212" s="295"/>
-      <c r="C212" s="304"/>
+      <c r="C212" s="301"/>
       <c r="D212" s="295"/>
       <c r="E212" s="177"/>
       <c r="F212" s="178"/>
@@ -25647,7 +25643,7 @@
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="183"/>
       <c r="B213" s="295"/>
-      <c r="C213" s="304"/>
+      <c r="C213" s="301"/>
       <c r="D213" s="295"/>
       <c r="E213" s="177"/>
       <c r="F213" s="178"/>
@@ -25666,7 +25662,7 @@
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="183"/>
       <c r="B214" s="295"/>
-      <c r="C214" s="304"/>
+      <c r="C214" s="301"/>
       <c r="D214" s="295"/>
       <c r="E214" s="177"/>
       <c r="F214" s="178"/>
@@ -25685,7 +25681,7 @@
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="183"/>
       <c r="B215" s="295"/>
-      <c r="C215" s="304"/>
+      <c r="C215" s="301"/>
       <c r="D215" s="295"/>
       <c r="E215" s="177"/>
       <c r="F215" s="178"/>
@@ -25704,7 +25700,7 @@
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="183"/>
       <c r="B216" s="295"/>
-      <c r="C216" s="304"/>
+      <c r="C216" s="301"/>
       <c r="D216" s="295"/>
       <c r="E216" s="177"/>
       <c r="F216" s="178"/>
@@ -25723,7 +25719,7 @@
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="183"/>
       <c r="B217" s="295"/>
-      <c r="C217" s="304"/>
+      <c r="C217" s="301"/>
       <c r="D217" s="295"/>
       <c r="E217" s="177"/>
       <c r="F217" s="178"/>
@@ -25742,7 +25738,7 @@
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="183"/>
       <c r="B218" s="295"/>
-      <c r="C218" s="304"/>
+      <c r="C218" s="301"/>
       <c r="D218" s="295"/>
       <c r="E218" s="177"/>
       <c r="F218" s="178"/>
@@ -25761,7 +25757,7 @@
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="183"/>
       <c r="B219" s="295"/>
-      <c r="C219" s="304"/>
+      <c r="C219" s="301"/>
       <c r="D219" s="295"/>
       <c r="E219" s="177"/>
       <c r="F219" s="178"/>
@@ -25780,7 +25776,7 @@
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="183"/>
       <c r="B220" s="295"/>
-      <c r="C220" s="304"/>
+      <c r="C220" s="301"/>
       <c r="D220" s="295"/>
       <c r="E220" s="177"/>
       <c r="F220" s="178"/>
@@ -25799,7 +25795,7 @@
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="183"/>
       <c r="B221" s="295"/>
-      <c r="C221" s="304"/>
+      <c r="C221" s="301"/>
       <c r="D221" s="295"/>
       <c r="E221" s="177"/>
       <c r="F221" s="178"/>
@@ -25818,7 +25814,7 @@
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="183"/>
       <c r="B222" s="295"/>
-      <c r="C222" s="304"/>
+      <c r="C222" s="301"/>
       <c r="D222" s="295"/>
       <c r="E222" s="177"/>
       <c r="F222" s="178"/>
@@ -25837,7 +25833,7 @@
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="183"/>
       <c r="B223" s="295"/>
-      <c r="C223" s="304"/>
+      <c r="C223" s="301"/>
       <c r="D223" s="295"/>
       <c r="E223" s="177"/>
       <c r="F223" s="178"/>
@@ -25856,7 +25852,7 @@
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="183"/>
       <c r="B224" s="295"/>
-      <c r="C224" s="304"/>
+      <c r="C224" s="301"/>
       <c r="D224" s="295"/>
       <c r="E224" s="177"/>
       <c r="F224" s="178"/>
@@ -25875,7 +25871,7 @@
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="183"/>
       <c r="B225" s="295"/>
-      <c r="C225" s="304"/>
+      <c r="C225" s="301"/>
       <c r="D225" s="295"/>
       <c r="E225" s="177"/>
       <c r="F225" s="178"/>
@@ -25894,7 +25890,7 @@
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="183"/>
       <c r="B226" s="295"/>
-      <c r="C226" s="304"/>
+      <c r="C226" s="301"/>
       <c r="D226" s="295"/>
       <c r="E226" s="177"/>
       <c r="F226" s="178"/>
@@ -25913,7 +25909,7 @@
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="183"/>
       <c r="B227" s="295"/>
-      <c r="C227" s="304"/>
+      <c r="C227" s="301"/>
       <c r="D227" s="295"/>
       <c r="E227" s="177"/>
       <c r="F227" s="178"/>
@@ -25932,7 +25928,7 @@
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="183"/>
       <c r="B228" s="295"/>
-      <c r="C228" s="304"/>
+      <c r="C228" s="301"/>
       <c r="D228" s="295"/>
       <c r="E228" s="177"/>
       <c r="F228" s="178"/>
@@ -25951,7 +25947,7 @@
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="183"/>
       <c r="B229" s="295"/>
-      <c r="C229" s="304"/>
+      <c r="C229" s="301"/>
       <c r="D229" s="295"/>
       <c r="E229" s="177"/>
       <c r="F229" s="178"/>
@@ -25970,7 +25966,7 @@
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="183"/>
       <c r="B230" s="295"/>
-      <c r="C230" s="304"/>
+      <c r="C230" s="301"/>
       <c r="D230" s="295"/>
       <c r="E230" s="177"/>
       <c r="F230" s="178"/>
@@ -25989,7 +25985,7 @@
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="183"/>
       <c r="B231" s="295"/>
-      <c r="C231" s="304"/>
+      <c r="C231" s="301"/>
       <c r="D231" s="295"/>
       <c r="E231" s="177"/>
       <c r="F231" s="178"/>
@@ -26008,7 +26004,7 @@
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="183"/>
       <c r="B232" s="295"/>
-      <c r="C232" s="304"/>
+      <c r="C232" s="301"/>
       <c r="D232" s="295"/>
       <c r="E232" s="177"/>
       <c r="F232" s="178"/>
@@ -26027,7 +26023,7 @@
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="183"/>
       <c r="B233" s="295"/>
-      <c r="C233" s="304"/>
+      <c r="C233" s="301"/>
       <c r="D233" s="295"/>
       <c r="E233" s="177"/>
       <c r="F233" s="178"/>
@@ -26046,7 +26042,7 @@
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="183"/>
       <c r="B234" s="295"/>
-      <c r="C234" s="304"/>
+      <c r="C234" s="301"/>
       <c r="D234" s="295"/>
       <c r="E234" s="177"/>
       <c r="F234" s="178"/>
@@ -26065,7 +26061,7 @@
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="183"/>
       <c r="B235" s="295"/>
-      <c r="C235" s="304"/>
+      <c r="C235" s="301"/>
       <c r="D235" s="295"/>
       <c r="E235" s="177"/>
       <c r="F235" s="178"/>
@@ -26084,7 +26080,7 @@
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="183"/>
       <c r="B236" s="295"/>
-      <c r="C236" s="304"/>
+      <c r="C236" s="301"/>
       <c r="D236" s="295"/>
       <c r="E236" s="177"/>
       <c r="F236" s="178"/>
@@ -26103,7 +26099,7 @@
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="183"/>
       <c r="B237" s="295"/>
-      <c r="C237" s="304"/>
+      <c r="C237" s="301"/>
       <c r="D237" s="295"/>
       <c r="E237" s="177"/>
       <c r="F237" s="178"/>
@@ -26122,7 +26118,7 @@
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="183"/>
       <c r="B238" s="295"/>
-      <c r="C238" s="304"/>
+      <c r="C238" s="301"/>
       <c r="D238" s="295"/>
       <c r="E238" s="177"/>
       <c r="F238" s="178"/>
@@ -26141,7 +26137,7 @@
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="183"/>
       <c r="B239" s="295"/>
-      <c r="C239" s="304"/>
+      <c r="C239" s="301"/>
       <c r="D239" s="295"/>
       <c r="E239" s="177"/>
       <c r="F239" s="178"/>
@@ -26160,7 +26156,7 @@
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="183"/>
       <c r="B240" s="295"/>
-      <c r="C240" s="305"/>
+      <c r="C240" s="302"/>
       <c r="D240" s="296"/>
       <c r="E240" s="177"/>
       <c r="F240" s="178"/>
@@ -26179,10 +26175,10 @@
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="183"/>
       <c r="B241" s="295"/>
-      <c r="C241" s="303" t="s">
+      <c r="C241" s="300" t="s">
         <v>1464</v>
       </c>
-      <c r="D241" s="325" t="s">
+      <c r="D241" s="297" t="s">
         <v>133</v>
       </c>
       <c r="E241" s="177"/>
@@ -26202,8 +26198,8 @@
     <row r="242" spans="1:13" ht="14.25" customHeight="1">
       <c r="A242" s="183"/>
       <c r="B242" s="295"/>
-      <c r="C242" s="304"/>
-      <c r="D242" s="326"/>
+      <c r="C242" s="301"/>
+      <c r="D242" s="298"/>
       <c r="E242" s="177"/>
       <c r="F242" s="178"/>
       <c r="G242" s="179" t="s">
@@ -26221,8 +26217,8 @@
     <row r="243" spans="1:13" ht="14.25" customHeight="1">
       <c r="A243" s="183"/>
       <c r="B243" s="295"/>
-      <c r="C243" s="304"/>
-      <c r="D243" s="326"/>
+      <c r="C243" s="301"/>
+      <c r="D243" s="298"/>
       <c r="E243" s="177"/>
       <c r="F243" s="178"/>
       <c r="G243" s="179" t="s">
@@ -26240,8 +26236,8 @@
     <row r="244" spans="1:13" ht="14.25" customHeight="1">
       <c r="A244" s="183"/>
       <c r="B244" s="295"/>
-      <c r="C244" s="304"/>
-      <c r="D244" s="326"/>
+      <c r="C244" s="301"/>
+      <c r="D244" s="298"/>
       <c r="E244" s="177"/>
       <c r="F244" s="178"/>
       <c r="G244" s="179" t="s">
@@ -26259,8 +26255,8 @@
     <row r="245" spans="1:13" ht="14.25" customHeight="1">
       <c r="A245" s="183"/>
       <c r="B245" s="295"/>
-      <c r="C245" s="304"/>
-      <c r="D245" s="326"/>
+      <c r="C245" s="301"/>
+      <c r="D245" s="298"/>
       <c r="E245" s="177"/>
       <c r="F245" s="178"/>
       <c r="G245" s="179" t="s">
@@ -26278,8 +26274,8 @@
     <row r="246" spans="1:13" ht="14.25" customHeight="1">
       <c r="A246" s="183"/>
       <c r="B246" s="295"/>
-      <c r="C246" s="304"/>
-      <c r="D246" s="326"/>
+      <c r="C246" s="301"/>
+      <c r="D246" s="298"/>
       <c r="E246" s="177"/>
       <c r="F246" s="178"/>
       <c r="G246" s="179" t="s">
@@ -26297,8 +26293,8 @@
     <row r="247" spans="1:13" ht="14.25" customHeight="1">
       <c r="A247" s="183"/>
       <c r="B247" s="295"/>
-      <c r="C247" s="304"/>
-      <c r="D247" s="326"/>
+      <c r="C247" s="301"/>
+      <c r="D247" s="298"/>
       <c r="E247" s="177"/>
       <c r="F247" s="178"/>
       <c r="G247" s="179" t="s">
@@ -26316,8 +26312,8 @@
     <row r="248" spans="1:13" ht="14.25" customHeight="1">
       <c r="A248" s="183"/>
       <c r="B248" s="295"/>
-      <c r="C248" s="304"/>
-      <c r="D248" s="326"/>
+      <c r="C248" s="301"/>
+      <c r="D248" s="298"/>
       <c r="E248" s="177"/>
       <c r="F248" s="178"/>
       <c r="G248" s="179" t="s">
@@ -26335,8 +26331,8 @@
     <row r="249" spans="1:13" ht="14.25" customHeight="1">
       <c r="A249" s="183"/>
       <c r="B249" s="295"/>
-      <c r="C249" s="304"/>
-      <c r="D249" s="326"/>
+      <c r="C249" s="301"/>
+      <c r="D249" s="298"/>
       <c r="E249" s="177"/>
       <c r="F249" s="178"/>
       <c r="G249" s="179" t="s">
@@ -26354,8 +26350,8 @@
     <row r="250" spans="1:13" ht="14.25" customHeight="1">
       <c r="A250" s="183"/>
       <c r="B250" s="295"/>
-      <c r="C250" s="304"/>
-      <c r="D250" s="326"/>
+      <c r="C250" s="301"/>
+      <c r="D250" s="298"/>
       <c r="E250" s="177"/>
       <c r="F250" s="178"/>
       <c r="G250" s="179" t="s">
@@ -26373,8 +26369,8 @@
     <row r="251" spans="1:13" ht="14.25" customHeight="1">
       <c r="A251" s="183"/>
       <c r="B251" s="295"/>
-      <c r="C251" s="304"/>
-      <c r="D251" s="326"/>
+      <c r="C251" s="301"/>
+      <c r="D251" s="298"/>
       <c r="E251" s="177"/>
       <c r="F251" s="178"/>
       <c r="G251" s="179" t="s">
@@ -26392,8 +26388,8 @@
     <row r="252" spans="1:13" ht="14.25" customHeight="1">
       <c r="A252" s="183"/>
       <c r="B252" s="295"/>
-      <c r="C252" s="304"/>
-      <c r="D252" s="326"/>
+      <c r="C252" s="301"/>
+      <c r="D252" s="298"/>
       <c r="E252" s="177"/>
       <c r="F252" s="178"/>
       <c r="G252" s="179" t="s">
@@ -26411,8 +26407,8 @@
     <row r="253" spans="1:13" ht="14.25" customHeight="1">
       <c r="A253" s="183"/>
       <c r="B253" s="295"/>
-      <c r="C253" s="304"/>
-      <c r="D253" s="326"/>
+      <c r="C253" s="301"/>
+      <c r="D253" s="298"/>
       <c r="E253" s="177"/>
       <c r="F253" s="178"/>
       <c r="G253" s="179" t="s">
@@ -26430,8 +26426,8 @@
     <row r="254" spans="1:13" ht="14.25" customHeight="1">
       <c r="A254" s="183"/>
       <c r="B254" s="295"/>
-      <c r="C254" s="304"/>
-      <c r="D254" s="326"/>
+      <c r="C254" s="301"/>
+      <c r="D254" s="298"/>
       <c r="E254" s="177"/>
       <c r="F254" s="178"/>
       <c r="G254" s="179" t="s">
@@ -26449,8 +26445,8 @@
     <row r="255" spans="1:13" ht="14.25" customHeight="1">
       <c r="A255" s="183"/>
       <c r="B255" s="295"/>
-      <c r="C255" s="304"/>
-      <c r="D255" s="326"/>
+      <c r="C255" s="301"/>
+      <c r="D255" s="298"/>
       <c r="E255" s="177"/>
       <c r="F255" s="178"/>
       <c r="G255" s="179" t="s">
@@ -26468,8 +26464,8 @@
     <row r="256" spans="1:13" ht="14.25" customHeight="1">
       <c r="A256" s="183"/>
       <c r="B256" s="295"/>
-      <c r="C256" s="304"/>
-      <c r="D256" s="326"/>
+      <c r="C256" s="301"/>
+      <c r="D256" s="298"/>
       <c r="E256" s="177"/>
       <c r="F256" s="178"/>
       <c r="G256" s="179" t="s">
@@ -26487,8 +26483,8 @@
     <row r="257" spans="1:13" ht="14.25" customHeight="1">
       <c r="A257" s="183"/>
       <c r="B257" s="295"/>
-      <c r="C257" s="305"/>
-      <c r="D257" s="327"/>
+      <c r="C257" s="302"/>
+      <c r="D257" s="299"/>
       <c r="E257" s="177"/>
       <c r="F257" s="178"/>
       <c r="G257" s="179" t="s">
@@ -26506,7 +26502,7 @@
     <row r="258" spans="1:13" ht="14.25" customHeight="1">
       <c r="A258" s="183"/>
       <c r="B258" s="295"/>
-      <c r="C258" s="306" t="s">
+      <c r="C258" s="311" t="s">
         <v>126</v>
       </c>
       <c r="D258" s="294" t="s">
@@ -26529,7 +26525,7 @@
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="183"/>
       <c r="B259" s="295"/>
-      <c r="C259" s="307"/>
+      <c r="C259" s="312"/>
       <c r="D259" s="295"/>
       <c r="E259" s="177"/>
       <c r="F259" s="177"/>
@@ -26548,7 +26544,7 @@
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="183"/>
       <c r="B260" s="295"/>
-      <c r="C260" s="307"/>
+      <c r="C260" s="312"/>
       <c r="D260" s="295"/>
       <c r="E260" s="177"/>
       <c r="F260" s="177"/>
@@ -26567,7 +26563,7 @@
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="183"/>
       <c r="B261" s="295"/>
-      <c r="C261" s="307"/>
+      <c r="C261" s="312"/>
       <c r="D261" s="295"/>
       <c r="E261" s="177"/>
       <c r="F261" s="177"/>
@@ -26586,7 +26582,7 @@
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="183"/>
       <c r="B262" s="295"/>
-      <c r="C262" s="307"/>
+      <c r="C262" s="312"/>
       <c r="D262" s="295"/>
       <c r="E262" s="177"/>
       <c r="F262" s="177"/>
@@ -26605,7 +26601,7 @@
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="183"/>
       <c r="B263" s="295"/>
-      <c r="C263" s="307"/>
+      <c r="C263" s="312"/>
       <c r="D263" s="295"/>
       <c r="E263" s="177"/>
       <c r="F263" s="177"/>
@@ -26624,7 +26620,7 @@
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="183"/>
       <c r="B264" s="295"/>
-      <c r="C264" s="307"/>
+      <c r="C264" s="312"/>
       <c r="D264" s="295"/>
       <c r="E264" s="177"/>
       <c r="F264" s="177"/>
@@ -26643,7 +26639,7 @@
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="183"/>
       <c r="B265" s="295"/>
-      <c r="C265" s="307"/>
+      <c r="C265" s="312"/>
       <c r="D265" s="295"/>
       <c r="E265" s="177"/>
       <c r="F265" s="177"/>
@@ -26662,7 +26658,7 @@
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="183"/>
       <c r="B266" s="295"/>
-      <c r="C266" s="307"/>
+      <c r="C266" s="312"/>
       <c r="D266" s="295"/>
       <c r="E266" s="177"/>
       <c r="F266" s="177"/>
@@ -26681,7 +26677,7 @@
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="183"/>
       <c r="B267" s="295"/>
-      <c r="C267" s="307"/>
+      <c r="C267" s="312"/>
       <c r="D267" s="295"/>
       <c r="E267" s="177"/>
       <c r="F267" s="177"/>
@@ -26700,7 +26696,7 @@
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="183"/>
       <c r="B268" s="295"/>
-      <c r="C268" s="307"/>
+      <c r="C268" s="312"/>
       <c r="D268" s="295"/>
       <c r="E268" s="177"/>
       <c r="F268" s="177"/>
@@ -26719,7 +26715,7 @@
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="183"/>
       <c r="B269" s="295"/>
-      <c r="C269" s="307"/>
+      <c r="C269" s="312"/>
       <c r="D269" s="295"/>
       <c r="E269" s="177"/>
       <c r="F269" s="177"/>
@@ -26738,7 +26734,7 @@
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="183"/>
       <c r="B270" s="295"/>
-      <c r="C270" s="307"/>
+      <c r="C270" s="312"/>
       <c r="D270" s="295"/>
       <c r="E270" s="177"/>
       <c r="F270" s="177"/>
@@ -26757,7 +26753,7 @@
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="183"/>
       <c r="B271" s="295"/>
-      <c r="C271" s="307"/>
+      <c r="C271" s="312"/>
       <c r="D271" s="295"/>
       <c r="E271" s="177"/>
       <c r="F271" s="177"/>
@@ -26776,7 +26772,7 @@
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="183"/>
       <c r="B272" s="295"/>
-      <c r="C272" s="307"/>
+      <c r="C272" s="312"/>
       <c r="D272" s="295"/>
       <c r="E272" s="177"/>
       <c r="F272" s="177"/>
@@ -26795,7 +26791,7 @@
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="183"/>
       <c r="B273" s="295"/>
-      <c r="C273" s="307"/>
+      <c r="C273" s="312"/>
       <c r="D273" s="295"/>
       <c r="E273" s="177"/>
       <c r="F273" s="177"/>
@@ -26814,7 +26810,7 @@
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="183"/>
       <c r="B274" s="295"/>
-      <c r="C274" s="307"/>
+      <c r="C274" s="312"/>
       <c r="D274" s="295"/>
       <c r="E274" s="177"/>
       <c r="F274" s="177"/>
@@ -26833,7 +26829,7 @@
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="183"/>
       <c r="B275" s="295"/>
-      <c r="C275" s="307"/>
+      <c r="C275" s="312"/>
       <c r="D275" s="295"/>
       <c r="E275" s="177"/>
       <c r="F275" s="177"/>
@@ -26852,7 +26848,7 @@
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="183"/>
       <c r="B276" s="295"/>
-      <c r="C276" s="307"/>
+      <c r="C276" s="312"/>
       <c r="D276" s="295"/>
       <c r="E276" s="177"/>
       <c r="F276" s="177"/>
@@ -26871,7 +26867,7 @@
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="183"/>
       <c r="B277" s="295"/>
-      <c r="C277" s="307"/>
+      <c r="C277" s="312"/>
       <c r="D277" s="295"/>
       <c r="E277" s="177"/>
       <c r="F277" s="177"/>
@@ -26890,7 +26886,7 @@
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="183"/>
       <c r="B278" s="295"/>
-      <c r="C278" s="308"/>
+      <c r="C278" s="313"/>
       <c r="D278" s="296"/>
       <c r="E278" s="177"/>
       <c r="F278" s="177"/>
@@ -26909,7 +26905,7 @@
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="183"/>
       <c r="B279" s="295"/>
-      <c r="C279" s="306" t="s">
+      <c r="C279" s="311" t="s">
         <v>1485</v>
       </c>
       <c r="D279" s="294" t="s">
@@ -26932,7 +26928,7 @@
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="183"/>
       <c r="B280" s="295"/>
-      <c r="C280" s="307"/>
+      <c r="C280" s="312"/>
       <c r="D280" s="295"/>
       <c r="E280" s="177"/>
       <c r="F280" s="177"/>
@@ -26951,7 +26947,7 @@
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="183"/>
       <c r="B281" s="295"/>
-      <c r="C281" s="307"/>
+      <c r="C281" s="312"/>
       <c r="D281" s="295"/>
       <c r="E281" s="177"/>
       <c r="F281" s="177"/>
@@ -26970,7 +26966,7 @@
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="183"/>
       <c r="B282" s="295"/>
-      <c r="C282" s="307"/>
+      <c r="C282" s="312"/>
       <c r="D282" s="295"/>
       <c r="E282" s="177"/>
       <c r="F282" s="177"/>
@@ -26989,7 +26985,7 @@
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="183"/>
       <c r="B283" s="295"/>
-      <c r="C283" s="307"/>
+      <c r="C283" s="312"/>
       <c r="D283" s="295"/>
       <c r="E283" s="177"/>
       <c r="F283" s="177"/>
@@ -27008,7 +27004,7 @@
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="183"/>
       <c r="B284" s="295"/>
-      <c r="C284" s="307"/>
+      <c r="C284" s="312"/>
       <c r="D284" s="295"/>
       <c r="E284" s="177"/>
       <c r="F284" s="177"/>
@@ -27027,7 +27023,7 @@
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="183"/>
       <c r="B285" s="295"/>
-      <c r="C285" s="307"/>
+      <c r="C285" s="312"/>
       <c r="D285" s="295"/>
       <c r="E285" s="177"/>
       <c r="F285" s="177"/>
@@ -27046,7 +27042,7 @@
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="183"/>
       <c r="B286" s="295"/>
-      <c r="C286" s="307"/>
+      <c r="C286" s="312"/>
       <c r="D286" s="295"/>
       <c r="E286" s="177"/>
       <c r="F286" s="177"/>
@@ -27065,7 +27061,7 @@
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="183"/>
       <c r="B287" s="295"/>
-      <c r="C287" s="307"/>
+      <c r="C287" s="312"/>
       <c r="D287" s="295"/>
       <c r="E287" s="177"/>
       <c r="F287" s="177"/>
@@ -27084,7 +27080,7 @@
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="183"/>
       <c r="B288" s="295"/>
-      <c r="C288" s="307"/>
+      <c r="C288" s="312"/>
       <c r="D288" s="295"/>
       <c r="E288" s="177"/>
       <c r="F288" s="177"/>
@@ -27103,7 +27099,7 @@
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="183"/>
       <c r="B289" s="295"/>
-      <c r="C289" s="307"/>
+      <c r="C289" s="312"/>
       <c r="D289" s="295"/>
       <c r="E289" s="177"/>
       <c r="F289" s="177"/>
@@ -27122,7 +27118,7 @@
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="183"/>
       <c r="B290" s="295"/>
-      <c r="C290" s="307"/>
+      <c r="C290" s="312"/>
       <c r="D290" s="295"/>
       <c r="E290" s="177"/>
       <c r="F290" s="177"/>
@@ -27141,7 +27137,7 @@
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="183"/>
       <c r="B291" s="295"/>
-      <c r="C291" s="307"/>
+      <c r="C291" s="312"/>
       <c r="D291" s="295"/>
       <c r="E291" s="177"/>
       <c r="F291" s="177"/>
@@ -27160,7 +27156,7 @@
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="183"/>
       <c r="B292" s="295"/>
-      <c r="C292" s="307"/>
+      <c r="C292" s="312"/>
       <c r="D292" s="295"/>
       <c r="E292" s="177"/>
       <c r="F292" s="177"/>
@@ -27179,7 +27175,7 @@
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="183"/>
       <c r="B293" s="295"/>
-      <c r="C293" s="307"/>
+      <c r="C293" s="312"/>
       <c r="D293" s="295"/>
       <c r="E293" s="177"/>
       <c r="F293" s="177"/>
@@ -27198,7 +27194,7 @@
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="183"/>
       <c r="B294" s="295"/>
-      <c r="C294" s="307"/>
+      <c r="C294" s="312"/>
       <c r="D294" s="295"/>
       <c r="E294" s="177"/>
       <c r="F294" s="177"/>
@@ -27217,7 +27213,7 @@
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="183"/>
       <c r="B295" s="295"/>
-      <c r="C295" s="307"/>
+      <c r="C295" s="312"/>
       <c r="D295" s="295"/>
       <c r="E295" s="177"/>
       <c r="F295" s="177"/>
@@ -27236,7 +27232,7 @@
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="183"/>
       <c r="B296" s="295"/>
-      <c r="C296" s="307"/>
+      <c r="C296" s="312"/>
       <c r="D296" s="295"/>
       <c r="E296" s="177"/>
       <c r="F296" s="177"/>
@@ -27255,7 +27251,7 @@
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="183"/>
       <c r="B297" s="295"/>
-      <c r="C297" s="307"/>
+      <c r="C297" s="312"/>
       <c r="D297" s="295"/>
       <c r="E297" s="177"/>
       <c r="F297" s="177"/>
@@ -27272,12 +27268,12 @@
       <c r="M297" s="183"/>
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A298" s="314" t="s">
+      <c r="A298" s="291" t="s">
         <v>1487</v>
       </c>
-      <c r="B298" s="314"/>
-      <c r="C298" s="323" t="s">
-        <v>3021</v>
+      <c r="B298" s="291"/>
+      <c r="C298" s="314" t="s">
+        <v>3020</v>
       </c>
       <c r="D298" s="194" t="s">
         <v>2903</v>
@@ -27295,9 +27291,9 @@
       <c r="M298" s="183"/>
     </row>
     <row r="299" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A299" s="314"/>
-      <c r="B299" s="314"/>
-      <c r="C299" s="324"/>
+      <c r="A299" s="291"/>
+      <c r="B299" s="291"/>
+      <c r="C299" s="315"/>
       <c r="D299" s="195" t="s">
         <v>2905</v>
       </c>
@@ -27314,8 +27310,8 @@
       <c r="M299" s="183"/>
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A300" s="314"/>
-      <c r="B300" s="314"/>
+      <c r="A300" s="291"/>
+      <c r="B300" s="291"/>
       <c r="C300" s="260" t="s">
         <v>2902</v>
       </c>
@@ -27326,16 +27322,16 @@
       <c r="H300" s="180"/>
       <c r="I300" s="180"/>
       <c r="J300" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K300" s="180"/>
       <c r="L300" s="177"/>
       <c r="M300" s="183"/>
     </row>
     <row r="301" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A301" s="314"/>
-      <c r="B301" s="314"/>
-      <c r="C301" s="318" t="s">
+      <c r="A301" s="291"/>
+      <c r="B301" s="291"/>
+      <c r="C301" s="305" t="s">
         <v>132</v>
       </c>
       <c r="D301" s="294" t="s">
@@ -27349,16 +27345,16 @@
       <c r="H301" s="180"/>
       <c r="I301" s="180"/>
       <c r="J301" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K301" s="180"/>
       <c r="L301" s="177"/>
       <c r="M301" s="183"/>
     </row>
     <row r="302" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A302" s="314"/>
-      <c r="B302" s="314"/>
-      <c r="C302" s="318"/>
+      <c r="A302" s="291"/>
+      <c r="B302" s="291"/>
+      <c r="C302" s="305"/>
       <c r="D302" s="295"/>
       <c r="E302" s="177"/>
       <c r="F302" s="177"/>
@@ -27368,16 +27364,16 @@
       <c r="H302" s="180"/>
       <c r="I302" s="180"/>
       <c r="J302" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K302" s="180"/>
       <c r="L302" s="177"/>
       <c r="M302" s="183"/>
     </row>
     <row r="303" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A303" s="314"/>
-      <c r="B303" s="314"/>
-      <c r="C303" s="318"/>
+      <c r="A303" s="291"/>
+      <c r="B303" s="291"/>
+      <c r="C303" s="305"/>
       <c r="D303" s="295"/>
       <c r="E303" s="177"/>
       <c r="F303" s="177"/>
@@ -27387,16 +27383,16 @@
       <c r="H303" s="180"/>
       <c r="I303" s="180"/>
       <c r="J303" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K303" s="180"/>
       <c r="L303" s="177"/>
       <c r="M303" s="183"/>
     </row>
     <row r="304" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A304" s="314"/>
-      <c r="B304" s="314"/>
-      <c r="C304" s="318"/>
+      <c r="A304" s="291"/>
+      <c r="B304" s="291"/>
+      <c r="C304" s="305"/>
       <c r="D304" s="295"/>
       <c r="E304" s="176"/>
       <c r="F304" s="176"/>
@@ -27406,16 +27402,16 @@
       <c r="H304" s="245"/>
       <c r="I304" s="245"/>
       <c r="J304" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K304" s="180"/>
       <c r="L304" s="201"/>
       <c r="M304" s="183"/>
     </row>
     <row r="305" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A305" s="314"/>
-      <c r="B305" s="314"/>
-      <c r="C305" s="318"/>
+      <c r="A305" s="291"/>
+      <c r="B305" s="291"/>
+      <c r="C305" s="305"/>
       <c r="D305" s="295"/>
       <c r="E305" s="176"/>
       <c r="F305" s="176"/>
@@ -27425,16 +27421,16 @@
       <c r="H305" s="245"/>
       <c r="I305" s="245"/>
       <c r="J305" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K305" s="180"/>
       <c r="L305" s="201"/>
       <c r="M305" s="183"/>
     </row>
     <row r="306" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A306" s="314"/>
-      <c r="B306" s="314"/>
-      <c r="C306" s="318"/>
+      <c r="A306" s="291"/>
+      <c r="B306" s="291"/>
+      <c r="C306" s="305"/>
       <c r="D306" s="295"/>
       <c r="E306" s="176"/>
       <c r="F306" s="176"/>
@@ -27444,16 +27440,16 @@
       <c r="H306" s="245"/>
       <c r="I306" s="245"/>
       <c r="J306" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K306" s="180"/>
       <c r="L306" s="201"/>
       <c r="M306" s="183"/>
     </row>
     <row r="307" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A307" s="314"/>
-      <c r="B307" s="314"/>
-      <c r="C307" s="318"/>
+      <c r="A307" s="291"/>
+      <c r="B307" s="291"/>
+      <c r="C307" s="305"/>
       <c r="D307" s="295"/>
       <c r="E307" s="176"/>
       <c r="F307" s="176"/>
@@ -27463,16 +27459,16 @@
       <c r="H307" s="245"/>
       <c r="I307" s="245"/>
       <c r="J307" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K307" s="180"/>
       <c r="L307" s="201"/>
       <c r="M307" s="183"/>
     </row>
     <row r="308" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A308" s="314"/>
-      <c r="B308" s="314"/>
-      <c r="C308" s="318"/>
+      <c r="A308" s="291"/>
+      <c r="B308" s="291"/>
+      <c r="C308" s="305"/>
       <c r="D308" s="295"/>
       <c r="E308" s="176"/>
       <c r="F308" s="176"/>
@@ -27482,16 +27478,16 @@
       <c r="H308" s="245"/>
       <c r="I308" s="245"/>
       <c r="J308" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K308" s="180"/>
       <c r="L308" s="201"/>
       <c r="M308" s="183"/>
     </row>
     <row r="309" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A309" s="314"/>
-      <c r="B309" s="314"/>
-      <c r="C309" s="318"/>
+      <c r="A309" s="291"/>
+      <c r="B309" s="291"/>
+      <c r="C309" s="305"/>
       <c r="D309" s="295"/>
       <c r="E309" s="176"/>
       <c r="F309" s="176"/>
@@ -27501,16 +27497,16 @@
       <c r="H309" s="245"/>
       <c r="I309" s="245"/>
       <c r="J309" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K309" s="180"/>
       <c r="L309" s="201"/>
       <c r="M309" s="183"/>
     </row>
     <row r="310" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A310" s="314"/>
-      <c r="B310" s="314"/>
-      <c r="C310" s="318"/>
+      <c r="A310" s="291"/>
+      <c r="B310" s="291"/>
+      <c r="C310" s="305"/>
       <c r="D310" s="295"/>
       <c r="E310" s="176"/>
       <c r="F310" s="176"/>
@@ -27520,16 +27516,16 @@
       <c r="H310" s="245"/>
       <c r="I310" s="245"/>
       <c r="J310" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K310" s="180"/>
       <c r="L310" s="201"/>
       <c r="M310" s="183"/>
     </row>
     <row r="311" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A311" s="314"/>
-      <c r="B311" s="314"/>
-      <c r="C311" s="318"/>
+      <c r="A311" s="291"/>
+      <c r="B311" s="291"/>
+      <c r="C311" s="305"/>
       <c r="D311" s="296"/>
       <c r="E311" s="176"/>
       <c r="F311" s="176"/>
@@ -27539,16 +27535,16 @@
       <c r="H311" s="245"/>
       <c r="I311" s="245"/>
       <c r="J311" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K311" s="180"/>
       <c r="L311" s="201"/>
       <c r="M311" s="183"/>
     </row>
     <row r="312" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A312" s="314"/>
-      <c r="B312" s="314"/>
-      <c r="C312" s="318"/>
+      <c r="A312" s="291"/>
+      <c r="B312" s="291"/>
+      <c r="C312" s="305"/>
       <c r="D312" s="262" t="s">
         <v>2161</v>
       </c>
@@ -27558,17 +27554,17 @@
       <c r="H312" s="245"/>
       <c r="I312" s="245"/>
       <c r="J312" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K312" s="180"/>
       <c r="L312" s="201"/>
       <c r="M312" s="183"/>
     </row>
     <row r="313" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A313" s="314"/>
-      <c r="B313" s="314"/>
-      <c r="C313" s="318"/>
-      <c r="D313" s="297" t="s">
+      <c r="A313" s="291"/>
+      <c r="B313" s="291"/>
+      <c r="C313" s="305"/>
+      <c r="D313" s="292" t="s">
         <v>2176</v>
       </c>
       <c r="E313" s="176"/>
@@ -27581,17 +27577,17 @@
       </c>
       <c r="I313" s="245"/>
       <c r="J313" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K313" s="180"/>
       <c r="L313" s="201"/>
       <c r="M313" s="183"/>
     </row>
     <row r="314" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A314" s="314"/>
-      <c r="B314" s="314"/>
-      <c r="C314" s="318"/>
-      <c r="D314" s="298"/>
+      <c r="A314" s="291"/>
+      <c r="B314" s="291"/>
+      <c r="C314" s="305"/>
+      <c r="D314" s="324"/>
       <c r="E314" s="176"/>
       <c r="F314" s="176"/>
       <c r="G314" s="261" t="s">
@@ -27600,17 +27596,17 @@
       <c r="H314" s="245"/>
       <c r="I314" s="245"/>
       <c r="J314" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K314" s="180"/>
       <c r="L314" s="201"/>
       <c r="M314" s="183"/>
     </row>
     <row r="315" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A315" s="314"/>
-      <c r="B315" s="314"/>
-      <c r="C315" s="318"/>
-      <c r="D315" s="298"/>
+      <c r="A315" s="291"/>
+      <c r="B315" s="291"/>
+      <c r="C315" s="305"/>
+      <c r="D315" s="324"/>
       <c r="E315" s="176"/>
       <c r="F315" s="176"/>
       <c r="G315" s="261" t="s">
@@ -27621,17 +27617,17 @@
       </c>
       <c r="I315" s="245"/>
       <c r="J315" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K315" s="180"/>
       <c r="L315" s="201"/>
       <c r="M315" s="183"/>
     </row>
     <row r="316" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A316" s="314"/>
-      <c r="B316" s="314"/>
-      <c r="C316" s="318"/>
-      <c r="D316" s="298"/>
+      <c r="A316" s="291"/>
+      <c r="B316" s="291"/>
+      <c r="C316" s="305"/>
+      <c r="D316" s="324"/>
       <c r="E316" s="176"/>
       <c r="F316" s="176"/>
       <c r="G316" s="261" t="s">
@@ -27640,17 +27636,17 @@
       <c r="H316" s="245"/>
       <c r="I316" s="245"/>
       <c r="J316" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K316" s="180"/>
       <c r="L316" s="201"/>
       <c r="M316" s="183"/>
     </row>
     <row r="317" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A317" s="314"/>
-      <c r="B317" s="314"/>
-      <c r="C317" s="318"/>
-      <c r="D317" s="298"/>
+      <c r="A317" s="291"/>
+      <c r="B317" s="291"/>
+      <c r="C317" s="305"/>
+      <c r="D317" s="324"/>
       <c r="E317" s="176"/>
       <c r="F317" s="176"/>
       <c r="G317" s="261" t="s">
@@ -27661,17 +27657,17 @@
       </c>
       <c r="I317" s="245"/>
       <c r="J317" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K317" s="180"/>
       <c r="L317" s="201"/>
       <c r="M317" s="183"/>
     </row>
     <row r="318" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A318" s="314"/>
-      <c r="B318" s="314"/>
-      <c r="C318" s="318"/>
-      <c r="D318" s="298"/>
+      <c r="A318" s="291"/>
+      <c r="B318" s="291"/>
+      <c r="C318" s="305"/>
+      <c r="D318" s="324"/>
       <c r="E318" s="176"/>
       <c r="F318" s="176"/>
       <c r="G318" s="261" t="s">
@@ -27680,17 +27676,17 @@
       <c r="H318" s="245"/>
       <c r="I318" s="245"/>
       <c r="J318" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K318" s="180"/>
       <c r="L318" s="201"/>
       <c r="M318" s="183"/>
     </row>
     <row r="319" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A319" s="314"/>
-      <c r="B319" s="314"/>
-      <c r="C319" s="318"/>
-      <c r="D319" s="298"/>
+      <c r="A319" s="291"/>
+      <c r="B319" s="291"/>
+      <c r="C319" s="305"/>
+      <c r="D319" s="324"/>
       <c r="E319" s="176"/>
       <c r="F319" s="176"/>
       <c r="G319" s="261" t="s">
@@ -27701,17 +27697,17 @@
       </c>
       <c r="I319" s="245"/>
       <c r="J319" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K319" s="180"/>
       <c r="L319" s="201"/>
       <c r="M319" s="183"/>
     </row>
     <row r="320" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A320" s="314"/>
-      <c r="B320" s="314"/>
-      <c r="C320" s="318"/>
-      <c r="D320" s="298"/>
+      <c r="A320" s="291"/>
+      <c r="B320" s="291"/>
+      <c r="C320" s="305"/>
+      <c r="D320" s="324"/>
       <c r="E320" s="176"/>
       <c r="F320" s="176"/>
       <c r="G320" s="261" t="s">
@@ -27720,17 +27716,17 @@
       <c r="H320" s="245"/>
       <c r="I320" s="245"/>
       <c r="J320" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K320" s="180"/>
       <c r="L320" s="201"/>
       <c r="M320" s="183"/>
     </row>
     <row r="321" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A321" s="314"/>
-      <c r="B321" s="314"/>
-      <c r="C321" s="318"/>
-      <c r="D321" s="298"/>
+      <c r="A321" s="291"/>
+      <c r="B321" s="291"/>
+      <c r="C321" s="305"/>
+      <c r="D321" s="324"/>
       <c r="E321" s="176"/>
       <c r="F321" s="176"/>
       <c r="G321" s="261" t="s">
@@ -27741,17 +27737,17 @@
       </c>
       <c r="I321" s="245"/>
       <c r="J321" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K321" s="180"/>
       <c r="L321" s="201"/>
       <c r="M321" s="183"/>
     </row>
     <row r="322" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A322" s="314"/>
-      <c r="B322" s="314"/>
-      <c r="C322" s="318"/>
-      <c r="D322" s="298"/>
+      <c r="A322" s="291"/>
+      <c r="B322" s="291"/>
+      <c r="C322" s="305"/>
+      <c r="D322" s="324"/>
       <c r="E322" s="176"/>
       <c r="F322" s="176"/>
       <c r="G322" s="263" t="s">
@@ -27762,7 +27758,7 @@
       </c>
       <c r="I322" s="245"/>
       <c r="J322" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K322" s="180"/>
       <c r="L322" s="201" t="s">
@@ -27771,10 +27767,10 @@
       <c r="M322" s="183"/>
     </row>
     <row r="323" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A323" s="314"/>
-      <c r="B323" s="314"/>
-      <c r="C323" s="318"/>
-      <c r="D323" s="299"/>
+      <c r="A323" s="291"/>
+      <c r="B323" s="291"/>
+      <c r="C323" s="305"/>
+      <c r="D323" s="293"/>
       <c r="E323" s="176"/>
       <c r="F323" s="176"/>
       <c r="G323" s="263" t="s">
@@ -27785,17 +27781,17 @@
       </c>
       <c r="I323" s="245"/>
       <c r="J323" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K323" s="180"/>
       <c r="L323" s="201"/>
       <c r="M323" s="183"/>
     </row>
     <row r="324" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A324" s="314"/>
-      <c r="B324" s="314"/>
-      <c r="C324" s="318"/>
-      <c r="D324" s="300" t="s">
+      <c r="A324" s="291"/>
+      <c r="B324" s="291"/>
+      <c r="C324" s="305"/>
+      <c r="D324" s="325" t="s">
         <v>2177</v>
       </c>
       <c r="E324" s="176"/>
@@ -27806,17 +27802,17 @@
       <c r="H324" s="245"/>
       <c r="I324" s="245"/>
       <c r="J324" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K324" s="180"/>
       <c r="L324" s="201"/>
       <c r="M324" s="183"/>
     </row>
     <row r="325" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A325" s="314"/>
-      <c r="B325" s="314"/>
-      <c r="C325" s="318"/>
-      <c r="D325" s="301"/>
+      <c r="A325" s="291"/>
+      <c r="B325" s="291"/>
+      <c r="C325" s="305"/>
+      <c r="D325" s="326"/>
       <c r="E325" s="176"/>
       <c r="F325" s="176"/>
       <c r="G325" s="261" t="s">
@@ -27827,17 +27823,17 @@
       </c>
       <c r="I325" s="245"/>
       <c r="J325" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K325" s="180"/>
       <c r="L325" s="201"/>
       <c r="M325" s="183"/>
     </row>
     <row r="326" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A326" s="314"/>
-      <c r="B326" s="314"/>
-      <c r="C326" s="318"/>
-      <c r="D326" s="301"/>
+      <c r="A326" s="291"/>
+      <c r="B326" s="291"/>
+      <c r="C326" s="305"/>
+      <c r="D326" s="326"/>
       <c r="E326" s="176"/>
       <c r="F326" s="176"/>
       <c r="G326" s="261" t="s">
@@ -27848,17 +27844,17 @@
       </c>
       <c r="I326" s="245"/>
       <c r="J326" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K326" s="180"/>
       <c r="L326" s="201"/>
       <c r="M326" s="183"/>
     </row>
     <row r="327" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A327" s="314"/>
-      <c r="B327" s="314"/>
-      <c r="C327" s="318"/>
-      <c r="D327" s="302"/>
+      <c r="A327" s="291"/>
+      <c r="B327" s="291"/>
+      <c r="C327" s="305"/>
+      <c r="D327" s="327"/>
       <c r="E327" s="176"/>
       <c r="F327" s="176"/>
       <c r="G327" s="261" t="s">
@@ -27869,17 +27865,17 @@
       </c>
       <c r="I327" s="245"/>
       <c r="J327" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K327" s="180"/>
       <c r="L327" s="201"/>
       <c r="M327" s="183"/>
     </row>
     <row r="328" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A328" s="314"/>
-      <c r="B328" s="314"/>
-      <c r="C328" s="318"/>
-      <c r="D328" s="300" t="s">
+      <c r="A328" s="291"/>
+      <c r="B328" s="291"/>
+      <c r="C328" s="305"/>
+      <c r="D328" s="325" t="s">
         <v>2178</v>
       </c>
       <c r="E328" s="176"/>
@@ -27892,17 +27888,17 @@
       </c>
       <c r="I328" s="245"/>
       <c r="J328" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K328" s="180"/>
       <c r="L328" s="201"/>
       <c r="M328" s="183"/>
     </row>
     <row r="329" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A329" s="314"/>
-      <c r="B329" s="314"/>
-      <c r="C329" s="318"/>
-      <c r="D329" s="301"/>
+      <c r="A329" s="291"/>
+      <c r="B329" s="291"/>
+      <c r="C329" s="305"/>
+      <c r="D329" s="326"/>
       <c r="E329" s="176"/>
       <c r="F329" s="176"/>
       <c r="G329" s="261" t="s">
@@ -27913,17 +27909,17 @@
       </c>
       <c r="I329" s="245"/>
       <c r="J329" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K329" s="180"/>
       <c r="L329" s="201"/>
       <c r="M329" s="183"/>
     </row>
     <row r="330" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A330" s="314"/>
-      <c r="B330" s="314"/>
-      <c r="C330" s="318"/>
-      <c r="D330" s="301"/>
+      <c r="A330" s="291"/>
+      <c r="B330" s="291"/>
+      <c r="C330" s="305"/>
+      <c r="D330" s="326"/>
       <c r="E330" s="176"/>
       <c r="F330" s="176"/>
       <c r="G330" s="261" t="s">
@@ -27934,17 +27930,17 @@
       </c>
       <c r="I330" s="245"/>
       <c r="J330" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K330" s="180"/>
       <c r="L330" s="201"/>
       <c r="M330" s="183"/>
     </row>
     <row r="331" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A331" s="314"/>
-      <c r="B331" s="314"/>
-      <c r="C331" s="318"/>
-      <c r="D331" s="302"/>
+      <c r="A331" s="291"/>
+      <c r="B331" s="291"/>
+      <c r="C331" s="305"/>
+      <c r="D331" s="327"/>
       <c r="E331" s="176"/>
       <c r="F331" s="176"/>
       <c r="G331" s="261" t="s">
@@ -27955,17 +27951,17 @@
       </c>
       <c r="I331" s="245"/>
       <c r="J331" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K331" s="180"/>
       <c r="L331" s="201"/>
       <c r="M331" s="183"/>
     </row>
     <row r="332" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A332" s="314"/>
-      <c r="B332" s="314"/>
-      <c r="C332" s="318"/>
-      <c r="D332" s="297" t="s">
+      <c r="A332" s="291"/>
+      <c r="B332" s="291"/>
+      <c r="C332" s="305"/>
+      <c r="D332" s="292" t="s">
         <v>2183</v>
       </c>
       <c r="E332" s="176"/>
@@ -27976,17 +27972,17 @@
       <c r="H332" s="245"/>
       <c r="I332" s="245"/>
       <c r="J332" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K332" s="180"/>
       <c r="L332" s="201"/>
       <c r="M332" s="183"/>
     </row>
     <row r="333" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A333" s="314"/>
-      <c r="B333" s="314"/>
-      <c r="C333" s="318"/>
-      <c r="D333" s="299"/>
+      <c r="A333" s="291"/>
+      <c r="B333" s="291"/>
+      <c r="C333" s="305"/>
+      <c r="D333" s="293"/>
       <c r="E333" s="176"/>
       <c r="F333" s="176"/>
       <c r="G333" s="261" t="s">
@@ -27997,17 +27993,17 @@
       </c>
       <c r="I333" s="245"/>
       <c r="J333" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K333" s="180"/>
       <c r="L333" s="201"/>
       <c r="M333" s="183"/>
     </row>
     <row r="334" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A334" s="314"/>
-      <c r="B334" s="314"/>
-      <c r="C334" s="318"/>
-      <c r="D334" s="300" t="s">
+      <c r="A334" s="291"/>
+      <c r="B334" s="291"/>
+      <c r="C334" s="305"/>
+      <c r="D334" s="325" t="s">
         <v>2184</v>
       </c>
       <c r="E334" s="176"/>
@@ -28018,38 +28014,38 @@
       <c r="H334" s="245"/>
       <c r="I334" s="245"/>
       <c r="J334" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K334" s="180"/>
       <c r="L334" s="201"/>
       <c r="M334" s="183"/>
     </row>
     <row r="335" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A335" s="314"/>
-      <c r="B335" s="314"/>
-      <c r="C335" s="318"/>
-      <c r="D335" s="301"/>
+      <c r="A335" s="291"/>
+      <c r="B335" s="291"/>
+      <c r="C335" s="305"/>
+      <c r="D335" s="326"/>
       <c r="E335" s="176"/>
       <c r="F335" s="176"/>
       <c r="G335" s="281" t="s">
         <v>2186</v>
       </c>
       <c r="H335" s="245" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="I335" s="245"/>
-      <c r="J335" s="291" t="s">
-        <v>3044</v>
+      <c r="J335" s="321" t="s">
+        <v>3043</v>
       </c>
       <c r="K335" s="180"/>
       <c r="L335" s="201"/>
       <c r="M335" s="183"/>
     </row>
     <row r="336" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A336" s="314"/>
-      <c r="B336" s="314"/>
-      <c r="C336" s="318"/>
-      <c r="D336" s="301"/>
+      <c r="A336" s="291"/>
+      <c r="B336" s="291"/>
+      <c r="C336" s="305"/>
+      <c r="D336" s="326"/>
       <c r="E336" s="176"/>
       <c r="F336" s="176"/>
       <c r="G336" s="281" t="s">
@@ -28057,16 +28053,16 @@
       </c>
       <c r="H336" s="245"/>
       <c r="I336" s="245"/>
-      <c r="J336" s="292"/>
+      <c r="J336" s="322"/>
       <c r="K336" s="180"/>
       <c r="L336" s="201"/>
       <c r="M336" s="183"/>
     </row>
     <row r="337" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A337" s="314"/>
-      <c r="B337" s="314"/>
-      <c r="C337" s="318"/>
-      <c r="D337" s="301"/>
+      <c r="A337" s="291"/>
+      <c r="B337" s="291"/>
+      <c r="C337" s="305"/>
+      <c r="D337" s="326"/>
       <c r="E337" s="176"/>
       <c r="F337" s="176"/>
       <c r="G337" s="281" t="s">
@@ -28074,16 +28070,16 @@
       </c>
       <c r="H337" s="245"/>
       <c r="I337" s="245"/>
-      <c r="J337" s="292"/>
+      <c r="J337" s="322"/>
       <c r="K337" s="180"/>
       <c r="L337" s="201"/>
       <c r="M337" s="183"/>
     </row>
     <row r="338" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A338" s="314"/>
-      <c r="B338" s="314"/>
-      <c r="C338" s="318"/>
-      <c r="D338" s="301"/>
+      <c r="A338" s="291"/>
+      <c r="B338" s="291"/>
+      <c r="C338" s="305"/>
+      <c r="D338" s="326"/>
       <c r="E338" s="176"/>
       <c r="F338" s="176"/>
       <c r="G338" s="281" t="s">
@@ -28091,16 +28087,16 @@
       </c>
       <c r="H338" s="245"/>
       <c r="I338" s="245"/>
-      <c r="J338" s="292"/>
+      <c r="J338" s="322"/>
       <c r="K338" s="180"/>
       <c r="L338" s="201"/>
       <c r="M338" s="183"/>
     </row>
     <row r="339" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A339" s="314"/>
-      <c r="B339" s="314"/>
-      <c r="C339" s="318"/>
-      <c r="D339" s="302"/>
+      <c r="A339" s="291"/>
+      <c r="B339" s="291"/>
+      <c r="C339" s="305"/>
+      <c r="D339" s="327"/>
       <c r="E339" s="176"/>
       <c r="F339" s="176"/>
       <c r="G339" s="281" t="s">
@@ -28108,15 +28104,15 @@
       </c>
       <c r="H339" s="245"/>
       <c r="I339" s="245"/>
-      <c r="J339" s="293"/>
+      <c r="J339" s="323"/>
       <c r="K339" s="180"/>
       <c r="L339" s="201"/>
       <c r="M339" s="183"/>
     </row>
     <row r="340" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A340" s="314"/>
-      <c r="B340" s="314"/>
-      <c r="C340" s="318"/>
+      <c r="A340" s="291"/>
+      <c r="B340" s="291"/>
+      <c r="C340" s="305"/>
       <c r="D340" s="265" t="s">
         <v>2195</v>
       </c>
@@ -28130,7 +28126,7 @@
       </c>
       <c r="I340" s="245"/>
       <c r="J340" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K340" s="180"/>
       <c r="L340" s="201" t="s">
@@ -28139,9 +28135,9 @@
       <c r="M340" s="183"/>
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A341" s="314"/>
-      <c r="B341" s="314"/>
-      <c r="C341" s="318"/>
+      <c r="A341" s="291"/>
+      <c r="B341" s="291"/>
+      <c r="C341" s="305"/>
       <c r="D341" s="266" t="s">
         <v>2196</v>
       </c>
@@ -28151,16 +28147,16 @@
       <c r="H341" s="245"/>
       <c r="I341" s="245"/>
       <c r="J341" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K341" s="180"/>
       <c r="L341" s="201"/>
       <c r="M341" s="183"/>
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A342" s="314"/>
-      <c r="B342" s="314"/>
-      <c r="C342" s="318"/>
+      <c r="A342" s="291"/>
+      <c r="B342" s="291"/>
+      <c r="C342" s="305"/>
       <c r="D342" s="262" t="s">
         <v>2212</v>
       </c>
@@ -28172,16 +28168,16 @@
       <c r="H342" s="245"/>
       <c r="I342" s="245"/>
       <c r="J342" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K342" s="180"/>
       <c r="L342" s="201"/>
       <c r="M342" s="183"/>
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A343" s="314"/>
-      <c r="B343" s="314"/>
-      <c r="C343" s="318"/>
+      <c r="A343" s="291"/>
+      <c r="B343" s="291"/>
+      <c r="C343" s="305"/>
       <c r="D343" s="262"/>
       <c r="E343" s="176"/>
       <c r="F343" s="176"/>
@@ -28193,16 +28189,16 @@
       </c>
       <c r="I343" s="245"/>
       <c r="J343" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K343" s="180"/>
       <c r="L343" s="201"/>
       <c r="M343" s="183"/>
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A344" s="314"/>
-      <c r="B344" s="314"/>
-      <c r="C344" s="318"/>
+      <c r="A344" s="291"/>
+      <c r="B344" s="291"/>
+      <c r="C344" s="305"/>
       <c r="D344" s="262"/>
       <c r="E344" s="176"/>
       <c r="F344" s="176"/>
@@ -28212,16 +28208,16 @@
       <c r="H344" s="245"/>
       <c r="I344" s="245"/>
       <c r="J344" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K344" s="180"/>
       <c r="L344" s="201"/>
       <c r="M344" s="183"/>
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A345" s="314"/>
-      <c r="B345" s="314"/>
-      <c r="C345" s="318"/>
+      <c r="A345" s="291"/>
+      <c r="B345" s="291"/>
+      <c r="C345" s="305"/>
       <c r="D345" s="262" t="s">
         <v>2221</v>
       </c>
@@ -28233,16 +28229,16 @@
       <c r="H345" s="245"/>
       <c r="I345" s="245"/>
       <c r="J345" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K345" s="180"/>
       <c r="L345" s="201"/>
       <c r="M345" s="183"/>
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A346" s="314"/>
-      <c r="B346" s="314"/>
-      <c r="C346" s="318"/>
+      <c r="A346" s="291"/>
+      <c r="B346" s="291"/>
+      <c r="C346" s="305"/>
       <c r="D346" s="262"/>
       <c r="E346" s="176"/>
       <c r="F346" s="176"/>
@@ -28254,16 +28250,16 @@
       </c>
       <c r="I346" s="245"/>
       <c r="J346" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K346" s="180"/>
       <c r="L346" s="201"/>
       <c r="M346" s="183"/>
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A347" s="314"/>
-      <c r="B347" s="314"/>
-      <c r="C347" s="318"/>
+      <c r="A347" s="291"/>
+      <c r="B347" s="291"/>
+      <c r="C347" s="305"/>
       <c r="D347" s="262"/>
       <c r="E347" s="176"/>
       <c r="F347" s="176"/>
@@ -28273,16 +28269,16 @@
       <c r="H347" s="245"/>
       <c r="I347" s="245"/>
       <c r="J347" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K347" s="180"/>
       <c r="L347" s="201"/>
       <c r="M347" s="183"/>
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A348" s="314"/>
-      <c r="B348" s="314"/>
-      <c r="C348" s="318"/>
+      <c r="A348" s="291"/>
+      <c r="B348" s="291"/>
+      <c r="C348" s="305"/>
       <c r="D348" s="262" t="s">
         <v>2222</v>
       </c>
@@ -28292,16 +28288,16 @@
       <c r="H348" s="245"/>
       <c r="I348" s="245"/>
       <c r="J348" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K348" s="180"/>
       <c r="L348" s="201"/>
       <c r="M348" s="183"/>
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A349" s="314"/>
-      <c r="B349" s="314"/>
-      <c r="C349" s="318"/>
+      <c r="A349" s="291"/>
+      <c r="B349" s="291"/>
+      <c r="C349" s="305"/>
       <c r="D349" s="262" t="s">
         <v>2223</v>
       </c>
@@ -28311,7 +28307,7 @@
       <c r="H349" s="245"/>
       <c r="I349" s="245"/>
       <c r="J349" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K349" s="180"/>
       <c r="L349" s="201"/>
@@ -28330,7 +28326,7 @@
       <c r="H350" s="245"/>
       <c r="I350" s="245"/>
       <c r="J350" s="180" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K350" s="180"/>
       <c r="L350" s="201"/>
@@ -28343,6 +28339,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="J335:J339"/>
+    <mergeCell ref="D301:D311"/>
+    <mergeCell ref="D313:D323"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="D334:D339"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C301:C349"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B193"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C149:C166"/>
+    <mergeCell ref="C184:C193"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D176:D183"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="C241:C257"/>
+    <mergeCell ref="C298:C299"/>
     <mergeCell ref="A298:B349"/>
     <mergeCell ref="D332:D333"/>
     <mergeCell ref="D78:D80"/>
@@ -28359,59 +28408,6 @@
     <mergeCell ref="C143:C148"/>
     <mergeCell ref="C118:C142"/>
     <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C301:C349"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B193"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C149:C166"/>
-    <mergeCell ref="C184:C193"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D176:D183"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="C241:C257"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="J335:J339"/>
-    <mergeCell ref="D301:D311"/>
-    <mergeCell ref="D313:D323"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="D334:D339"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28444,30 +28440,30 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B4" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
   </sheetData>
@@ -28480,8 +28476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -28784,7 +28780,7 @@
         <v>1488</v>
       </c>
       <c r="E11" s="167" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>1512</v>
@@ -30720,7 +30716,7 @@
         <v>821</v>
       </c>
       <c r="C2" s="337" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="D2" s="338"/>
       <c r="E2" s="338"/>
@@ -31236,7 +31232,7 @@
         <v>849</v>
       </c>
       <c r="K24" s="157" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="L24" s="54" t="s">
         <v>904</v>
@@ -32603,7 +32599,7 @@
         <v>821</v>
       </c>
       <c r="C87" s="337" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="D87" s="338"/>
       <c r="E87" s="338"/>
@@ -33638,7 +33634,7 @@
         <v>864</v>
       </c>
       <c r="K132" s="173" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="L132" s="52" t="s">
         <v>938</v>
@@ -37059,7 +37055,7 @@
         <v>821</v>
       </c>
       <c r="C309" s="337" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="D309" s="338"/>
       <c r="E309" s="338"/>
@@ -38191,7 +38187,7 @@
     </row>
     <row r="370" spans="2:13" ht="15" thickBot="1">
       <c r="J370" s="173" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="M370" s="170"/>
     </row>
@@ -38454,7 +38450,7 @@
       <c r="H383" s="50"/>
       <c r="I383" s="51"/>
       <c r="J383" s="173" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="K383" s="52" t="s">
         <v>1268</v>
@@ -38876,6 +38872,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -38888,42 +38920,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -38936,8 +38932,8 @@
   <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -53361,7 +53357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:S12"/>
     </sheetView>
   </sheetViews>
@@ -53388,7 +53384,7 @@
         <v>2241</v>
       </c>
       <c r="C2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D2" t="s">
         <v>2242</v>
@@ -53409,22 +53405,22 @@
         <v>2246</v>
       </c>
       <c r="J2" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="K2" t="s">
         <v>2250</v>
       </c>
       <c r="L2" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="M2" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="N2" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O2" t="s">
         <v>2973</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -53451,34 +53447,34 @@
         <v>2241</v>
       </c>
       <c r="C7" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D7" t="s">
         <v>2953</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>2954</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>2955</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>2956</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J7" t="s">
         <v>2957</v>
       </c>
-      <c r="H7" t="s">
-        <v>2975</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2976</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2958</v>
-      </c>
       <c r="K7" t="s">
+        <v>2972</v>
+      </c>
+      <c r="L7" t="s">
         <v>2973</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -53509,7 +53505,7 @@
         <v>2917</v>
       </c>
       <c r="H11" s="174" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="I11" s="174" t="s">
         <v>2922</v>
@@ -53524,10 +53520,10 @@
         <v>2924</v>
       </c>
       <c r="M11" s="174" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="N11" s="174" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="O11" s="174" t="s">
         <v>2926</v>
@@ -53536,13 +53532,13 @@
         <v>2925</v>
       </c>
       <c r="Q11" s="174" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="R11" s="163" t="s">
         <v>2919</v>
       </c>
       <c r="S11" s="174" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="W11" s="163" t="s">
         <v>2925</v>
@@ -53556,31 +53552,31 @@
         <v>43034.396087962959</v>
       </c>
       <c r="C12" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D12" t="s">
         <v>2945</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>2946</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>2947</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2948</v>
       </c>
       <c r="G12" s="169">
         <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O12" t="s">
         <v>2950</v>
-      </c>
-      <c r="O12" t="s">
-        <v>2951</v>
       </c>
       <c r="P12">
         <v>32098393</v>
@@ -53596,47 +53592,47 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G18" t="s">
         <v>2981</v>
       </c>
-      <c r="D18" t="s">
-        <v>2952</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2977</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2978</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>2982</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="B22" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="B28" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="163" customFormat="1" ht="42.75">
@@ -53659,7 +53655,7 @@
         <v>2917</v>
       </c>
       <c r="H30" s="174" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="I30" s="174" t="s">
         <v>2922</v>
@@ -53674,10 +53670,10 @@
         <v>2924</v>
       </c>
       <c r="M30" s="174" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="N30" s="174" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="O30" s="174" t="s">
         <v>2926</v>
@@ -53686,7 +53682,7 @@
         <v>2925</v>
       </c>
       <c r="Q30" s="174" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="R30" s="163" t="s">
         <v>2919</v>
@@ -53709,19 +53705,19 @@
         <v>244</v>
       </c>
       <c r="D31" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E31" t="s">
         <v>2946</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>2947</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2948</v>
       </c>
       <c r="G31" s="169">
         <v>0.5</v>
       </c>
       <c r="H31" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="M31">
         <v>1</v>

--- a/03.指标管理/大宗/指标定义表V2.1.3.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="624" activeTab="2"/>
@@ -17,7 +17,7 @@
     <sheet name="维度信息（老系统）" sheetId="9" r:id="rId8"/>
     <sheet name="人工维护" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -19662,14 +19662,14 @@
     <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19680,14 +19680,23 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19698,30 +19707,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -19730,12 +19715,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19752,26 +19731,47 @@
     <xf numFmtId="0" fontId="45" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -20924,8 +20924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M372"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
@@ -20985,13 +20985,13 @@
       <c r="A2" s="176">
         <v>1</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="315" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="303" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="319" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="177" t="s">
@@ -21024,9 +21024,9 @@
       <c r="A3" s="176">
         <v>2</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="309"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="320"/>
       <c r="E3" s="177" t="s">
         <v>1340</v>
       </c>
@@ -21051,9 +21051,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="176"/>
-      <c r="B4" s="307"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="309"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="320"/>
       <c r="E4" s="177" t="s">
         <v>1343</v>
       </c>
@@ -21076,9 +21076,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="184"/>
-      <c r="B5" s="307"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="309"/>
+      <c r="B5" s="316"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="185"/>
       <c r="F5" s="186"/>
       <c r="G5" s="179" t="s">
@@ -21103,9 +21103,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="176"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="309"/>
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="320"/>
       <c r="E6" s="177"/>
       <c r="F6" s="178"/>
       <c r="G6" s="179" t="s">
@@ -21124,9 +21124,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="176"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="309"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="320"/>
       <c r="E7" s="177"/>
       <c r="F7" s="178"/>
       <c r="G7" s="179" t="s">
@@ -21145,8 +21145,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="176"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="301"/>
+      <c r="B8" s="316"/>
+      <c r="C8" s="304"/>
       <c r="D8" s="190"/>
       <c r="E8" s="177"/>
       <c r="F8" s="178"/>
@@ -21164,8 +21164,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="176"/>
-      <c r="B9" s="307"/>
-      <c r="C9" s="301"/>
+      <c r="B9" s="316"/>
+      <c r="C9" s="304"/>
       <c r="D9" s="190"/>
       <c r="E9" s="177"/>
       <c r="F9" s="178"/>
@@ -21185,8 +21185,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="176"/>
-      <c r="B10" s="307"/>
-      <c r="C10" s="301"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="304"/>
       <c r="D10" s="190"/>
       <c r="E10" s="177"/>
       <c r="F10" s="178"/>
@@ -21206,8 +21206,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="184"/>
-      <c r="B11" s="307"/>
-      <c r="C11" s="301"/>
+      <c r="B11" s="316"/>
+      <c r="C11" s="304"/>
       <c r="D11" s="193" t="s">
         <v>0</v>
       </c>
@@ -21229,8 +21229,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="176"/>
-      <c r="B12" s="307"/>
-      <c r="C12" s="301"/>
+      <c r="B12" s="316"/>
+      <c r="C12" s="304"/>
       <c r="D12" s="194" t="s">
         <v>0</v>
       </c>
@@ -21252,8 +21252,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="176"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="301"/>
+      <c r="B13" s="316"/>
+      <c r="C13" s="304"/>
       <c r="D13" s="194" t="s">
         <v>0</v>
       </c>
@@ -21275,8 +21275,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="176"/>
-      <c r="B14" s="307"/>
-      <c r="C14" s="301"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="304"/>
       <c r="D14" s="195" t="s">
         <v>2237</v>
       </c>
@@ -21300,8 +21300,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="176"/>
-      <c r="B15" s="307"/>
-      <c r="C15" s="301"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="304"/>
       <c r="D15" s="195"/>
       <c r="E15" s="177"/>
       <c r="F15" s="178"/>
@@ -21321,8 +21321,8 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="176"/>
-      <c r="B16" s="307"/>
-      <c r="C16" s="301"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="304"/>
       <c r="D16" s="294" t="s">
         <v>1353</v>
       </c>
@@ -21344,8 +21344,8 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="176"/>
-      <c r="B17" s="307"/>
-      <c r="C17" s="301"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="304"/>
       <c r="D17" s="295"/>
       <c r="E17" s="177"/>
       <c r="F17" s="178"/>
@@ -21365,8 +21365,8 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="176"/>
-      <c r="B18" s="307"/>
-      <c r="C18" s="301"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="304"/>
       <c r="D18" s="296"/>
       <c r="E18" s="177"/>
       <c r="F18" s="178"/>
@@ -21384,8 +21384,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="184"/>
-      <c r="B19" s="307"/>
-      <c r="C19" s="301"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="304"/>
       <c r="D19" s="193" t="s">
         <v>1358</v>
       </c>
@@ -21409,8 +21409,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="176"/>
-      <c r="B20" s="307"/>
-      <c r="C20" s="301"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="304"/>
       <c r="D20" s="194" t="s">
         <v>1360</v>
       </c>
@@ -21434,9 +21434,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
-      <c r="B21" s="307"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="306" t="s">
+      <c r="B21" s="316"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="315" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="177"/>
@@ -21457,9 +21457,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="176"/>
-      <c r="B22" s="307"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="307"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="316"/>
       <c r="E22" s="177"/>
       <c r="F22" s="178"/>
       <c r="G22" s="179" t="s">
@@ -21478,9 +21478,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="176"/>
-      <c r="B23" s="307"/>
-      <c r="C23" s="301"/>
-      <c r="D23" s="307"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="316"/>
       <c r="E23" s="177"/>
       <c r="F23" s="178"/>
       <c r="G23" s="179" t="s">
@@ -21501,9 +21501,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="176"/>
-      <c r="B24" s="307"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="307"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="316"/>
       <c r="E24" s="177"/>
       <c r="F24" s="178"/>
       <c r="G24" s="179" t="s">
@@ -21524,9 +21524,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="176"/>
-      <c r="B25" s="307"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="307"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="316"/>
       <c r="E25" s="177"/>
       <c r="F25" s="178"/>
       <c r="G25" s="179" t="s">
@@ -21545,9 +21545,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="176"/>
-      <c r="B26" s="307"/>
-      <c r="C26" s="301"/>
-      <c r="D26" s="307"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="316"/>
       <c r="E26" s="177"/>
       <c r="F26" s="178"/>
       <c r="G26" s="179" t="s">
@@ -21568,9 +21568,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="176"/>
-      <c r="B27" s="307"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="307"/>
+      <c r="B27" s="316"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="316"/>
       <c r="E27" s="177"/>
       <c r="F27" s="178"/>
       <c r="G27" s="199" t="s">
@@ -21591,9 +21591,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="176"/>
-      <c r="B28" s="307"/>
-      <c r="C28" s="301"/>
-      <c r="D28" s="307"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="316"/>
       <c r="E28" s="177"/>
       <c r="F28" s="178"/>
       <c r="G28" s="197" t="s">
@@ -21614,9 +21614,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="201"/>
-      <c r="B29" s="307"/>
-      <c r="C29" s="301"/>
-      <c r="D29" s="307"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="316"/>
       <c r="E29" s="177"/>
       <c r="F29" s="178"/>
       <c r="G29" s="202" t="s">
@@ -21637,9 +21637,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="176"/>
-      <c r="B30" s="307"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="307"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="316"/>
       <c r="E30" s="177"/>
       <c r="F30" s="178"/>
       <c r="G30" s="197" t="s">
@@ -21660,9 +21660,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="176"/>
-      <c r="B31" s="307"/>
-      <c r="C31" s="301"/>
-      <c r="D31" s="307"/>
+      <c r="B31" s="316"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="316"/>
       <c r="E31" s="177"/>
       <c r="F31" s="178"/>
       <c r="G31" s="197" t="s">
@@ -21685,9 +21685,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="176"/>
-      <c r="B32" s="307"/>
-      <c r="C32" s="301"/>
-      <c r="D32" s="307"/>
+      <c r="B32" s="316"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="316"/>
       <c r="E32" s="177"/>
       <c r="F32" s="178"/>
       <c r="G32" s="197" t="s">
@@ -21708,9 +21708,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="176"/>
-      <c r="B33" s="307"/>
-      <c r="C33" s="301"/>
-      <c r="D33" s="307"/>
+      <c r="B33" s="316"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="316"/>
       <c r="E33" s="177"/>
       <c r="F33" s="178"/>
       <c r="G33" s="197" t="s">
@@ -21731,9 +21731,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="176"/>
-      <c r="B34" s="307"/>
-      <c r="C34" s="301"/>
-      <c r="D34" s="307"/>
+      <c r="B34" s="316"/>
+      <c r="C34" s="304"/>
+      <c r="D34" s="316"/>
       <c r="E34" s="177"/>
       <c r="F34" s="178"/>
       <c r="G34" s="197" t="s">
@@ -21754,9 +21754,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="176"/>
-      <c r="B35" s="307"/>
-      <c r="C35" s="301"/>
-      <c r="D35" s="307"/>
+      <c r="B35" s="316"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="316"/>
       <c r="E35" s="177"/>
       <c r="F35" s="178"/>
       <c r="G35" s="210" t="s">
@@ -21777,9 +21777,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="176"/>
-      <c r="B36" s="307"/>
-      <c r="C36" s="301"/>
-      <c r="D36" s="307"/>
+      <c r="B36" s="316"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="316"/>
       <c r="E36" s="177"/>
       <c r="F36" s="178"/>
       <c r="G36" s="212" t="s">
@@ -21800,9 +21800,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="176"/>
-      <c r="B37" s="307"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="307"/>
+      <c r="B37" s="316"/>
+      <c r="C37" s="304"/>
+      <c r="D37" s="316"/>
       <c r="E37" s="177"/>
       <c r="F37" s="178"/>
       <c r="G37" s="197" t="s">
@@ -21823,9 +21823,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="176"/>
-      <c r="B38" s="307"/>
-      <c r="C38" s="301"/>
-      <c r="D38" s="307"/>
+      <c r="B38" s="316"/>
+      <c r="C38" s="304"/>
+      <c r="D38" s="316"/>
       <c r="E38" s="177"/>
       <c r="F38" s="178"/>
       <c r="G38" s="197" t="s">
@@ -21846,9 +21846,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="176"/>
-      <c r="B39" s="307"/>
-      <c r="C39" s="301"/>
-      <c r="D39" s="307"/>
+      <c r="B39" s="316"/>
+      <c r="C39" s="304"/>
+      <c r="D39" s="316"/>
       <c r="E39" s="177"/>
       <c r="F39" s="178"/>
       <c r="G39" s="197" t="s">
@@ -21869,9 +21869,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="176"/>
-      <c r="B40" s="307"/>
-      <c r="C40" s="301"/>
-      <c r="D40" s="307"/>
+      <c r="B40" s="316"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="316"/>
       <c r="E40" s="177"/>
       <c r="F40" s="178"/>
       <c r="G40" s="202" t="s">
@@ -21892,9 +21892,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="176"/>
-      <c r="B41" s="307"/>
-      <c r="C41" s="301"/>
-      <c r="D41" s="307"/>
+      <c r="B41" s="316"/>
+      <c r="C41" s="304"/>
+      <c r="D41" s="316"/>
       <c r="E41" s="177"/>
       <c r="F41" s="178"/>
       <c r="G41" s="215" t="s">
@@ -21915,9 +21915,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="176"/>
-      <c r="B42" s="307"/>
-      <c r="C42" s="301"/>
-      <c r="D42" s="307"/>
+      <c r="B42" s="316"/>
+      <c r="C42" s="304"/>
+      <c r="D42" s="316"/>
       <c r="E42" s="177"/>
       <c r="F42" s="178"/>
       <c r="G42" s="212" t="s">
@@ -21938,9 +21938,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="176"/>
-      <c r="B43" s="307"/>
-      <c r="C43" s="301"/>
-      <c r="D43" s="307"/>
+      <c r="B43" s="316"/>
+      <c r="C43" s="304"/>
+      <c r="D43" s="316"/>
       <c r="E43" s="177"/>
       <c r="F43" s="178"/>
       <c r="G43" s="197" t="s">
@@ -21961,9 +21961,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="176"/>
-      <c r="B44" s="307"/>
-      <c r="C44" s="301"/>
-      <c r="D44" s="307"/>
+      <c r="B44" s="316"/>
+      <c r="C44" s="304"/>
+      <c r="D44" s="316"/>
       <c r="E44" s="177"/>
       <c r="F44" s="178"/>
       <c r="G44" s="197" t="s">
@@ -21984,9 +21984,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="176"/>
-      <c r="B45" s="307"/>
-      <c r="C45" s="301"/>
-      <c r="D45" s="307"/>
+      <c r="B45" s="316"/>
+      <c r="C45" s="304"/>
+      <c r="D45" s="316"/>
       <c r="E45" s="177"/>
       <c r="F45" s="178"/>
       <c r="G45" s="197" t="s">
@@ -22007,9 +22007,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="176"/>
-      <c r="B46" s="307"/>
-      <c r="C46" s="301"/>
-      <c r="D46" s="307"/>
+      <c r="B46" s="316"/>
+      <c r="C46" s="304"/>
+      <c r="D46" s="316"/>
       <c r="E46" s="177"/>
       <c r="F46" s="178"/>
       <c r="G46" s="197" t="s">
@@ -22032,9 +22032,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="176"/>
-      <c r="B47" s="307"/>
-      <c r="C47" s="301"/>
-      <c r="D47" s="307"/>
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="177"/>
       <c r="F47" s="178"/>
       <c r="G47" s="219" t="s">
@@ -22055,9 +22055,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="176"/>
-      <c r="B48" s="307"/>
-      <c r="C48" s="301"/>
-      <c r="D48" s="307"/>
+      <c r="B48" s="316"/>
+      <c r="C48" s="304"/>
+      <c r="D48" s="316"/>
       <c r="E48" s="177"/>
       <c r="F48" s="178"/>
       <c r="G48" s="219" t="s">
@@ -22074,9 +22074,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="176"/>
-      <c r="B49" s="307"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="307"/>
+      <c r="B49" s="316"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="316"/>
       <c r="E49" s="177"/>
       <c r="F49" s="178"/>
       <c r="G49" s="210" t="s">
@@ -22097,9 +22097,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="176"/>
-      <c r="B50" s="307"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="307"/>
+      <c r="B50" s="316"/>
+      <c r="C50" s="304"/>
+      <c r="D50" s="316"/>
       <c r="E50" s="177"/>
       <c r="F50" s="178"/>
       <c r="G50" s="212" t="s">
@@ -22120,9 +22120,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="176"/>
-      <c r="B51" s="307"/>
-      <c r="C51" s="301"/>
-      <c r="D51" s="307"/>
+      <c r="B51" s="316"/>
+      <c r="C51" s="304"/>
+      <c r="D51" s="316"/>
       <c r="E51" s="177"/>
       <c r="F51" s="178"/>
       <c r="G51" s="197" t="s">
@@ -22143,9 +22143,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="176"/>
-      <c r="B52" s="307"/>
-      <c r="C52" s="301"/>
-      <c r="D52" s="307"/>
+      <c r="B52" s="316"/>
+      <c r="C52" s="304"/>
+      <c r="D52" s="316"/>
       <c r="E52" s="177"/>
       <c r="F52" s="178"/>
       <c r="G52" s="197" t="s">
@@ -22166,9 +22166,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="176"/>
-      <c r="B53" s="307"/>
-      <c r="C53" s="301"/>
-      <c r="D53" s="307"/>
+      <c r="B53" s="316"/>
+      <c r="C53" s="304"/>
+      <c r="D53" s="316"/>
       <c r="E53" s="177"/>
       <c r="F53" s="178"/>
       <c r="G53" s="197" t="s">
@@ -22189,9 +22189,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="176"/>
-      <c r="B54" s="307"/>
-      <c r="C54" s="301"/>
-      <c r="D54" s="307"/>
+      <c r="B54" s="316"/>
+      <c r="C54" s="304"/>
+      <c r="D54" s="316"/>
       <c r="E54" s="177"/>
       <c r="F54" s="178"/>
       <c r="G54" s="197" t="s">
@@ -22207,14 +22207,14 @@
         <v>2843</v>
       </c>
       <c r="K54" s="224"/>
-      <c r="L54" s="316"/>
+      <c r="L54" s="309"/>
       <c r="M54" s="183"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="176"/>
-      <c r="B55" s="307"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="307"/>
+      <c r="B55" s="316"/>
+      <c r="C55" s="304"/>
+      <c r="D55" s="316"/>
       <c r="E55" s="177"/>
       <c r="F55" s="178"/>
       <c r="G55" s="219" t="s">
@@ -22226,14 +22226,14 @@
       <c r="I55" s="203"/>
       <c r="J55" s="225"/>
       <c r="K55" s="225"/>
-      <c r="L55" s="317"/>
+      <c r="L55" s="310"/>
       <c r="M55" s="183"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="176"/>
-      <c r="B56" s="307"/>
-      <c r="C56" s="301"/>
-      <c r="D56" s="307"/>
+      <c r="B56" s="316"/>
+      <c r="C56" s="304"/>
+      <c r="D56" s="316"/>
       <c r="E56" s="177"/>
       <c r="F56" s="178"/>
       <c r="G56" s="197" t="s">
@@ -22256,9 +22256,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="176"/>
-      <c r="B57" s="307"/>
-      <c r="C57" s="301"/>
-      <c r="D57" s="307"/>
+      <c r="B57" s="316"/>
+      <c r="C57" s="304"/>
+      <c r="D57" s="316"/>
       <c r="E57" s="177"/>
       <c r="F57" s="178"/>
       <c r="G57" s="219" t="s">
@@ -22277,9 +22277,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="176"/>
-      <c r="B58" s="307"/>
-      <c r="C58" s="301"/>
-      <c r="D58" s="307"/>
+      <c r="B58" s="316"/>
+      <c r="C58" s="304"/>
+      <c r="D58" s="316"/>
       <c r="E58" s="177"/>
       <c r="F58" s="178"/>
       <c r="G58" s="197" t="s">
@@ -22300,9 +22300,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="176"/>
-      <c r="B59" s="307"/>
-      <c r="C59" s="301"/>
-      <c r="D59" s="307"/>
+      <c r="B59" s="316"/>
+      <c r="C59" s="304"/>
+      <c r="D59" s="316"/>
       <c r="E59" s="177"/>
       <c r="F59" s="178"/>
       <c r="G59" s="197" t="s">
@@ -22323,9 +22323,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="176"/>
-      <c r="B60" s="307"/>
-      <c r="C60" s="301"/>
-      <c r="D60" s="307"/>
+      <c r="B60" s="316"/>
+      <c r="C60" s="304"/>
+      <c r="D60" s="316"/>
       <c r="E60" s="177"/>
       <c r="F60" s="178"/>
       <c r="G60" s="215" t="s">
@@ -22344,9 +22344,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="176"/>
-      <c r="B61" s="307"/>
-      <c r="C61" s="301"/>
-      <c r="D61" s="307"/>
+      <c r="B61" s="316"/>
+      <c r="C61" s="304"/>
+      <c r="D61" s="316"/>
       <c r="E61" s="177"/>
       <c r="F61" s="178"/>
       <c r="G61" s="212" t="s">
@@ -22367,9 +22367,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="176"/>
-      <c r="B62" s="307"/>
-      <c r="C62" s="301"/>
-      <c r="D62" s="307"/>
+      <c r="B62" s="316"/>
+      <c r="C62" s="304"/>
+      <c r="D62" s="316"/>
       <c r="E62" s="177"/>
       <c r="F62" s="178"/>
       <c r="G62" s="197" t="s">
@@ -22388,9 +22388,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="176"/>
-      <c r="B63" s="307"/>
-      <c r="C63" s="301"/>
-      <c r="D63" s="307"/>
+      <c r="B63" s="316"/>
+      <c r="C63" s="304"/>
+      <c r="D63" s="316"/>
       <c r="E63" s="177"/>
       <c r="F63" s="178"/>
       <c r="G63" s="197" t="s">
@@ -22409,9 +22409,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="176"/>
-      <c r="B64" s="307"/>
-      <c r="C64" s="301"/>
-      <c r="D64" s="307"/>
+      <c r="B64" s="316"/>
+      <c r="C64" s="304"/>
+      <c r="D64" s="316"/>
       <c r="E64" s="177"/>
       <c r="F64" s="178"/>
       <c r="G64" s="210" t="s">
@@ -22430,9 +22430,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="176"/>
-      <c r="B65" s="307"/>
-      <c r="C65" s="301"/>
-      <c r="D65" s="307"/>
+      <c r="B65" s="316"/>
+      <c r="C65" s="304"/>
+      <c r="D65" s="316"/>
       <c r="E65" s="177"/>
       <c r="F65" s="178"/>
       <c r="G65" s="212" t="s">
@@ -22451,9 +22451,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="176"/>
-      <c r="B66" s="308"/>
-      <c r="C66" s="302"/>
-      <c r="D66" s="308"/>
+      <c r="B66" s="317"/>
+      <c r="C66" s="305"/>
+      <c r="D66" s="317"/>
       <c r="E66" s="177"/>
       <c r="F66" s="178"/>
       <c r="G66" s="230" t="s">
@@ -22472,10 +22472,10 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="176"/>
-      <c r="B67" s="306" t="s">
+      <c r="B67" s="315" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="300" t="s">
+      <c r="C67" s="303" t="s">
         <v>1373</v>
       </c>
       <c r="D67" s="294" t="s">
@@ -22501,8 +22501,8 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="176"/>
-      <c r="B68" s="307"/>
-      <c r="C68" s="301"/>
+      <c r="B68" s="316"/>
+      <c r="C68" s="304"/>
       <c r="D68" s="295"/>
       <c r="E68" s="177"/>
       <c r="F68" s="178"/>
@@ -22522,8 +22522,8 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="176"/>
-      <c r="B69" s="307"/>
-      <c r="C69" s="301"/>
+      <c r="B69" s="316"/>
+      <c r="C69" s="304"/>
       <c r="D69" s="296"/>
       <c r="E69" s="177"/>
       <c r="F69" s="178"/>
@@ -22547,8 +22547,8 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="176"/>
-      <c r="B70" s="307"/>
-      <c r="C70" s="300" t="s">
+      <c r="B70" s="316"/>
+      <c r="C70" s="303" t="s">
         <v>1376</v>
       </c>
       <c r="D70" s="294" t="s">
@@ -22574,8 +22574,8 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="176"/>
-      <c r="B71" s="307"/>
-      <c r="C71" s="301"/>
+      <c r="B71" s="316"/>
+      <c r="C71" s="304"/>
       <c r="D71" s="295"/>
       <c r="E71" s="177"/>
       <c r="F71" s="178"/>
@@ -22597,8 +22597,8 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="176"/>
-      <c r="B72" s="307"/>
-      <c r="C72" s="301"/>
+      <c r="B72" s="316"/>
+      <c r="C72" s="304"/>
       <c r="D72" s="295"/>
       <c r="E72" s="177"/>
       <c r="F72" s="178"/>
@@ -22620,8 +22620,8 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="176"/>
-      <c r="B73" s="307"/>
-      <c r="C73" s="301"/>
+      <c r="B73" s="316"/>
+      <c r="C73" s="304"/>
       <c r="D73" s="296"/>
       <c r="E73" s="177"/>
       <c r="F73" s="178"/>
@@ -22643,8 +22643,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="176"/>
-      <c r="B74" s="307"/>
-      <c r="C74" s="301"/>
+      <c r="B74" s="316"/>
+      <c r="C74" s="304"/>
       <c r="D74" s="233" t="s">
         <v>5</v>
       </c>
@@ -22671,7 +22671,7 @@
       <c r="B75" s="294" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="300" t="s">
+      <c r="C75" s="303" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="194" t="s">
@@ -22696,7 +22696,7 @@
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="234"/>
       <c r="B76" s="295"/>
-      <c r="C76" s="301"/>
+      <c r="C76" s="304"/>
       <c r="D76" s="195" t="s">
         <v>1577</v>
       </c>
@@ -22719,7 +22719,7 @@
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="234"/>
       <c r="B77" s="295"/>
-      <c r="C77" s="301"/>
+      <c r="C77" s="304"/>
       <c r="D77" s="195" t="s">
         <v>1579</v>
       </c>
@@ -22744,7 +22744,7 @@
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="234"/>
       <c r="B78" s="295"/>
-      <c r="C78" s="301"/>
+      <c r="C78" s="304"/>
       <c r="D78" s="294" t="s">
         <v>1590</v>
       </c>
@@ -22765,7 +22765,7 @@
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="234"/>
       <c r="B79" s="295"/>
-      <c r="C79" s="301"/>
+      <c r="C79" s="304"/>
       <c r="D79" s="295"/>
       <c r="E79" s="177"/>
       <c r="F79" s="178"/>
@@ -22790,7 +22790,7 @@
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="234"/>
       <c r="B80" s="295"/>
-      <c r="C80" s="301"/>
+      <c r="C80" s="304"/>
       <c r="D80" s="296"/>
       <c r="E80" s="177"/>
       <c r="F80" s="178"/>
@@ -22813,7 +22813,7 @@
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="234"/>
       <c r="B81" s="295"/>
-      <c r="C81" s="301"/>
+      <c r="C81" s="304"/>
       <c r="D81" s="294" t="s">
         <v>1387</v>
       </c>
@@ -22840,7 +22840,7 @@
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="234"/>
       <c r="B82" s="295"/>
-      <c r="C82" s="301"/>
+      <c r="C82" s="304"/>
       <c r="D82" s="295"/>
       <c r="E82" s="177"/>
       <c r="F82" s="178"/>
@@ -22863,7 +22863,7 @@
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="234"/>
       <c r="B83" s="295"/>
-      <c r="C83" s="301"/>
+      <c r="C83" s="304"/>
       <c r="D83" s="295"/>
       <c r="E83" s="177"/>
       <c r="F83" s="178"/>
@@ -22886,7 +22886,7 @@
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="234"/>
       <c r="B84" s="295"/>
-      <c r="C84" s="301"/>
+      <c r="C84" s="304"/>
       <c r="D84" s="295"/>
       <c r="E84" s="177"/>
       <c r="F84" s="178"/>
@@ -22909,7 +22909,7 @@
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="234"/>
       <c r="B85" s="295"/>
-      <c r="C85" s="301"/>
+      <c r="C85" s="304"/>
       <c r="D85" s="296"/>
       <c r="E85" s="177"/>
       <c r="F85" s="178"/>
@@ -22932,7 +22932,7 @@
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="234"/>
       <c r="B86" s="295"/>
-      <c r="C86" s="301"/>
+      <c r="C86" s="304"/>
       <c r="D86" s="294" t="s">
         <v>1394</v>
       </c>
@@ -22959,7 +22959,7 @@
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="234"/>
       <c r="B87" s="295"/>
-      <c r="C87" s="301"/>
+      <c r="C87" s="304"/>
       <c r="D87" s="296"/>
       <c r="E87" s="177"/>
       <c r="F87" s="178"/>
@@ -22982,7 +22982,7 @@
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="234"/>
       <c r="B88" s="295"/>
-      <c r="C88" s="301"/>
+      <c r="C88" s="304"/>
       <c r="D88" s="194" t="s">
         <v>1</v>
       </c>
@@ -23009,7 +23009,7 @@
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="234"/>
       <c r="B89" s="295"/>
-      <c r="C89" s="301"/>
+      <c r="C89" s="304"/>
       <c r="D89" s="294" t="s">
         <v>1398</v>
       </c>
@@ -23034,7 +23034,7 @@
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="234"/>
       <c r="B90" s="295"/>
-      <c r="C90" s="301"/>
+      <c r="C90" s="304"/>
       <c r="D90" s="295"/>
       <c r="E90" s="177"/>
       <c r="F90" s="178"/>
@@ -23057,7 +23057,7 @@
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="234"/>
       <c r="B91" s="295"/>
-      <c r="C91" s="301"/>
+      <c r="C91" s="304"/>
       <c r="D91" s="295"/>
       <c r="E91" s="177"/>
       <c r="F91" s="178"/>
@@ -23080,7 +23080,7 @@
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="234"/>
       <c r="B92" s="295"/>
-      <c r="C92" s="301"/>
+      <c r="C92" s="304"/>
       <c r="D92" s="295"/>
       <c r="E92" s="177"/>
       <c r="F92" s="178"/>
@@ -23103,7 +23103,7 @@
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="234"/>
       <c r="B93" s="295"/>
-      <c r="C93" s="301"/>
+      <c r="C93" s="304"/>
       <c r="D93" s="296"/>
       <c r="E93" s="177"/>
       <c r="F93" s="178"/>
@@ -23126,7 +23126,7 @@
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="234"/>
       <c r="B94" s="295"/>
-      <c r="C94" s="301"/>
+      <c r="C94" s="304"/>
       <c r="D94" s="294" t="s">
         <v>2</v>
       </c>
@@ -23151,7 +23151,7 @@
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="234"/>
       <c r="B95" s="295"/>
-      <c r="C95" s="301"/>
+      <c r="C95" s="304"/>
       <c r="D95" s="295"/>
       <c r="E95" s="177"/>
       <c r="F95" s="178"/>
@@ -23176,7 +23176,7 @@
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="234"/>
       <c r="B96" s="295"/>
-      <c r="C96" s="301"/>
+      <c r="C96" s="304"/>
       <c r="D96" s="296"/>
       <c r="E96" s="177"/>
       <c r="F96" s="178"/>
@@ -23197,7 +23197,7 @@
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="234"/>
       <c r="B97" s="295"/>
-      <c r="C97" s="301"/>
+      <c r="C97" s="304"/>
       <c r="D97" s="294" t="s">
         <v>1406</v>
       </c>
@@ -23222,7 +23222,7 @@
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="234"/>
       <c r="B98" s="295"/>
-      <c r="C98" s="301"/>
+      <c r="C98" s="304"/>
       <c r="D98" s="296"/>
       <c r="E98" s="177"/>
       <c r="F98" s="178"/>
@@ -23243,8 +23243,8 @@
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="274"/>
       <c r="B99" s="295"/>
-      <c r="C99" s="301"/>
-      <c r="D99" s="291" t="s">
+      <c r="C99" s="304"/>
+      <c r="D99" s="314" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="185"/>
@@ -23266,8 +23266,8 @@
     <row r="100" spans="1:13" s="280" customFormat="1" ht="33">
       <c r="A100" s="275"/>
       <c r="B100" s="295"/>
-      <c r="C100" s="302"/>
-      <c r="D100" s="291"/>
+      <c r="C100" s="305"/>
+      <c r="D100" s="314"/>
       <c r="E100" s="272"/>
       <c r="F100" s="276"/>
       <c r="G100" s="197" t="s">
@@ -23291,7 +23291,7 @@
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="234"/>
       <c r="B101" s="295"/>
-      <c r="C101" s="300" t="s">
+      <c r="C101" s="303" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="295" t="s">
@@ -23316,7 +23316,7 @@
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="234"/>
       <c r="B102" s="295"/>
-      <c r="C102" s="301"/>
+      <c r="C102" s="304"/>
       <c r="D102" s="296"/>
       <c r="E102" s="177"/>
       <c r="F102" s="178"/>
@@ -23337,7 +23337,7 @@
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="234"/>
       <c r="B103" s="295"/>
-      <c r="C103" s="301"/>
+      <c r="C103" s="304"/>
       <c r="D103" s="194" t="s">
         <v>1412</v>
       </c>
@@ -23360,7 +23360,7 @@
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="234"/>
       <c r="B104" s="295"/>
-      <c r="C104" s="301"/>
+      <c r="C104" s="304"/>
       <c r="D104" s="294" t="s">
         <v>1600</v>
       </c>
@@ -23387,7 +23387,7 @@
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="234"/>
       <c r="B105" s="295"/>
-      <c r="C105" s="301"/>
+      <c r="C105" s="304"/>
       <c r="D105" s="295"/>
       <c r="E105" s="177"/>
       <c r="F105" s="178"/>
@@ -23408,7 +23408,7 @@
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="234"/>
       <c r="B106" s="295"/>
-      <c r="C106" s="301"/>
+      <c r="C106" s="304"/>
       <c r="D106" s="295"/>
       <c r="E106" s="177"/>
       <c r="F106" s="178"/>
@@ -23429,7 +23429,7 @@
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="234"/>
       <c r="B107" s="295"/>
-      <c r="C107" s="301"/>
+      <c r="C107" s="304"/>
       <c r="D107" s="296"/>
       <c r="E107" s="177"/>
       <c r="F107" s="178"/>
@@ -23450,7 +23450,7 @@
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="234"/>
       <c r="B108" s="295"/>
-      <c r="C108" s="301"/>
+      <c r="C108" s="304"/>
       <c r="D108" s="194" t="s">
         <v>1385</v>
       </c>
@@ -23473,7 +23473,7 @@
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="234"/>
       <c r="B109" s="295"/>
-      <c r="C109" s="301"/>
+      <c r="C109" s="304"/>
       <c r="D109" s="294" t="s">
         <v>1413</v>
       </c>
@@ -23498,7 +23498,7 @@
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="234"/>
       <c r="B110" s="295"/>
-      <c r="C110" s="301"/>
+      <c r="C110" s="304"/>
       <c r="D110" s="296"/>
       <c r="E110" s="177"/>
       <c r="F110" s="178"/>
@@ -23521,8 +23521,8 @@
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="234"/>
       <c r="B111" s="295"/>
-      <c r="C111" s="301"/>
-      <c r="D111" s="318" t="s">
+      <c r="C111" s="304"/>
+      <c r="D111" s="311" t="s">
         <v>1418</v>
       </c>
       <c r="E111" s="177"/>
@@ -23544,8 +23544,8 @@
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="234"/>
       <c r="B112" s="295"/>
-      <c r="C112" s="301"/>
-      <c r="D112" s="319"/>
+      <c r="C112" s="304"/>
+      <c r="D112" s="312"/>
       <c r="E112" s="177"/>
       <c r="F112" s="178"/>
       <c r="G112" s="179" t="s">
@@ -23565,8 +23565,8 @@
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="234"/>
       <c r="B113" s="295"/>
-      <c r="C113" s="301"/>
-      <c r="D113" s="320"/>
+      <c r="C113" s="304"/>
+      <c r="D113" s="313"/>
       <c r="E113" s="177"/>
       <c r="F113" s="178"/>
       <c r="G113" s="179" t="s">
@@ -23586,7 +23586,7 @@
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="234"/>
       <c r="B114" s="295"/>
-      <c r="C114" s="301"/>
+      <c r="C114" s="304"/>
       <c r="D114" s="194" t="s">
         <v>9</v>
       </c>
@@ -23609,7 +23609,7 @@
     <row r="115" spans="1:13" ht="33">
       <c r="A115" s="234"/>
       <c r="B115" s="295"/>
-      <c r="C115" s="301"/>
+      <c r="C115" s="304"/>
       <c r="D115" s="294" t="s">
         <v>1421</v>
       </c>
@@ -23634,7 +23634,7 @@
     <row r="116" spans="1:13" ht="14.25" customHeight="1">
       <c r="A116" s="234"/>
       <c r="B116" s="295"/>
-      <c r="C116" s="301"/>
+      <c r="C116" s="304"/>
       <c r="D116" s="295"/>
       <c r="E116" s="177"/>
       <c r="F116" s="178"/>
@@ -23655,7 +23655,7 @@
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="234"/>
       <c r="B117" s="295"/>
-      <c r="C117" s="302"/>
+      <c r="C117" s="305"/>
       <c r="D117" s="296"/>
       <c r="E117" s="177"/>
       <c r="F117" s="178"/>
@@ -23678,7 +23678,7 @@
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="234"/>
       <c r="B118" s="295"/>
-      <c r="C118" s="300" t="s">
+      <c r="C118" s="303" t="s">
         <v>1427</v>
       </c>
       <c r="D118" s="294" t="s">
@@ -23703,7 +23703,7 @@
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="234"/>
       <c r="B119" s="295"/>
-      <c r="C119" s="301"/>
+      <c r="C119" s="304"/>
       <c r="D119" s="296"/>
       <c r="E119" s="177"/>
       <c r="F119" s="178"/>
@@ -23726,7 +23726,7 @@
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="183"/>
       <c r="B120" s="295"/>
-      <c r="C120" s="301"/>
+      <c r="C120" s="304"/>
       <c r="D120" s="194" t="s">
         <v>1431</v>
       </c>
@@ -23751,7 +23751,7 @@
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="183"/>
       <c r="B121" s="295"/>
-      <c r="C121" s="301"/>
+      <c r="C121" s="304"/>
       <c r="D121" s="194" t="s">
         <v>1434</v>
       </c>
@@ -23774,7 +23774,7 @@
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="183"/>
       <c r="B122" s="295"/>
-      <c r="C122" s="301"/>
+      <c r="C122" s="304"/>
       <c r="D122" s="244" t="s">
         <v>1436</v>
       </c>
@@ -23799,7 +23799,7 @@
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="183"/>
       <c r="B123" s="295"/>
-      <c r="C123" s="301"/>
+      <c r="C123" s="304"/>
       <c r="D123" s="294" t="s">
         <v>171</v>
       </c>
@@ -23822,7 +23822,7 @@
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="183"/>
       <c r="B124" s="295"/>
-      <c r="C124" s="301"/>
+      <c r="C124" s="304"/>
       <c r="D124" s="295"/>
       <c r="E124" s="177"/>
       <c r="F124" s="178"/>
@@ -23845,7 +23845,7 @@
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="183"/>
       <c r="B125" s="295"/>
-      <c r="C125" s="301"/>
+      <c r="C125" s="304"/>
       <c r="D125" s="295"/>
       <c r="E125" s="177"/>
       <c r="F125" s="178"/>
@@ -23866,7 +23866,7 @@
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="183"/>
       <c r="B126" s="295"/>
-      <c r="C126" s="301"/>
+      <c r="C126" s="304"/>
       <c r="D126" s="296"/>
       <c r="E126" s="177"/>
       <c r="F126" s="178"/>
@@ -23889,8 +23889,8 @@
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="183"/>
       <c r="B127" s="295"/>
-      <c r="C127" s="301"/>
-      <c r="D127" s="303" t="s">
+      <c r="C127" s="304"/>
+      <c r="D127" s="319" t="s">
         <v>1438</v>
       </c>
       <c r="E127" s="177"/>
@@ -23912,8 +23912,8 @@
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="183"/>
       <c r="B128" s="295"/>
-      <c r="C128" s="301"/>
-      <c r="D128" s="304"/>
+      <c r="C128" s="304"/>
+      <c r="D128" s="322"/>
       <c r="E128" s="177"/>
       <c r="F128" s="178"/>
       <c r="G128" s="179" t="s">
@@ -23937,7 +23937,7 @@
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="183"/>
       <c r="B129" s="295"/>
-      <c r="C129" s="301"/>
+      <c r="C129" s="304"/>
       <c r="D129" s="294" t="s">
         <v>1441</v>
       </c>
@@ -23960,7 +23960,7 @@
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="183"/>
       <c r="B130" s="295"/>
-      <c r="C130" s="301"/>
+      <c r="C130" s="304"/>
       <c r="D130" s="295"/>
       <c r="E130" s="177"/>
       <c r="F130" s="178"/>
@@ -23981,7 +23981,7 @@
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="183"/>
       <c r="B131" s="295"/>
-      <c r="C131" s="301"/>
+      <c r="C131" s="304"/>
       <c r="D131" s="296"/>
       <c r="E131" s="177"/>
       <c r="F131" s="178"/>
@@ -24000,8 +24000,8 @@
     <row r="132" spans="1:13" ht="51.75" customHeight="1">
       <c r="A132" s="183"/>
       <c r="B132" s="295"/>
-      <c r="C132" s="301"/>
-      <c r="D132" s="310" t="s">
+      <c r="C132" s="304"/>
+      <c r="D132" s="321" t="s">
         <v>166</v>
       </c>
       <c r="E132" s="177"/>
@@ -24021,8 +24021,8 @@
     <row r="133" spans="1:13" ht="14.25" customHeight="1">
       <c r="A133" s="183"/>
       <c r="B133" s="295"/>
-      <c r="C133" s="301"/>
-      <c r="D133" s="310"/>
+      <c r="C133" s="304"/>
+      <c r="D133" s="321"/>
       <c r="E133" s="177"/>
       <c r="F133" s="178"/>
       <c r="G133" s="179" t="s">
@@ -24040,7 +24040,7 @@
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="183"/>
       <c r="B134" s="295"/>
-      <c r="C134" s="301"/>
+      <c r="C134" s="304"/>
       <c r="D134" s="193" t="s">
         <v>170</v>
       </c>
@@ -24063,7 +24063,7 @@
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="183"/>
       <c r="B135" s="295"/>
-      <c r="C135" s="301"/>
+      <c r="C135" s="304"/>
       <c r="D135" s="294" t="s">
         <v>13</v>
       </c>
@@ -24086,7 +24086,7 @@
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="183"/>
       <c r="B136" s="295"/>
-      <c r="C136" s="301"/>
+      <c r="C136" s="304"/>
       <c r="D136" s="295"/>
       <c r="E136" s="177"/>
       <c r="F136" s="178"/>
@@ -24107,7 +24107,7 @@
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="183"/>
       <c r="B137" s="295"/>
-      <c r="C137" s="301"/>
+      <c r="C137" s="304"/>
       <c r="D137" s="295"/>
       <c r="E137" s="177"/>
       <c r="F137" s="178"/>
@@ -24128,7 +24128,7 @@
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="183"/>
       <c r="B138" s="295"/>
-      <c r="C138" s="301"/>
+      <c r="C138" s="304"/>
       <c r="D138" s="295"/>
       <c r="E138" s="177"/>
       <c r="F138" s="178"/>
@@ -24149,7 +24149,7 @@
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="183"/>
       <c r="B139" s="295"/>
-      <c r="C139" s="301"/>
+      <c r="C139" s="304"/>
       <c r="D139" s="295"/>
       <c r="E139" s="177"/>
       <c r="F139" s="178"/>
@@ -24170,7 +24170,7 @@
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="183"/>
       <c r="B140" s="295"/>
-      <c r="C140" s="301"/>
+      <c r="C140" s="304"/>
       <c r="D140" s="295"/>
       <c r="E140" s="177"/>
       <c r="F140" s="178"/>
@@ -24191,7 +24191,7 @@
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="183"/>
       <c r="B141" s="295"/>
-      <c r="C141" s="301"/>
+      <c r="C141" s="304"/>
       <c r="D141" s="295"/>
       <c r="E141" s="177"/>
       <c r="F141" s="178"/>
@@ -24212,7 +24212,7 @@
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="183"/>
       <c r="B142" s="295"/>
-      <c r="C142" s="302"/>
+      <c r="C142" s="305"/>
       <c r="D142" s="296"/>
       <c r="E142" s="177"/>
       <c r="F142" s="178"/>
@@ -24233,7 +24233,7 @@
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="183"/>
       <c r="B143" s="295"/>
-      <c r="C143" s="300" t="s">
+      <c r="C143" s="303" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="294" t="s">
@@ -24258,7 +24258,7 @@
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="183"/>
       <c r="B144" s="295"/>
-      <c r="C144" s="301"/>
+      <c r="C144" s="304"/>
       <c r="D144" s="295"/>
       <c r="E144" s="177"/>
       <c r="F144" s="178"/>
@@ -24279,7 +24279,7 @@
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="183"/>
       <c r="B145" s="295"/>
-      <c r="C145" s="301"/>
+      <c r="C145" s="304"/>
       <c r="D145" s="296"/>
       <c r="E145" s="177"/>
       <c r="F145" s="178"/>
@@ -24300,7 +24300,7 @@
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="183"/>
       <c r="B146" s="295"/>
-      <c r="C146" s="301"/>
+      <c r="C146" s="304"/>
       <c r="D146" s="294" t="s">
         <v>21</v>
       </c>
@@ -24323,7 +24323,7 @@
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="183"/>
       <c r="B147" s="295"/>
-      <c r="C147" s="301"/>
+      <c r="C147" s="304"/>
       <c r="D147" s="296"/>
       <c r="E147" s="177"/>
       <c r="F147" s="178"/>
@@ -24344,7 +24344,7 @@
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="183"/>
       <c r="B148" s="295"/>
-      <c r="C148" s="302"/>
+      <c r="C148" s="305"/>
       <c r="D148" s="194" t="s">
         <v>27</v>
       </c>
@@ -24367,7 +24367,7 @@
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="183"/>
       <c r="B149" s="295"/>
-      <c r="C149" s="300" t="s">
+      <c r="C149" s="303" t="s">
         <v>29</v>
       </c>
       <c r="D149" s="294" t="s">
@@ -24392,7 +24392,7 @@
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="183"/>
       <c r="B150" s="295"/>
-      <c r="C150" s="301"/>
+      <c r="C150" s="304"/>
       <c r="D150" s="295"/>
       <c r="E150" s="177"/>
       <c r="F150" s="178"/>
@@ -24413,7 +24413,7 @@
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="183"/>
       <c r="B151" s="295"/>
-      <c r="C151" s="301"/>
+      <c r="C151" s="304"/>
       <c r="D151" s="295"/>
       <c r="E151" s="177"/>
       <c r="F151" s="178"/>
@@ -24434,7 +24434,7 @@
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="183"/>
       <c r="B152" s="295"/>
-      <c r="C152" s="301"/>
+      <c r="C152" s="304"/>
       <c r="D152" s="296"/>
       <c r="E152" s="177"/>
       <c r="F152" s="178"/>
@@ -24453,8 +24453,8 @@
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="183"/>
       <c r="B153" s="295"/>
-      <c r="C153" s="301"/>
-      <c r="D153" s="303" t="s">
+      <c r="C153" s="304"/>
+      <c r="D153" s="319" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="246"/>
@@ -24478,8 +24478,8 @@
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="183"/>
       <c r="B154" s="295"/>
-      <c r="C154" s="301"/>
-      <c r="D154" s="304"/>
+      <c r="C154" s="304"/>
+      <c r="D154" s="322"/>
       <c r="E154" s="246"/>
       <c r="F154" s="247"/>
       <c r="G154" s="179" t="s">
@@ -24499,7 +24499,7 @@
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="183"/>
       <c r="B155" s="295"/>
-      <c r="C155" s="301"/>
+      <c r="C155" s="304"/>
       <c r="D155" s="194" t="s">
         <v>38</v>
       </c>
@@ -24522,7 +24522,7 @@
     <row r="156" spans="1:13" ht="33">
       <c r="A156" s="183"/>
       <c r="B156" s="295"/>
-      <c r="C156" s="301"/>
+      <c r="C156" s="304"/>
       <c r="D156" s="194" t="s">
         <v>40</v>
       </c>
@@ -24545,7 +24545,7 @@
     <row r="157" spans="1:13" ht="14.25" customHeight="1">
       <c r="A157" s="183"/>
       <c r="B157" s="295"/>
-      <c r="C157" s="301"/>
+      <c r="C157" s="304"/>
       <c r="D157" s="294" t="s">
         <v>42</v>
       </c>
@@ -24570,7 +24570,7 @@
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="183"/>
       <c r="B158" s="295"/>
-      <c r="C158" s="301"/>
+      <c r="C158" s="304"/>
       <c r="D158" s="295"/>
       <c r="E158" s="177"/>
       <c r="F158" s="178"/>
@@ -24591,7 +24591,7 @@
     <row r="159" spans="1:13" ht="33">
       <c r="A159" s="183"/>
       <c r="B159" s="295"/>
-      <c r="C159" s="301"/>
+      <c r="C159" s="304"/>
       <c r="D159" s="295"/>
       <c r="E159" s="177"/>
       <c r="F159" s="178"/>
@@ -24612,7 +24612,7 @@
     <row r="160" spans="1:13" ht="14.25" customHeight="1">
       <c r="A160" s="183"/>
       <c r="B160" s="295"/>
-      <c r="C160" s="301"/>
+      <c r="C160" s="304"/>
       <c r="D160" s="295"/>
       <c r="E160" s="177"/>
       <c r="F160" s="178"/>
@@ -24633,7 +24633,7 @@
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="183"/>
       <c r="B161" s="295"/>
-      <c r="C161" s="301"/>
+      <c r="C161" s="304"/>
       <c r="D161" s="295"/>
       <c r="E161" s="177"/>
       <c r="F161" s="178"/>
@@ -24654,7 +24654,7 @@
     <row r="162" spans="1:13" ht="46.5" customHeight="1">
       <c r="A162" s="183"/>
       <c r="B162" s="295"/>
-      <c r="C162" s="301"/>
+      <c r="C162" s="304"/>
       <c r="D162" s="295"/>
       <c r="E162" s="177"/>
       <c r="F162" s="178"/>
@@ -24675,7 +24675,7 @@
     <row r="163" spans="1:13" ht="26.25" customHeight="1">
       <c r="A163" s="183"/>
       <c r="B163" s="295"/>
-      <c r="C163" s="301"/>
+      <c r="C163" s="304"/>
       <c r="D163" s="295"/>
       <c r="E163" s="177"/>
       <c r="F163" s="178"/>
@@ -24696,7 +24696,7 @@
     <row r="164" spans="1:13" ht="14.25" customHeight="1">
       <c r="A164" s="183"/>
       <c r="B164" s="295"/>
-      <c r="C164" s="301"/>
+      <c r="C164" s="304"/>
       <c r="D164" s="295"/>
       <c r="E164" s="177"/>
       <c r="F164" s="178"/>
@@ -24717,7 +24717,7 @@
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="183"/>
       <c r="B165" s="295"/>
-      <c r="C165" s="301"/>
+      <c r="C165" s="304"/>
       <c r="D165" s="295"/>
       <c r="E165" s="177"/>
       <c r="F165" s="178"/>
@@ -24738,7 +24738,7 @@
     <row r="166" spans="1:13" ht="33">
       <c r="A166" s="183"/>
       <c r="B166" s="295"/>
-      <c r="C166" s="302"/>
+      <c r="C166" s="305"/>
       <c r="D166" s="296"/>
       <c r="E166" s="177"/>
       <c r="F166" s="178"/>
@@ -24759,7 +24759,7 @@
     <row r="167" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A167" s="183"/>
       <c r="B167" s="295"/>
-      <c r="C167" s="300" t="s">
+      <c r="C167" s="303" t="s">
         <v>53</v>
       </c>
       <c r="D167" s="294" t="s">
@@ -24780,7 +24780,7 @@
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="183"/>
       <c r="B168" s="295"/>
-      <c r="C168" s="301"/>
+      <c r="C168" s="304"/>
       <c r="D168" s="295"/>
       <c r="E168" s="177"/>
       <c r="F168" s="178"/>
@@ -24797,7 +24797,7 @@
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="183"/>
       <c r="B169" s="295"/>
-      <c r="C169" s="301"/>
+      <c r="C169" s="304"/>
       <c r="D169" s="295"/>
       <c r="E169" s="177"/>
       <c r="F169" s="178"/>
@@ -24814,7 +24814,7 @@
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="183"/>
       <c r="B170" s="295"/>
-      <c r="C170" s="301"/>
+      <c r="C170" s="304"/>
       <c r="D170" s="295"/>
       <c r="E170" s="177"/>
       <c r="F170" s="178"/>
@@ -24831,7 +24831,7 @@
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="183"/>
       <c r="B171" s="295"/>
-      <c r="C171" s="301"/>
+      <c r="C171" s="304"/>
       <c r="D171" s="295"/>
       <c r="E171" s="177"/>
       <c r="F171" s="178"/>
@@ -24848,7 +24848,7 @@
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="183"/>
       <c r="B172" s="295"/>
-      <c r="C172" s="301"/>
+      <c r="C172" s="304"/>
       <c r="D172" s="295"/>
       <c r="E172" s="177"/>
       <c r="F172" s="178"/>
@@ -24865,7 +24865,7 @@
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="183"/>
       <c r="B173" s="295"/>
-      <c r="C173" s="301"/>
+      <c r="C173" s="304"/>
       <c r="D173" s="295"/>
       <c r="E173" s="177"/>
       <c r="F173" s="178"/>
@@ -24882,7 +24882,7 @@
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="183"/>
       <c r="B174" s="295"/>
-      <c r="C174" s="301"/>
+      <c r="C174" s="304"/>
       <c r="D174" s="295"/>
       <c r="E174" s="177"/>
       <c r="F174" s="178"/>
@@ -24899,7 +24899,7 @@
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="183"/>
       <c r="B175" s="295"/>
-      <c r="C175" s="301"/>
+      <c r="C175" s="304"/>
       <c r="D175" s="296"/>
       <c r="E175" s="177"/>
       <c r="F175" s="178"/>
@@ -24916,7 +24916,7 @@
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="183"/>
       <c r="B176" s="295"/>
-      <c r="C176" s="301"/>
+      <c r="C176" s="304"/>
       <c r="D176" s="294" t="s">
         <v>108</v>
       </c>
@@ -24935,7 +24935,7 @@
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="183"/>
       <c r="B177" s="295"/>
-      <c r="C177" s="301"/>
+      <c r="C177" s="304"/>
       <c r="D177" s="295"/>
       <c r="E177" s="177"/>
       <c r="F177" s="178"/>
@@ -24952,7 +24952,7 @@
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="183"/>
       <c r="B178" s="295"/>
-      <c r="C178" s="301"/>
+      <c r="C178" s="304"/>
       <c r="D178" s="295"/>
       <c r="E178" s="177"/>
       <c r="F178" s="178"/>
@@ -24969,7 +24969,7 @@
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="183"/>
       <c r="B179" s="295"/>
-      <c r="C179" s="301"/>
+      <c r="C179" s="304"/>
       <c r="D179" s="295"/>
       <c r="E179" s="177"/>
       <c r="F179" s="178"/>
@@ -24986,7 +24986,7 @@
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="183"/>
       <c r="B180" s="295"/>
-      <c r="C180" s="301"/>
+      <c r="C180" s="304"/>
       <c r="D180" s="295"/>
       <c r="E180" s="177"/>
       <c r="F180" s="178"/>
@@ -25003,7 +25003,7 @@
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="183"/>
       <c r="B181" s="295"/>
-      <c r="C181" s="301"/>
+      <c r="C181" s="304"/>
       <c r="D181" s="295"/>
       <c r="E181" s="177"/>
       <c r="F181" s="178"/>
@@ -25020,7 +25020,7 @@
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="183"/>
       <c r="B182" s="295"/>
-      <c r="C182" s="301"/>
+      <c r="C182" s="304"/>
       <c r="D182" s="295"/>
       <c r="E182" s="177"/>
       <c r="F182" s="178"/>
@@ -25037,7 +25037,7 @@
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="183"/>
       <c r="B183" s="295"/>
-      <c r="C183" s="302"/>
+      <c r="C183" s="305"/>
       <c r="D183" s="296"/>
       <c r="E183" s="177"/>
       <c r="F183" s="178"/>
@@ -25054,7 +25054,7 @@
     <row r="184" spans="1:13" ht="14.25" customHeight="1">
       <c r="A184" s="183"/>
       <c r="B184" s="295"/>
-      <c r="C184" s="311" t="s">
+      <c r="C184" s="306" t="s">
         <v>54</v>
       </c>
       <c r="D184" s="194"/>
@@ -25075,7 +25075,7 @@
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="183"/>
       <c r="B185" s="295"/>
-      <c r="C185" s="312"/>
+      <c r="C185" s="307"/>
       <c r="D185" s="199" t="s">
         <v>156</v>
       </c>
@@ -25096,7 +25096,7 @@
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="183"/>
       <c r="B186" s="295"/>
-      <c r="C186" s="312"/>
+      <c r="C186" s="307"/>
       <c r="D186" s="254"/>
       <c r="E186" s="238"/>
       <c r="F186" s="253"/>
@@ -25115,7 +25115,7 @@
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="183"/>
       <c r="B187" s="295"/>
-      <c r="C187" s="312"/>
+      <c r="C187" s="307"/>
       <c r="D187" s="195" t="s">
         <v>158</v>
       </c>
@@ -25134,7 +25134,7 @@
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="183"/>
       <c r="B188" s="295"/>
-      <c r="C188" s="312"/>
+      <c r="C188" s="307"/>
       <c r="D188" s="195" t="s">
         <v>159</v>
       </c>
@@ -25153,7 +25153,7 @@
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="183"/>
       <c r="B189" s="295"/>
-      <c r="C189" s="312"/>
+      <c r="C189" s="307"/>
       <c r="D189" s="195" t="s">
         <v>160</v>
       </c>
@@ -25172,7 +25172,7 @@
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="183"/>
       <c r="B190" s="295"/>
-      <c r="C190" s="312"/>
+      <c r="C190" s="307"/>
       <c r="D190" s="195" t="s">
         <v>161</v>
       </c>
@@ -25191,7 +25191,7 @@
     <row r="191" spans="1:13" ht="37.5" customHeight="1">
       <c r="A191" s="183"/>
       <c r="B191" s="295"/>
-      <c r="C191" s="312"/>
+      <c r="C191" s="307"/>
       <c r="D191" s="256" t="s">
         <v>195</v>
       </c>
@@ -25210,7 +25210,7 @@
     <row r="192" spans="1:13" ht="14.25" customHeight="1">
       <c r="A192" s="183"/>
       <c r="B192" s="295"/>
-      <c r="C192" s="312"/>
+      <c r="C192" s="307"/>
       <c r="D192" s="195" t="s">
         <v>162</v>
       </c>
@@ -25229,7 +25229,7 @@
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="183"/>
       <c r="B193" s="296"/>
-      <c r="C193" s="313"/>
+      <c r="C193" s="308"/>
       <c r="D193" s="195" t="s">
         <v>163</v>
       </c>
@@ -25250,7 +25250,7 @@
       <c r="B194" s="294" t="s">
         <v>128</v>
       </c>
-      <c r="C194" s="300" t="s">
+      <c r="C194" s="303" t="s">
         <v>57</v>
       </c>
       <c r="D194" s="294" t="s">
@@ -25275,7 +25275,7 @@
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="183"/>
       <c r="B195" s="295"/>
-      <c r="C195" s="301"/>
+      <c r="C195" s="304"/>
       <c r="D195" s="296"/>
       <c r="E195" s="177"/>
       <c r="F195" s="178"/>
@@ -25296,7 +25296,7 @@
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="183"/>
       <c r="B196" s="295"/>
-      <c r="C196" s="301"/>
+      <c r="C196" s="304"/>
       <c r="D196" s="257" t="s">
         <v>2884</v>
       </c>
@@ -25317,7 +25317,7 @@
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="183"/>
       <c r="B197" s="295"/>
-      <c r="C197" s="301"/>
+      <c r="C197" s="304"/>
       <c r="D197" s="294" t="s">
         <v>61</v>
       </c>
@@ -25338,7 +25338,7 @@
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="183"/>
       <c r="B198" s="295"/>
-      <c r="C198" s="301"/>
+      <c r="C198" s="304"/>
       <c r="D198" s="295"/>
       <c r="E198" s="177"/>
       <c r="F198" s="178"/>
@@ -25359,7 +25359,7 @@
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="183"/>
       <c r="B199" s="295"/>
-      <c r="C199" s="301"/>
+      <c r="C199" s="304"/>
       <c r="D199" s="296"/>
       <c r="E199" s="177"/>
       <c r="F199" s="178"/>
@@ -25378,7 +25378,7 @@
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="183"/>
       <c r="B200" s="295"/>
-      <c r="C200" s="301"/>
+      <c r="C200" s="304"/>
       <c r="D200" s="294" t="s">
         <v>65</v>
       </c>
@@ -25401,7 +25401,7 @@
     <row r="201" spans="1:13" ht="33">
       <c r="A201" s="183"/>
       <c r="B201" s="295"/>
-      <c r="C201" s="301"/>
+      <c r="C201" s="304"/>
       <c r="D201" s="296"/>
       <c r="E201" s="177"/>
       <c r="F201" s="178"/>
@@ -25420,7 +25420,7 @@
     <row r="202" spans="1:13" ht="14.25" customHeight="1">
       <c r="A202" s="183"/>
       <c r="B202" s="295"/>
-      <c r="C202" s="301"/>
+      <c r="C202" s="304"/>
       <c r="D202" s="294" t="s">
         <v>68</v>
       </c>
@@ -25441,7 +25441,7 @@
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="183"/>
       <c r="B203" s="295"/>
-      <c r="C203" s="301"/>
+      <c r="C203" s="304"/>
       <c r="D203" s="296"/>
       <c r="E203" s="177"/>
       <c r="F203" s="178"/>
@@ -25462,7 +25462,7 @@
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="183"/>
       <c r="B204" s="295"/>
-      <c r="C204" s="301"/>
+      <c r="C204" s="304"/>
       <c r="D204" s="294" t="s">
         <v>70</v>
       </c>
@@ -25483,7 +25483,7 @@
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="183"/>
       <c r="B205" s="295"/>
-      <c r="C205" s="301"/>
+      <c r="C205" s="304"/>
       <c r="D205" s="295"/>
       <c r="E205" s="177"/>
       <c r="F205" s="178"/>
@@ -25504,7 +25504,7 @@
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="183"/>
       <c r="B206" s="295"/>
-      <c r="C206" s="301"/>
+      <c r="C206" s="304"/>
       <c r="D206" s="295"/>
       <c r="E206" s="177"/>
       <c r="F206" s="178"/>
@@ -25523,7 +25523,7 @@
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="183"/>
       <c r="B207" s="295"/>
-      <c r="C207" s="301"/>
+      <c r="C207" s="304"/>
       <c r="D207" s="295"/>
       <c r="E207" s="177"/>
       <c r="F207" s="178"/>
@@ -25542,7 +25542,7 @@
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="183"/>
       <c r="B208" s="295"/>
-      <c r="C208" s="301"/>
+      <c r="C208" s="304"/>
       <c r="D208" s="295"/>
       <c r="E208" s="177"/>
       <c r="F208" s="178"/>
@@ -25561,7 +25561,7 @@
     <row r="209" spans="1:13" ht="30" customHeight="1">
       <c r="A209" s="183"/>
       <c r="B209" s="295"/>
-      <c r="C209" s="302"/>
+      <c r="C209" s="305"/>
       <c r="D209" s="296"/>
       <c r="E209" s="177"/>
       <c r="F209" s="178"/>
@@ -25582,7 +25582,7 @@
     <row r="210" spans="1:13" ht="14.25" customHeight="1">
       <c r="A210" s="183"/>
       <c r="B210" s="295"/>
-      <c r="C210" s="300" t="s">
+      <c r="C210" s="303" t="s">
         <v>112</v>
       </c>
       <c r="D210" s="294" t="s">
@@ -25605,7 +25605,7 @@
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="183"/>
       <c r="B211" s="295"/>
-      <c r="C211" s="301"/>
+      <c r="C211" s="304"/>
       <c r="D211" s="295"/>
       <c r="E211" s="177"/>
       <c r="F211" s="178"/>
@@ -25624,7 +25624,7 @@
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="183"/>
       <c r="B212" s="295"/>
-      <c r="C212" s="301"/>
+      <c r="C212" s="304"/>
       <c r="D212" s="295"/>
       <c r="E212" s="177"/>
       <c r="F212" s="178"/>
@@ -25643,7 +25643,7 @@
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="183"/>
       <c r="B213" s="295"/>
-      <c r="C213" s="301"/>
+      <c r="C213" s="304"/>
       <c r="D213" s="295"/>
       <c r="E213" s="177"/>
       <c r="F213" s="178"/>
@@ -25662,7 +25662,7 @@
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="183"/>
       <c r="B214" s="295"/>
-      <c r="C214" s="301"/>
+      <c r="C214" s="304"/>
       <c r="D214" s="295"/>
       <c r="E214" s="177"/>
       <c r="F214" s="178"/>
@@ -25681,7 +25681,7 @@
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="183"/>
       <c r="B215" s="295"/>
-      <c r="C215" s="301"/>
+      <c r="C215" s="304"/>
       <c r="D215" s="295"/>
       <c r="E215" s="177"/>
       <c r="F215" s="178"/>
@@ -25700,7 +25700,7 @@
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="183"/>
       <c r="B216" s="295"/>
-      <c r="C216" s="301"/>
+      <c r="C216" s="304"/>
       <c r="D216" s="295"/>
       <c r="E216" s="177"/>
       <c r="F216" s="178"/>
@@ -25719,7 +25719,7 @@
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="183"/>
       <c r="B217" s="295"/>
-      <c r="C217" s="301"/>
+      <c r="C217" s="304"/>
       <c r="D217" s="295"/>
       <c r="E217" s="177"/>
       <c r="F217" s="178"/>
@@ -25738,7 +25738,7 @@
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="183"/>
       <c r="B218" s="295"/>
-      <c r="C218" s="301"/>
+      <c r="C218" s="304"/>
       <c r="D218" s="295"/>
       <c r="E218" s="177"/>
       <c r="F218" s="178"/>
@@ -25757,7 +25757,7 @@
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="183"/>
       <c r="B219" s="295"/>
-      <c r="C219" s="301"/>
+      <c r="C219" s="304"/>
       <c r="D219" s="295"/>
       <c r="E219" s="177"/>
       <c r="F219" s="178"/>
@@ -25776,7 +25776,7 @@
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="183"/>
       <c r="B220" s="295"/>
-      <c r="C220" s="301"/>
+      <c r="C220" s="304"/>
       <c r="D220" s="295"/>
       <c r="E220" s="177"/>
       <c r="F220" s="178"/>
@@ -25795,7 +25795,7 @@
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="183"/>
       <c r="B221" s="295"/>
-      <c r="C221" s="301"/>
+      <c r="C221" s="304"/>
       <c r="D221" s="295"/>
       <c r="E221" s="177"/>
       <c r="F221" s="178"/>
@@ -25814,7 +25814,7 @@
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="183"/>
       <c r="B222" s="295"/>
-      <c r="C222" s="301"/>
+      <c r="C222" s="304"/>
       <c r="D222" s="295"/>
       <c r="E222" s="177"/>
       <c r="F222" s="178"/>
@@ -25833,7 +25833,7 @@
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="183"/>
       <c r="B223" s="295"/>
-      <c r="C223" s="301"/>
+      <c r="C223" s="304"/>
       <c r="D223" s="295"/>
       <c r="E223" s="177"/>
       <c r="F223" s="178"/>
@@ -25852,7 +25852,7 @@
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="183"/>
       <c r="B224" s="295"/>
-      <c r="C224" s="301"/>
+      <c r="C224" s="304"/>
       <c r="D224" s="295"/>
       <c r="E224" s="177"/>
       <c r="F224" s="178"/>
@@ -25871,7 +25871,7 @@
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="183"/>
       <c r="B225" s="295"/>
-      <c r="C225" s="301"/>
+      <c r="C225" s="304"/>
       <c r="D225" s="295"/>
       <c r="E225" s="177"/>
       <c r="F225" s="178"/>
@@ -25890,7 +25890,7 @@
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="183"/>
       <c r="B226" s="295"/>
-      <c r="C226" s="301"/>
+      <c r="C226" s="304"/>
       <c r="D226" s="295"/>
       <c r="E226" s="177"/>
       <c r="F226" s="178"/>
@@ -25909,7 +25909,7 @@
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="183"/>
       <c r="B227" s="295"/>
-      <c r="C227" s="301"/>
+      <c r="C227" s="304"/>
       <c r="D227" s="295"/>
       <c r="E227" s="177"/>
       <c r="F227" s="178"/>
@@ -25928,7 +25928,7 @@
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="183"/>
       <c r="B228" s="295"/>
-      <c r="C228" s="301"/>
+      <c r="C228" s="304"/>
       <c r="D228" s="295"/>
       <c r="E228" s="177"/>
       <c r="F228" s="178"/>
@@ -25947,7 +25947,7 @@
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="183"/>
       <c r="B229" s="295"/>
-      <c r="C229" s="301"/>
+      <c r="C229" s="304"/>
       <c r="D229" s="295"/>
       <c r="E229" s="177"/>
       <c r="F229" s="178"/>
@@ -25966,7 +25966,7 @@
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="183"/>
       <c r="B230" s="295"/>
-      <c r="C230" s="301"/>
+      <c r="C230" s="304"/>
       <c r="D230" s="295"/>
       <c r="E230" s="177"/>
       <c r="F230" s="178"/>
@@ -25985,7 +25985,7 @@
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="183"/>
       <c r="B231" s="295"/>
-      <c r="C231" s="301"/>
+      <c r="C231" s="304"/>
       <c r="D231" s="295"/>
       <c r="E231" s="177"/>
       <c r="F231" s="178"/>
@@ -26004,7 +26004,7 @@
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="183"/>
       <c r="B232" s="295"/>
-      <c r="C232" s="301"/>
+      <c r="C232" s="304"/>
       <c r="D232" s="295"/>
       <c r="E232" s="177"/>
       <c r="F232" s="178"/>
@@ -26023,7 +26023,7 @@
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="183"/>
       <c r="B233" s="295"/>
-      <c r="C233" s="301"/>
+      <c r="C233" s="304"/>
       <c r="D233" s="295"/>
       <c r="E233" s="177"/>
       <c r="F233" s="178"/>
@@ -26042,7 +26042,7 @@
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="183"/>
       <c r="B234" s="295"/>
-      <c r="C234" s="301"/>
+      <c r="C234" s="304"/>
       <c r="D234" s="295"/>
       <c r="E234" s="177"/>
       <c r="F234" s="178"/>
@@ -26061,7 +26061,7 @@
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="183"/>
       <c r="B235" s="295"/>
-      <c r="C235" s="301"/>
+      <c r="C235" s="304"/>
       <c r="D235" s="295"/>
       <c r="E235" s="177"/>
       <c r="F235" s="178"/>
@@ -26080,7 +26080,7 @@
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="183"/>
       <c r="B236" s="295"/>
-      <c r="C236" s="301"/>
+      <c r="C236" s="304"/>
       <c r="D236" s="295"/>
       <c r="E236" s="177"/>
       <c r="F236" s="178"/>
@@ -26099,7 +26099,7 @@
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="183"/>
       <c r="B237" s="295"/>
-      <c r="C237" s="301"/>
+      <c r="C237" s="304"/>
       <c r="D237" s="295"/>
       <c r="E237" s="177"/>
       <c r="F237" s="178"/>
@@ -26118,7 +26118,7 @@
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="183"/>
       <c r="B238" s="295"/>
-      <c r="C238" s="301"/>
+      <c r="C238" s="304"/>
       <c r="D238" s="295"/>
       <c r="E238" s="177"/>
       <c r="F238" s="178"/>
@@ -26137,7 +26137,7 @@
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="183"/>
       <c r="B239" s="295"/>
-      <c r="C239" s="301"/>
+      <c r="C239" s="304"/>
       <c r="D239" s="295"/>
       <c r="E239" s="177"/>
       <c r="F239" s="178"/>
@@ -26156,7 +26156,7 @@
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="183"/>
       <c r="B240" s="295"/>
-      <c r="C240" s="302"/>
+      <c r="C240" s="305"/>
       <c r="D240" s="296"/>
       <c r="E240" s="177"/>
       <c r="F240" s="178"/>
@@ -26175,10 +26175,10 @@
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="183"/>
       <c r="B241" s="295"/>
-      <c r="C241" s="300" t="s">
+      <c r="C241" s="303" t="s">
         <v>1464</v>
       </c>
-      <c r="D241" s="297" t="s">
+      <c r="D241" s="325" t="s">
         <v>133</v>
       </c>
       <c r="E241" s="177"/>
@@ -26198,8 +26198,8 @@
     <row r="242" spans="1:13" ht="14.25" customHeight="1">
       <c r="A242" s="183"/>
       <c r="B242" s="295"/>
-      <c r="C242" s="301"/>
-      <c r="D242" s="298"/>
+      <c r="C242" s="304"/>
+      <c r="D242" s="326"/>
       <c r="E242" s="177"/>
       <c r="F242" s="178"/>
       <c r="G242" s="179" t="s">
@@ -26217,8 +26217,8 @@
     <row r="243" spans="1:13" ht="14.25" customHeight="1">
       <c r="A243" s="183"/>
       <c r="B243" s="295"/>
-      <c r="C243" s="301"/>
-      <c r="D243" s="298"/>
+      <c r="C243" s="304"/>
+      <c r="D243" s="326"/>
       <c r="E243" s="177"/>
       <c r="F243" s="178"/>
       <c r="G243" s="179" t="s">
@@ -26236,8 +26236,8 @@
     <row r="244" spans="1:13" ht="14.25" customHeight="1">
       <c r="A244" s="183"/>
       <c r="B244" s="295"/>
-      <c r="C244" s="301"/>
-      <c r="D244" s="298"/>
+      <c r="C244" s="304"/>
+      <c r="D244" s="326"/>
       <c r="E244" s="177"/>
       <c r="F244" s="178"/>
       <c r="G244" s="179" t="s">
@@ -26255,8 +26255,8 @@
     <row r="245" spans="1:13" ht="14.25" customHeight="1">
       <c r="A245" s="183"/>
       <c r="B245" s="295"/>
-      <c r="C245" s="301"/>
-      <c r="D245" s="298"/>
+      <c r="C245" s="304"/>
+      <c r="D245" s="326"/>
       <c r="E245" s="177"/>
       <c r="F245" s="178"/>
       <c r="G245" s="179" t="s">
@@ -26274,8 +26274,8 @@
     <row r="246" spans="1:13" ht="14.25" customHeight="1">
       <c r="A246" s="183"/>
       <c r="B246" s="295"/>
-      <c r="C246" s="301"/>
-      <c r="D246" s="298"/>
+      <c r="C246" s="304"/>
+      <c r="D246" s="326"/>
       <c r="E246" s="177"/>
       <c r="F246" s="178"/>
       <c r="G246" s="179" t="s">
@@ -26293,8 +26293,8 @@
     <row r="247" spans="1:13" ht="14.25" customHeight="1">
       <c r="A247" s="183"/>
       <c r="B247" s="295"/>
-      <c r="C247" s="301"/>
-      <c r="D247" s="298"/>
+      <c r="C247" s="304"/>
+      <c r="D247" s="326"/>
       <c r="E247" s="177"/>
       <c r="F247" s="178"/>
       <c r="G247" s="179" t="s">
@@ -26312,8 +26312,8 @@
     <row r="248" spans="1:13" ht="14.25" customHeight="1">
       <c r="A248" s="183"/>
       <c r="B248" s="295"/>
-      <c r="C248" s="301"/>
-      <c r="D248" s="298"/>
+      <c r="C248" s="304"/>
+      <c r="D248" s="326"/>
       <c r="E248" s="177"/>
       <c r="F248" s="178"/>
       <c r="G248" s="179" t="s">
@@ -26331,8 +26331,8 @@
     <row r="249" spans="1:13" ht="14.25" customHeight="1">
       <c r="A249" s="183"/>
       <c r="B249" s="295"/>
-      <c r="C249" s="301"/>
-      <c r="D249" s="298"/>
+      <c r="C249" s="304"/>
+      <c r="D249" s="326"/>
       <c r="E249" s="177"/>
       <c r="F249" s="178"/>
       <c r="G249" s="179" t="s">
@@ -26350,8 +26350,8 @@
     <row r="250" spans="1:13" ht="14.25" customHeight="1">
       <c r="A250" s="183"/>
       <c r="B250" s="295"/>
-      <c r="C250" s="301"/>
-      <c r="D250" s="298"/>
+      <c r="C250" s="304"/>
+      <c r="D250" s="326"/>
       <c r="E250" s="177"/>
       <c r="F250" s="178"/>
       <c r="G250" s="179" t="s">
@@ -26369,8 +26369,8 @@
     <row r="251" spans="1:13" ht="14.25" customHeight="1">
       <c r="A251" s="183"/>
       <c r="B251" s="295"/>
-      <c r="C251" s="301"/>
-      <c r="D251" s="298"/>
+      <c r="C251" s="304"/>
+      <c r="D251" s="326"/>
       <c r="E251" s="177"/>
       <c r="F251" s="178"/>
       <c r="G251" s="179" t="s">
@@ -26388,8 +26388,8 @@
     <row r="252" spans="1:13" ht="14.25" customHeight="1">
       <c r="A252" s="183"/>
       <c r="B252" s="295"/>
-      <c r="C252" s="301"/>
-      <c r="D252" s="298"/>
+      <c r="C252" s="304"/>
+      <c r="D252" s="326"/>
       <c r="E252" s="177"/>
       <c r="F252" s="178"/>
       <c r="G252" s="179" t="s">
@@ -26407,8 +26407,8 @@
     <row r="253" spans="1:13" ht="14.25" customHeight="1">
       <c r="A253" s="183"/>
       <c r="B253" s="295"/>
-      <c r="C253" s="301"/>
-      <c r="D253" s="298"/>
+      <c r="C253" s="304"/>
+      <c r="D253" s="326"/>
       <c r="E253" s="177"/>
       <c r="F253" s="178"/>
       <c r="G253" s="179" t="s">
@@ -26426,8 +26426,8 @@
     <row r="254" spans="1:13" ht="14.25" customHeight="1">
       <c r="A254" s="183"/>
       <c r="B254" s="295"/>
-      <c r="C254" s="301"/>
-      <c r="D254" s="298"/>
+      <c r="C254" s="304"/>
+      <c r="D254" s="326"/>
       <c r="E254" s="177"/>
       <c r="F254" s="178"/>
       <c r="G254" s="179" t="s">
@@ -26445,8 +26445,8 @@
     <row r="255" spans="1:13" ht="14.25" customHeight="1">
       <c r="A255" s="183"/>
       <c r="B255" s="295"/>
-      <c r="C255" s="301"/>
-      <c r="D255" s="298"/>
+      <c r="C255" s="304"/>
+      <c r="D255" s="326"/>
       <c r="E255" s="177"/>
       <c r="F255" s="178"/>
       <c r="G255" s="179" t="s">
@@ -26464,8 +26464,8 @@
     <row r="256" spans="1:13" ht="14.25" customHeight="1">
       <c r="A256" s="183"/>
       <c r="B256" s="295"/>
-      <c r="C256" s="301"/>
-      <c r="D256" s="298"/>
+      <c r="C256" s="304"/>
+      <c r="D256" s="326"/>
       <c r="E256" s="177"/>
       <c r="F256" s="178"/>
       <c r="G256" s="179" t="s">
@@ -26483,8 +26483,8 @@
     <row r="257" spans="1:13" ht="14.25" customHeight="1">
       <c r="A257" s="183"/>
       <c r="B257" s="295"/>
-      <c r="C257" s="302"/>
-      <c r="D257" s="299"/>
+      <c r="C257" s="305"/>
+      <c r="D257" s="327"/>
       <c r="E257" s="177"/>
       <c r="F257" s="178"/>
       <c r="G257" s="179" t="s">
@@ -26502,7 +26502,7 @@
     <row r="258" spans="1:13" ht="14.25" customHeight="1">
       <c r="A258" s="183"/>
       <c r="B258" s="295"/>
-      <c r="C258" s="311" t="s">
+      <c r="C258" s="306" t="s">
         <v>126</v>
       </c>
       <c r="D258" s="294" t="s">
@@ -26525,7 +26525,7 @@
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="183"/>
       <c r="B259" s="295"/>
-      <c r="C259" s="312"/>
+      <c r="C259" s="307"/>
       <c r="D259" s="295"/>
       <c r="E259" s="177"/>
       <c r="F259" s="177"/>
@@ -26544,7 +26544,7 @@
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="183"/>
       <c r="B260" s="295"/>
-      <c r="C260" s="312"/>
+      <c r="C260" s="307"/>
       <c r="D260" s="295"/>
       <c r="E260" s="177"/>
       <c r="F260" s="177"/>
@@ -26563,7 +26563,7 @@
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="183"/>
       <c r="B261" s="295"/>
-      <c r="C261" s="312"/>
+      <c r="C261" s="307"/>
       <c r="D261" s="295"/>
       <c r="E261" s="177"/>
       <c r="F261" s="177"/>
@@ -26582,7 +26582,7 @@
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="183"/>
       <c r="B262" s="295"/>
-      <c r="C262" s="312"/>
+      <c r="C262" s="307"/>
       <c r="D262" s="295"/>
       <c r="E262" s="177"/>
       <c r="F262" s="177"/>
@@ -26601,7 +26601,7 @@
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="183"/>
       <c r="B263" s="295"/>
-      <c r="C263" s="312"/>
+      <c r="C263" s="307"/>
       <c r="D263" s="295"/>
       <c r="E263" s="177"/>
       <c r="F263" s="177"/>
@@ -26620,7 +26620,7 @@
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="183"/>
       <c r="B264" s="295"/>
-      <c r="C264" s="312"/>
+      <c r="C264" s="307"/>
       <c r="D264" s="295"/>
       <c r="E264" s="177"/>
       <c r="F264" s="177"/>
@@ -26639,7 +26639,7 @@
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="183"/>
       <c r="B265" s="295"/>
-      <c r="C265" s="312"/>
+      <c r="C265" s="307"/>
       <c r="D265" s="295"/>
       <c r="E265" s="177"/>
       <c r="F265" s="177"/>
@@ -26658,7 +26658,7 @@
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="183"/>
       <c r="B266" s="295"/>
-      <c r="C266" s="312"/>
+      <c r="C266" s="307"/>
       <c r="D266" s="295"/>
       <c r="E266" s="177"/>
       <c r="F266" s="177"/>
@@ -26677,7 +26677,7 @@
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="183"/>
       <c r="B267" s="295"/>
-      <c r="C267" s="312"/>
+      <c r="C267" s="307"/>
       <c r="D267" s="295"/>
       <c r="E267" s="177"/>
       <c r="F267" s="177"/>
@@ -26696,7 +26696,7 @@
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="183"/>
       <c r="B268" s="295"/>
-      <c r="C268" s="312"/>
+      <c r="C268" s="307"/>
       <c r="D268" s="295"/>
       <c r="E268" s="177"/>
       <c r="F268" s="177"/>
@@ -26715,7 +26715,7 @@
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="183"/>
       <c r="B269" s="295"/>
-      <c r="C269" s="312"/>
+      <c r="C269" s="307"/>
       <c r="D269" s="295"/>
       <c r="E269" s="177"/>
       <c r="F269" s="177"/>
@@ -26734,7 +26734,7 @@
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="183"/>
       <c r="B270" s="295"/>
-      <c r="C270" s="312"/>
+      <c r="C270" s="307"/>
       <c r="D270" s="295"/>
       <c r="E270" s="177"/>
       <c r="F270" s="177"/>
@@ -26753,7 +26753,7 @@
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="183"/>
       <c r="B271" s="295"/>
-      <c r="C271" s="312"/>
+      <c r="C271" s="307"/>
       <c r="D271" s="295"/>
       <c r="E271" s="177"/>
       <c r="F271" s="177"/>
@@ -26772,7 +26772,7 @@
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="183"/>
       <c r="B272" s="295"/>
-      <c r="C272" s="312"/>
+      <c r="C272" s="307"/>
       <c r="D272" s="295"/>
       <c r="E272" s="177"/>
       <c r="F272" s="177"/>
@@ -26791,7 +26791,7 @@
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="183"/>
       <c r="B273" s="295"/>
-      <c r="C273" s="312"/>
+      <c r="C273" s="307"/>
       <c r="D273" s="295"/>
       <c r="E273" s="177"/>
       <c r="F273" s="177"/>
@@ -26810,7 +26810,7 @@
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="183"/>
       <c r="B274" s="295"/>
-      <c r="C274" s="312"/>
+      <c r="C274" s="307"/>
       <c r="D274" s="295"/>
       <c r="E274" s="177"/>
       <c r="F274" s="177"/>
@@ -26829,7 +26829,7 @@
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="183"/>
       <c r="B275" s="295"/>
-      <c r="C275" s="312"/>
+      <c r="C275" s="307"/>
       <c r="D275" s="295"/>
       <c r="E275" s="177"/>
       <c r="F275" s="177"/>
@@ -26848,7 +26848,7 @@
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="183"/>
       <c r="B276" s="295"/>
-      <c r="C276" s="312"/>
+      <c r="C276" s="307"/>
       <c r="D276" s="295"/>
       <c r="E276" s="177"/>
       <c r="F276" s="177"/>
@@ -26867,7 +26867,7 @@
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="183"/>
       <c r="B277" s="295"/>
-      <c r="C277" s="312"/>
+      <c r="C277" s="307"/>
       <c r="D277" s="295"/>
       <c r="E277" s="177"/>
       <c r="F277" s="177"/>
@@ -26886,7 +26886,7 @@
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="183"/>
       <c r="B278" s="295"/>
-      <c r="C278" s="313"/>
+      <c r="C278" s="308"/>
       <c r="D278" s="296"/>
       <c r="E278" s="177"/>
       <c r="F278" s="177"/>
@@ -26905,7 +26905,7 @@
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="183"/>
       <c r="B279" s="295"/>
-      <c r="C279" s="311" t="s">
+      <c r="C279" s="306" t="s">
         <v>1485</v>
       </c>
       <c r="D279" s="294" t="s">
@@ -26928,7 +26928,7 @@
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="183"/>
       <c r="B280" s="295"/>
-      <c r="C280" s="312"/>
+      <c r="C280" s="307"/>
       <c r="D280" s="295"/>
       <c r="E280" s="177"/>
       <c r="F280" s="177"/>
@@ -26947,7 +26947,7 @@
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="183"/>
       <c r="B281" s="295"/>
-      <c r="C281" s="312"/>
+      <c r="C281" s="307"/>
       <c r="D281" s="295"/>
       <c r="E281" s="177"/>
       <c r="F281" s="177"/>
@@ -26966,7 +26966,7 @@
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="183"/>
       <c r="B282" s="295"/>
-      <c r="C282" s="312"/>
+      <c r="C282" s="307"/>
       <c r="D282" s="295"/>
       <c r="E282" s="177"/>
       <c r="F282" s="177"/>
@@ -26985,7 +26985,7 @@
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="183"/>
       <c r="B283" s="295"/>
-      <c r="C283" s="312"/>
+      <c r="C283" s="307"/>
       <c r="D283" s="295"/>
       <c r="E283" s="177"/>
       <c r="F283" s="177"/>
@@ -27004,7 +27004,7 @@
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="183"/>
       <c r="B284" s="295"/>
-      <c r="C284" s="312"/>
+      <c r="C284" s="307"/>
       <c r="D284" s="295"/>
       <c r="E284" s="177"/>
       <c r="F284" s="177"/>
@@ -27023,7 +27023,7 @@
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="183"/>
       <c r="B285" s="295"/>
-      <c r="C285" s="312"/>
+      <c r="C285" s="307"/>
       <c r="D285" s="295"/>
       <c r="E285" s="177"/>
       <c r="F285" s="177"/>
@@ -27042,7 +27042,7 @@
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="183"/>
       <c r="B286" s="295"/>
-      <c r="C286" s="312"/>
+      <c r="C286" s="307"/>
       <c r="D286" s="295"/>
       <c r="E286" s="177"/>
       <c r="F286" s="177"/>
@@ -27061,7 +27061,7 @@
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="183"/>
       <c r="B287" s="295"/>
-      <c r="C287" s="312"/>
+      <c r="C287" s="307"/>
       <c r="D287" s="295"/>
       <c r="E287" s="177"/>
       <c r="F287" s="177"/>
@@ -27080,7 +27080,7 @@
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="183"/>
       <c r="B288" s="295"/>
-      <c r="C288" s="312"/>
+      <c r="C288" s="307"/>
       <c r="D288" s="295"/>
       <c r="E288" s="177"/>
       <c r="F288" s="177"/>
@@ -27099,7 +27099,7 @@
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="183"/>
       <c r="B289" s="295"/>
-      <c r="C289" s="312"/>
+      <c r="C289" s="307"/>
       <c r="D289" s="295"/>
       <c r="E289" s="177"/>
       <c r="F289" s="177"/>
@@ -27118,7 +27118,7 @@
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="183"/>
       <c r="B290" s="295"/>
-      <c r="C290" s="312"/>
+      <c r="C290" s="307"/>
       <c r="D290" s="295"/>
       <c r="E290" s="177"/>
       <c r="F290" s="177"/>
@@ -27137,7 +27137,7 @@
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="183"/>
       <c r="B291" s="295"/>
-      <c r="C291" s="312"/>
+      <c r="C291" s="307"/>
       <c r="D291" s="295"/>
       <c r="E291" s="177"/>
       <c r="F291" s="177"/>
@@ -27156,7 +27156,7 @@
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="183"/>
       <c r="B292" s="295"/>
-      <c r="C292" s="312"/>
+      <c r="C292" s="307"/>
       <c r="D292" s="295"/>
       <c r="E292" s="177"/>
       <c r="F292" s="177"/>
@@ -27175,7 +27175,7 @@
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="183"/>
       <c r="B293" s="295"/>
-      <c r="C293" s="312"/>
+      <c r="C293" s="307"/>
       <c r="D293" s="295"/>
       <c r="E293" s="177"/>
       <c r="F293" s="177"/>
@@ -27194,7 +27194,7 @@
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="183"/>
       <c r="B294" s="295"/>
-      <c r="C294" s="312"/>
+      <c r="C294" s="307"/>
       <c r="D294" s="295"/>
       <c r="E294" s="177"/>
       <c r="F294" s="177"/>
@@ -27213,7 +27213,7 @@
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="183"/>
       <c r="B295" s="295"/>
-      <c r="C295" s="312"/>
+      <c r="C295" s="307"/>
       <c r="D295" s="295"/>
       <c r="E295" s="177"/>
       <c r="F295" s="177"/>
@@ -27232,7 +27232,7 @@
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="183"/>
       <c r="B296" s="295"/>
-      <c r="C296" s="312"/>
+      <c r="C296" s="307"/>
       <c r="D296" s="295"/>
       <c r="E296" s="177"/>
       <c r="F296" s="177"/>
@@ -27251,7 +27251,7 @@
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="183"/>
       <c r="B297" s="295"/>
-      <c r="C297" s="312"/>
+      <c r="C297" s="307"/>
       <c r="D297" s="295"/>
       <c r="E297" s="177"/>
       <c r="F297" s="177"/>
@@ -27268,11 +27268,11 @@
       <c r="M297" s="183"/>
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A298" s="291" t="s">
+      <c r="A298" s="314" t="s">
         <v>1487</v>
       </c>
-      <c r="B298" s="291"/>
-      <c r="C298" s="314" t="s">
+      <c r="B298" s="314"/>
+      <c r="C298" s="323" t="s">
         <v>3020</v>
       </c>
       <c r="D298" s="194" t="s">
@@ -27291,9 +27291,9 @@
       <c r="M298" s="183"/>
     </row>
     <row r="299" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A299" s="291"/>
-      <c r="B299" s="291"/>
-      <c r="C299" s="315"/>
+      <c r="A299" s="314"/>
+      <c r="B299" s="314"/>
+      <c r="C299" s="324"/>
       <c r="D299" s="195" t="s">
         <v>2905</v>
       </c>
@@ -27310,8 +27310,8 @@
       <c r="M299" s="183"/>
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A300" s="291"/>
-      <c r="B300" s="291"/>
+      <c r="A300" s="314"/>
+      <c r="B300" s="314"/>
       <c r="C300" s="260" t="s">
         <v>2902</v>
       </c>
@@ -27329,9 +27329,9 @@
       <c r="M300" s="183"/>
     </row>
     <row r="301" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A301" s="291"/>
-      <c r="B301" s="291"/>
-      <c r="C301" s="305" t="s">
+      <c r="A301" s="314"/>
+      <c r="B301" s="314"/>
+      <c r="C301" s="318" t="s">
         <v>132</v>
       </c>
       <c r="D301" s="294" t="s">
@@ -27352,9 +27352,9 @@
       <c r="M301" s="183"/>
     </row>
     <row r="302" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A302" s="291"/>
-      <c r="B302" s="291"/>
-      <c r="C302" s="305"/>
+      <c r="A302" s="314"/>
+      <c r="B302" s="314"/>
+      <c r="C302" s="318"/>
       <c r="D302" s="295"/>
       <c r="E302" s="177"/>
       <c r="F302" s="177"/>
@@ -27371,9 +27371,9 @@
       <c r="M302" s="183"/>
     </row>
     <row r="303" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A303" s="291"/>
-      <c r="B303" s="291"/>
-      <c r="C303" s="305"/>
+      <c r="A303" s="314"/>
+      <c r="B303" s="314"/>
+      <c r="C303" s="318"/>
       <c r="D303" s="295"/>
       <c r="E303" s="177"/>
       <c r="F303" s="177"/>
@@ -27390,9 +27390,9 @@
       <c r="M303" s="183"/>
     </row>
     <row r="304" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A304" s="291"/>
-      <c r="B304" s="291"/>
-      <c r="C304" s="305"/>
+      <c r="A304" s="314"/>
+      <c r="B304" s="314"/>
+      <c r="C304" s="318"/>
       <c r="D304" s="295"/>
       <c r="E304" s="176"/>
       <c r="F304" s="176"/>
@@ -27409,9 +27409,9 @@
       <c r="M304" s="183"/>
     </row>
     <row r="305" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A305" s="291"/>
-      <c r="B305" s="291"/>
-      <c r="C305" s="305"/>
+      <c r="A305" s="314"/>
+      <c r="B305" s="314"/>
+      <c r="C305" s="318"/>
       <c r="D305" s="295"/>
       <c r="E305" s="176"/>
       <c r="F305" s="176"/>
@@ -27428,9 +27428,9 @@
       <c r="M305" s="183"/>
     </row>
     <row r="306" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A306" s="291"/>
-      <c r="B306" s="291"/>
-      <c r="C306" s="305"/>
+      <c r="A306" s="314"/>
+      <c r="B306" s="314"/>
+      <c r="C306" s="318"/>
       <c r="D306" s="295"/>
       <c r="E306" s="176"/>
       <c r="F306" s="176"/>
@@ -27447,9 +27447,9 @@
       <c r="M306" s="183"/>
     </row>
     <row r="307" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A307" s="291"/>
-      <c r="B307" s="291"/>
-      <c r="C307" s="305"/>
+      <c r="A307" s="314"/>
+      <c r="B307" s="314"/>
+      <c r="C307" s="318"/>
       <c r="D307" s="295"/>
       <c r="E307" s="176"/>
       <c r="F307" s="176"/>
@@ -27466,9 +27466,9 @@
       <c r="M307" s="183"/>
     </row>
     <row r="308" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A308" s="291"/>
-      <c r="B308" s="291"/>
-      <c r="C308" s="305"/>
+      <c r="A308" s="314"/>
+      <c r="B308" s="314"/>
+      <c r="C308" s="318"/>
       <c r="D308" s="295"/>
       <c r="E308" s="176"/>
       <c r="F308" s="176"/>
@@ -27485,9 +27485,9 @@
       <c r="M308" s="183"/>
     </row>
     <row r="309" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A309" s="291"/>
-      <c r="B309" s="291"/>
-      <c r="C309" s="305"/>
+      <c r="A309" s="314"/>
+      <c r="B309" s="314"/>
+      <c r="C309" s="318"/>
       <c r="D309" s="295"/>
       <c r="E309" s="176"/>
       <c r="F309" s="176"/>
@@ -27504,9 +27504,9 @@
       <c r="M309" s="183"/>
     </row>
     <row r="310" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A310" s="291"/>
-      <c r="B310" s="291"/>
-      <c r="C310" s="305"/>
+      <c r="A310" s="314"/>
+      <c r="B310" s="314"/>
+      <c r="C310" s="318"/>
       <c r="D310" s="295"/>
       <c r="E310" s="176"/>
       <c r="F310" s="176"/>
@@ -27523,9 +27523,9 @@
       <c r="M310" s="183"/>
     </row>
     <row r="311" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A311" s="291"/>
-      <c r="B311" s="291"/>
-      <c r="C311" s="305"/>
+      <c r="A311" s="314"/>
+      <c r="B311" s="314"/>
+      <c r="C311" s="318"/>
       <c r="D311" s="296"/>
       <c r="E311" s="176"/>
       <c r="F311" s="176"/>
@@ -27542,9 +27542,9 @@
       <c r="M311" s="183"/>
     </row>
     <row r="312" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A312" s="291"/>
-      <c r="B312" s="291"/>
-      <c r="C312" s="305"/>
+      <c r="A312" s="314"/>
+      <c r="B312" s="314"/>
+      <c r="C312" s="318"/>
       <c r="D312" s="262" t="s">
         <v>2161</v>
       </c>
@@ -27561,10 +27561,10 @@
       <c r="M312" s="183"/>
     </row>
     <row r="313" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A313" s="291"/>
-      <c r="B313" s="291"/>
-      <c r="C313" s="305"/>
-      <c r="D313" s="292" t="s">
+      <c r="A313" s="314"/>
+      <c r="B313" s="314"/>
+      <c r="C313" s="318"/>
+      <c r="D313" s="297" t="s">
         <v>2176</v>
       </c>
       <c r="E313" s="176"/>
@@ -27584,10 +27584,10 @@
       <c r="M313" s="183"/>
     </row>
     <row r="314" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A314" s="291"/>
-      <c r="B314" s="291"/>
-      <c r="C314" s="305"/>
-      <c r="D314" s="324"/>
+      <c r="A314" s="314"/>
+      <c r="B314" s="314"/>
+      <c r="C314" s="318"/>
+      <c r="D314" s="298"/>
       <c r="E314" s="176"/>
       <c r="F314" s="176"/>
       <c r="G314" s="261" t="s">
@@ -27603,10 +27603,10 @@
       <c r="M314" s="183"/>
     </row>
     <row r="315" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A315" s="291"/>
-      <c r="B315" s="291"/>
-      <c r="C315" s="305"/>
-      <c r="D315" s="324"/>
+      <c r="A315" s="314"/>
+      <c r="B315" s="314"/>
+      <c r="C315" s="318"/>
+      <c r="D315" s="298"/>
       <c r="E315" s="176"/>
       <c r="F315" s="176"/>
       <c r="G315" s="261" t="s">
@@ -27624,10 +27624,10 @@
       <c r="M315" s="183"/>
     </row>
     <row r="316" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A316" s="291"/>
-      <c r="B316" s="291"/>
-      <c r="C316" s="305"/>
-      <c r="D316" s="324"/>
+      <c r="A316" s="314"/>
+      <c r="B316" s="314"/>
+      <c r="C316" s="318"/>
+      <c r="D316" s="298"/>
       <c r="E316" s="176"/>
       <c r="F316" s="176"/>
       <c r="G316" s="261" t="s">
@@ -27643,10 +27643,10 @@
       <c r="M316" s="183"/>
     </row>
     <row r="317" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A317" s="291"/>
-      <c r="B317" s="291"/>
-      <c r="C317" s="305"/>
-      <c r="D317" s="324"/>
+      <c r="A317" s="314"/>
+      <c r="B317" s="314"/>
+      <c r="C317" s="318"/>
+      <c r="D317" s="298"/>
       <c r="E317" s="176"/>
       <c r="F317" s="176"/>
       <c r="G317" s="261" t="s">
@@ -27664,10 +27664,10 @@
       <c r="M317" s="183"/>
     </row>
     <row r="318" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A318" s="291"/>
-      <c r="B318" s="291"/>
-      <c r="C318" s="305"/>
-      <c r="D318" s="324"/>
+      <c r="A318" s="314"/>
+      <c r="B318" s="314"/>
+      <c r="C318" s="318"/>
+      <c r="D318" s="298"/>
       <c r="E318" s="176"/>
       <c r="F318" s="176"/>
       <c r="G318" s="261" t="s">
@@ -27683,10 +27683,10 @@
       <c r="M318" s="183"/>
     </row>
     <row r="319" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A319" s="291"/>
-      <c r="B319" s="291"/>
-      <c r="C319" s="305"/>
-      <c r="D319" s="324"/>
+      <c r="A319" s="314"/>
+      <c r="B319" s="314"/>
+      <c r="C319" s="318"/>
+      <c r="D319" s="298"/>
       <c r="E319" s="176"/>
       <c r="F319" s="176"/>
       <c r="G319" s="261" t="s">
@@ -27704,10 +27704,10 @@
       <c r="M319" s="183"/>
     </row>
     <row r="320" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A320" s="291"/>
-      <c r="B320" s="291"/>
-      <c r="C320" s="305"/>
-      <c r="D320" s="324"/>
+      <c r="A320" s="314"/>
+      <c r="B320" s="314"/>
+      <c r="C320" s="318"/>
+      <c r="D320" s="298"/>
       <c r="E320" s="176"/>
       <c r="F320" s="176"/>
       <c r="G320" s="261" t="s">
@@ -27723,10 +27723,10 @@
       <c r="M320" s="183"/>
     </row>
     <row r="321" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A321" s="291"/>
-      <c r="B321" s="291"/>
-      <c r="C321" s="305"/>
-      <c r="D321" s="324"/>
+      <c r="A321" s="314"/>
+      <c r="B321" s="314"/>
+      <c r="C321" s="318"/>
+      <c r="D321" s="298"/>
       <c r="E321" s="176"/>
       <c r="F321" s="176"/>
       <c r="G321" s="261" t="s">
@@ -27744,10 +27744,10 @@
       <c r="M321" s="183"/>
     </row>
     <row r="322" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A322" s="291"/>
-      <c r="B322" s="291"/>
-      <c r="C322" s="305"/>
-      <c r="D322" s="324"/>
+      <c r="A322" s="314"/>
+      <c r="B322" s="314"/>
+      <c r="C322" s="318"/>
+      <c r="D322" s="298"/>
       <c r="E322" s="176"/>
       <c r="F322" s="176"/>
       <c r="G322" s="263" t="s">
@@ -27767,10 +27767,10 @@
       <c r="M322" s="183"/>
     </row>
     <row r="323" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A323" s="291"/>
-      <c r="B323" s="291"/>
-      <c r="C323" s="305"/>
-      <c r="D323" s="293"/>
+      <c r="A323" s="314"/>
+      <c r="B323" s="314"/>
+      <c r="C323" s="318"/>
+      <c r="D323" s="299"/>
       <c r="E323" s="176"/>
       <c r="F323" s="176"/>
       <c r="G323" s="263" t="s">
@@ -27788,10 +27788,10 @@
       <c r="M323" s="183"/>
     </row>
     <row r="324" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A324" s="291"/>
-      <c r="B324" s="291"/>
-      <c r="C324" s="305"/>
-      <c r="D324" s="325" t="s">
+      <c r="A324" s="314"/>
+      <c r="B324" s="314"/>
+      <c r="C324" s="318"/>
+      <c r="D324" s="300" t="s">
         <v>2177</v>
       </c>
       <c r="E324" s="176"/>
@@ -27809,10 +27809,10 @@
       <c r="M324" s="183"/>
     </row>
     <row r="325" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A325" s="291"/>
-      <c r="B325" s="291"/>
-      <c r="C325" s="305"/>
-      <c r="D325" s="326"/>
+      <c r="A325" s="314"/>
+      <c r="B325" s="314"/>
+      <c r="C325" s="318"/>
+      <c r="D325" s="301"/>
       <c r="E325" s="176"/>
       <c r="F325" s="176"/>
       <c r="G325" s="261" t="s">
@@ -27830,10 +27830,10 @@
       <c r="M325" s="183"/>
     </row>
     <row r="326" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A326" s="291"/>
-      <c r="B326" s="291"/>
-      <c r="C326" s="305"/>
-      <c r="D326" s="326"/>
+      <c r="A326" s="314"/>
+      <c r="B326" s="314"/>
+      <c r="C326" s="318"/>
+      <c r="D326" s="301"/>
       <c r="E326" s="176"/>
       <c r="F326" s="176"/>
       <c r="G326" s="261" t="s">
@@ -27851,10 +27851,10 @@
       <c r="M326" s="183"/>
     </row>
     <row r="327" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A327" s="291"/>
-      <c r="B327" s="291"/>
-      <c r="C327" s="305"/>
-      <c r="D327" s="327"/>
+      <c r="A327" s="314"/>
+      <c r="B327" s="314"/>
+      <c r="C327" s="318"/>
+      <c r="D327" s="302"/>
       <c r="E327" s="176"/>
       <c r="F327" s="176"/>
       <c r="G327" s="261" t="s">
@@ -27872,10 +27872,10 @@
       <c r="M327" s="183"/>
     </row>
     <row r="328" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A328" s="291"/>
-      <c r="B328" s="291"/>
-      <c r="C328" s="305"/>
-      <c r="D328" s="325" t="s">
+      <c r="A328" s="314"/>
+      <c r="B328" s="314"/>
+      <c r="C328" s="318"/>
+      <c r="D328" s="300" t="s">
         <v>2178</v>
       </c>
       <c r="E328" s="176"/>
@@ -27895,10 +27895,10 @@
       <c r="M328" s="183"/>
     </row>
     <row r="329" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A329" s="291"/>
-      <c r="B329" s="291"/>
-      <c r="C329" s="305"/>
-      <c r="D329" s="326"/>
+      <c r="A329" s="314"/>
+      <c r="B329" s="314"/>
+      <c r="C329" s="318"/>
+      <c r="D329" s="301"/>
       <c r="E329" s="176"/>
       <c r="F329" s="176"/>
       <c r="G329" s="261" t="s">
@@ -27916,10 +27916,10 @@
       <c r="M329" s="183"/>
     </row>
     <row r="330" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A330" s="291"/>
-      <c r="B330" s="291"/>
-      <c r="C330" s="305"/>
-      <c r="D330" s="326"/>
+      <c r="A330" s="314"/>
+      <c r="B330" s="314"/>
+      <c r="C330" s="318"/>
+      <c r="D330" s="301"/>
       <c r="E330" s="176"/>
       <c r="F330" s="176"/>
       <c r="G330" s="261" t="s">
@@ -27937,10 +27937,10 @@
       <c r="M330" s="183"/>
     </row>
     <row r="331" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A331" s="291"/>
-      <c r="B331" s="291"/>
-      <c r="C331" s="305"/>
-      <c r="D331" s="327"/>
+      <c r="A331" s="314"/>
+      <c r="B331" s="314"/>
+      <c r="C331" s="318"/>
+      <c r="D331" s="302"/>
       <c r="E331" s="176"/>
       <c r="F331" s="176"/>
       <c r="G331" s="261" t="s">
@@ -27958,10 +27958,10 @@
       <c r="M331" s="183"/>
     </row>
     <row r="332" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A332" s="291"/>
-      <c r="B332" s="291"/>
-      <c r="C332" s="305"/>
-      <c r="D332" s="292" t="s">
+      <c r="A332" s="314"/>
+      <c r="B332" s="314"/>
+      <c r="C332" s="318"/>
+      <c r="D332" s="297" t="s">
         <v>2183</v>
       </c>
       <c r="E332" s="176"/>
@@ -27979,10 +27979,10 @@
       <c r="M332" s="183"/>
     </row>
     <row r="333" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A333" s="291"/>
-      <c r="B333" s="291"/>
-      <c r="C333" s="305"/>
-      <c r="D333" s="293"/>
+      <c r="A333" s="314"/>
+      <c r="B333" s="314"/>
+      <c r="C333" s="318"/>
+      <c r="D333" s="299"/>
       <c r="E333" s="176"/>
       <c r="F333" s="176"/>
       <c r="G333" s="261" t="s">
@@ -28000,10 +28000,10 @@
       <c r="M333" s="183"/>
     </row>
     <row r="334" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A334" s="291"/>
-      <c r="B334" s="291"/>
-      <c r="C334" s="305"/>
-      <c r="D334" s="325" t="s">
+      <c r="A334" s="314"/>
+      <c r="B334" s="314"/>
+      <c r="C334" s="318"/>
+      <c r="D334" s="300" t="s">
         <v>2184</v>
       </c>
       <c r="E334" s="176"/>
@@ -28021,10 +28021,10 @@
       <c r="M334" s="183"/>
     </row>
     <row r="335" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A335" s="291"/>
-      <c r="B335" s="291"/>
-      <c r="C335" s="305"/>
-      <c r="D335" s="326"/>
+      <c r="A335" s="314"/>
+      <c r="B335" s="314"/>
+      <c r="C335" s="318"/>
+      <c r="D335" s="301"/>
       <c r="E335" s="176"/>
       <c r="F335" s="176"/>
       <c r="G335" s="281" t="s">
@@ -28034,7 +28034,7 @@
         <v>3044</v>
       </c>
       <c r="I335" s="245"/>
-      <c r="J335" s="321" t="s">
+      <c r="J335" s="291" t="s">
         <v>3043</v>
       </c>
       <c r="K335" s="180"/>
@@ -28042,10 +28042,10 @@
       <c r="M335" s="183"/>
     </row>
     <row r="336" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A336" s="291"/>
-      <c r="B336" s="291"/>
-      <c r="C336" s="305"/>
-      <c r="D336" s="326"/>
+      <c r="A336" s="314"/>
+      <c r="B336" s="314"/>
+      <c r="C336" s="318"/>
+      <c r="D336" s="301"/>
       <c r="E336" s="176"/>
       <c r="F336" s="176"/>
       <c r="G336" s="281" t="s">
@@ -28053,16 +28053,16 @@
       </c>
       <c r="H336" s="245"/>
       <c r="I336" s="245"/>
-      <c r="J336" s="322"/>
+      <c r="J336" s="292"/>
       <c r="K336" s="180"/>
       <c r="L336" s="201"/>
       <c r="M336" s="183"/>
     </row>
     <row r="337" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A337" s="291"/>
-      <c r="B337" s="291"/>
-      <c r="C337" s="305"/>
-      <c r="D337" s="326"/>
+      <c r="A337" s="314"/>
+      <c r="B337" s="314"/>
+      <c r="C337" s="318"/>
+      <c r="D337" s="301"/>
       <c r="E337" s="176"/>
       <c r="F337" s="176"/>
       <c r="G337" s="281" t="s">
@@ -28070,16 +28070,16 @@
       </c>
       <c r="H337" s="245"/>
       <c r="I337" s="245"/>
-      <c r="J337" s="322"/>
+      <c r="J337" s="292"/>
       <c r="K337" s="180"/>
       <c r="L337" s="201"/>
       <c r="M337" s="183"/>
     </row>
     <row r="338" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A338" s="291"/>
-      <c r="B338" s="291"/>
-      <c r="C338" s="305"/>
-      <c r="D338" s="326"/>
+      <c r="A338" s="314"/>
+      <c r="B338" s="314"/>
+      <c r="C338" s="318"/>
+      <c r="D338" s="301"/>
       <c r="E338" s="176"/>
       <c r="F338" s="176"/>
       <c r="G338" s="281" t="s">
@@ -28087,16 +28087,16 @@
       </c>
       <c r="H338" s="245"/>
       <c r="I338" s="245"/>
-      <c r="J338" s="322"/>
+      <c r="J338" s="292"/>
       <c r="K338" s="180"/>
       <c r="L338" s="201"/>
       <c r="M338" s="183"/>
     </row>
     <row r="339" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A339" s="291"/>
-      <c r="B339" s="291"/>
-      <c r="C339" s="305"/>
-      <c r="D339" s="327"/>
+      <c r="A339" s="314"/>
+      <c r="B339" s="314"/>
+      <c r="C339" s="318"/>
+      <c r="D339" s="302"/>
       <c r="E339" s="176"/>
       <c r="F339" s="176"/>
       <c r="G339" s="281" t="s">
@@ -28104,15 +28104,15 @@
       </c>
       <c r="H339" s="245"/>
       <c r="I339" s="245"/>
-      <c r="J339" s="323"/>
+      <c r="J339" s="293"/>
       <c r="K339" s="180"/>
       <c r="L339" s="201"/>
       <c r="M339" s="183"/>
     </row>
     <row r="340" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A340" s="291"/>
-      <c r="B340" s="291"/>
-      <c r="C340" s="305"/>
+      <c r="A340" s="314"/>
+      <c r="B340" s="314"/>
+      <c r="C340" s="318"/>
       <c r="D340" s="265" t="s">
         <v>2195</v>
       </c>
@@ -28135,9 +28135,9 @@
       <c r="M340" s="183"/>
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A341" s="291"/>
-      <c r="B341" s="291"/>
-      <c r="C341" s="305"/>
+      <c r="A341" s="314"/>
+      <c r="B341" s="314"/>
+      <c r="C341" s="318"/>
       <c r="D341" s="266" t="s">
         <v>2196</v>
       </c>
@@ -28154,9 +28154,9 @@
       <c r="M341" s="183"/>
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A342" s="291"/>
-      <c r="B342" s="291"/>
-      <c r="C342" s="305"/>
+      <c r="A342" s="314"/>
+      <c r="B342" s="314"/>
+      <c r="C342" s="318"/>
       <c r="D342" s="262" t="s">
         <v>2212</v>
       </c>
@@ -28175,9 +28175,9 @@
       <c r="M342" s="183"/>
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A343" s="291"/>
-      <c r="B343" s="291"/>
-      <c r="C343" s="305"/>
+      <c r="A343" s="314"/>
+      <c r="B343" s="314"/>
+      <c r="C343" s="318"/>
       <c r="D343" s="262"/>
       <c r="E343" s="176"/>
       <c r="F343" s="176"/>
@@ -28196,9 +28196,9 @@
       <c r="M343" s="183"/>
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A344" s="291"/>
-      <c r="B344" s="291"/>
-      <c r="C344" s="305"/>
+      <c r="A344" s="314"/>
+      <c r="B344" s="314"/>
+      <c r="C344" s="318"/>
       <c r="D344" s="262"/>
       <c r="E344" s="176"/>
       <c r="F344" s="176"/>
@@ -28215,9 +28215,9 @@
       <c r="M344" s="183"/>
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A345" s="291"/>
-      <c r="B345" s="291"/>
-      <c r="C345" s="305"/>
+      <c r="A345" s="314"/>
+      <c r="B345" s="314"/>
+      <c r="C345" s="318"/>
       <c r="D345" s="262" t="s">
         <v>2221</v>
       </c>
@@ -28236,9 +28236,9 @@
       <c r="M345" s="183"/>
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A346" s="291"/>
-      <c r="B346" s="291"/>
-      <c r="C346" s="305"/>
+      <c r="A346" s="314"/>
+      <c r="B346" s="314"/>
+      <c r="C346" s="318"/>
       <c r="D346" s="262"/>
       <c r="E346" s="176"/>
       <c r="F346" s="176"/>
@@ -28257,9 +28257,9 @@
       <c r="M346" s="183"/>
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A347" s="291"/>
-      <c r="B347" s="291"/>
-      <c r="C347" s="305"/>
+      <c r="A347" s="314"/>
+      <c r="B347" s="314"/>
+      <c r="C347" s="318"/>
       <c r="D347" s="262"/>
       <c r="E347" s="176"/>
       <c r="F347" s="176"/>
@@ -28276,9 +28276,9 @@
       <c r="M347" s="183"/>
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A348" s="291"/>
-      <c r="B348" s="291"/>
-      <c r="C348" s="305"/>
+      <c r="A348" s="314"/>
+      <c r="B348" s="314"/>
+      <c r="C348" s="318"/>
       <c r="D348" s="262" t="s">
         <v>2222</v>
       </c>
@@ -28295,9 +28295,9 @@
       <c r="M348" s="183"/>
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A349" s="291"/>
-      <c r="B349" s="291"/>
-      <c r="C349" s="305"/>
+      <c r="A349" s="314"/>
+      <c r="B349" s="314"/>
+      <c r="C349" s="318"/>
       <c r="D349" s="262" t="s">
         <v>2223</v>
       </c>
@@ -28339,43 +28339,22 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J335:J339"/>
-    <mergeCell ref="D301:D311"/>
-    <mergeCell ref="D313:D323"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="D334:D339"/>
-    <mergeCell ref="B194:B297"/>
-    <mergeCell ref="D204:D209"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C209"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="C258:C278"/>
-    <mergeCell ref="D258:D278"/>
-    <mergeCell ref="C279:C297"/>
-    <mergeCell ref="D279:D297"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C117"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="A298:B349"/>
+    <mergeCell ref="D332:D333"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D241:D257"/>
+    <mergeCell ref="C210:C240"/>
+    <mergeCell ref="D210:D240"/>
+    <mergeCell ref="C167:C183"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="D157:D166"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="C118:C142"/>
+    <mergeCell ref="D118:D119"/>
     <mergeCell ref="C2:C66"/>
     <mergeCell ref="C301:C349"/>
     <mergeCell ref="B2:B66"/>
@@ -28392,22 +28371,43 @@
     <mergeCell ref="D167:D175"/>
     <mergeCell ref="C241:C257"/>
     <mergeCell ref="C298:C299"/>
-    <mergeCell ref="A298:B349"/>
-    <mergeCell ref="D332:D333"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D241:D257"/>
-    <mergeCell ref="C210:C240"/>
-    <mergeCell ref="D210:D240"/>
-    <mergeCell ref="C167:C183"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="D157:D166"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="C118:C142"/>
-    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C117"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="C258:C278"/>
+    <mergeCell ref="D258:D278"/>
+    <mergeCell ref="C279:C297"/>
+    <mergeCell ref="D279:D297"/>
+    <mergeCell ref="B194:B297"/>
+    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C209"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="J335:J339"/>
+    <mergeCell ref="D301:D311"/>
+    <mergeCell ref="D313:D323"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="D334:D339"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28477,7 +28477,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -28881,7 +28881,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="29.25" thickBot="1">
+    <row r="15" spans="1:14" ht="28.5">
       <c r="B15" s="331"/>
       <c r="C15" s="98" t="s">
         <v>226</v>
@@ -28906,7 +28906,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="282" customFormat="1" ht="26.25" hidden="1" thickBot="1">
+    <row r="16" spans="1:14" s="282" customFormat="1" ht="26.25" thickBot="1">
       <c r="B16" s="332"/>
       <c r="C16" s="283" t="s">
         <v>78</v>
@@ -38872,6 +38872,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -38884,42 +38920,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
